--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH27"/>
+  <dimension ref="A1:BH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
         <v>2.12</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -1156,34 +1156,34 @@
         <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.35</v>
@@ -1195,22 +1195,22 @@
         <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W4" t="n">
         <v>1.15</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA4" t="n">
         <v>15.5</v>
@@ -1219,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
@@ -1243,7 +1243,7 @@
         <v>240</v>
       </c>
       <c r="AK4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
         <v>120</v>
@@ -1252,10 +1252,10 @@
         <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1282,38 +1282,38 @@
         <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BB4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BD4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG4" t="n">
         <v>8</v>
       </c>
-      <c r="BE4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.42</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
         <v>2.12</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>1.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>1.29</v>
@@ -4299,7 +4299,7 @@
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
         <v>36</v>
@@ -4371,7 +4371,7 @@
         <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT20" t="n">
         <v>7</v>
@@ -4407,17 +4407,17 @@
         <v>26</v>
       </c>
       <c r="BE20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BF20" t="n">
         <v>14</v>
       </c>
       <c r="BG20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
@@ -4448,16 +4448,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -4472,7 +4472,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -4481,7 +4481,7 @@
         <v>2.28</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
         <v>1.49</v>
@@ -4535,7 +4535,7 @@
         <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>80</v>
@@ -4568,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>8.4</v>
@@ -4601,7 +4601,7 @@
         <v>40</v>
       </c>
       <c r="BE21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BF21" t="n">
         <v>34</v>
@@ -4611,14 +4611,14 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4628,66 +4628,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>1.32</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4696,123 +4696,123 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,31 +4827,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
         <v>1.01</v>
@@ -4999,14 +4999,14 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,36 +5016,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5215,31 +5215,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,14 +5387,14 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5404,36 +5404,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -5448,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5581,201 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 01:12:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Chilean Primera B</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>2026-02-21 01:12:36</t>
+          <t>2026-02-21 03:42:55</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -1153,19 +1153,19 @@
         <v>6.4</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1174,22 +1174,22 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
         <v>1.97</v>
@@ -1198,10 +1198,10 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1210,10 +1210,10 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
         <v>22</v>
@@ -1240,7 +1240,7 @@
         <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
         <v>120</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AY4" t="n">
         <v>19</v>
@@ -1291,29 +1291,29 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BG4" t="n">
         <v>8</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
         <v>4.8</v>
@@ -1359,7 +1359,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
@@ -1598,7 +1598,7 @@
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
         <v>180</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
         <v>9</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -2508,16 +2508,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G11" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="H13" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>1.98</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G14" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G16" t="n">
         <v>1.76</v>
@@ -3487,7 +3487,7 @@
         <v>2.38</v>
       </c>
       <c r="I16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -3684,10 +3684,10 @@
         <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>1.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
         <v>1.29</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -4448,16 +4448,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -4493,7 +4493,7 @@
         <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
         <v>23</v>
@@ -4523,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>32</v>
@@ -4601,17 +4601,17 @@
         <v>40</v>
       </c>
       <c r="BE21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BF21" t="n">
         <v>34</v>
       </c>
       <c r="BG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
         <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I24" t="n">
         <v>1000</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
         <v>2.96</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 03:42:55</t>
+          <t>2026-02-21 06:13:14</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH26"/>
+  <dimension ref="A1:BH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.91</v>
@@ -1198,7 +1198,7 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
@@ -1285,7 +1285,7 @@
         <v>7.6</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>20</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
         <v>1.96</v>
@@ -1356,7 +1356,7 @@
         <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>5.6</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="AR6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AS6" t="n">
         <v>15.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
         <v>1.79</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
         <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -3090,40 +3090,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.64</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.56</v>
       </c>
-      <c r="K14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.46</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G16" t="n">
         <v>1.76</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
         <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>6.6</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>1.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>1.29</v>
@@ -4404,7 +4404,7 @@
         <v>19</v>
       </c>
       <c r="BD20" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="BE20" t="n">
         <v>13</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
@@ -4448,16 +4448,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.02</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -4493,7 +4493,7 @@
         <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF21" t="n">
         <v>32</v>
@@ -4535,16 +4535,16 @@
         <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
         <v>42</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
         <v>70</v>
@@ -4565,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4580,7 +4580,7 @@
         <v>17</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>15</v>
@@ -4589,7 +4589,7 @@
         <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>55</v>
@@ -4598,27 +4598,27 @@
         <v>36</v>
       </c>
       <c r="BD21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BE21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BF21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BG21" t="n">
         <v>10</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4628,191 +4628,191 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.32</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1000</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>980</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,31 +4827,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
         <v>1.01</v>
@@ -4999,14 +4999,14 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,36 +5016,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5215,31 +5215,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>1.66</v>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>1.96</v>
       </c>
       <c r="H25" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,201 +5387,395 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 06:13:14</t>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-21 08:43:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Chilean Primera B</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2026-02-23</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Curico Unido</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Magallanes</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F27" t="n">
         <v>1.04</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>1000</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>1.04</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>1000</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J27" t="n">
         <v>1.01</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>1000</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>1.01</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>2026-02-21 06:13:14</t>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-21 08:43:33</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH27"/>
+  <dimension ref="A1:BH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -1153,19 +1153,19 @@
         <v>6.4</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="I4" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1174,16 +1174,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.91</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
@@ -1198,10 +1198,10 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1216,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
@@ -1228,10 +1228,10 @@
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
@@ -1252,7 +1252,7 @@
         <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AO4" t="n">
         <v>10.5</v>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="AR4" t="n">
         <v>8</v>
@@ -1282,38 +1282,38 @@
         <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BB4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BC4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="BD4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BF4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="BG4" t="n">
         <v>8</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>5.6</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
         <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>9.4</v>
@@ -1652,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="AR6" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AS6" t="n">
         <v>15.5</v>
@@ -1679,7 +1679,7 @@
         <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BB6" t="n">
         <v>15</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
         <v>9</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -2887,31 +2887,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.89</v>
+        <v>1.39</v>
       </c>
       <c r="H13" t="n">
-        <v>2.16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3275,31 +3275,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
-        <v>10.5</v>
+        <v>1.76</v>
       </c>
       <c r="H15" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>1.89</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -3469,31 +3469,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76</v>
+        <v>2.86</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="I16" t="n">
-        <v>14.5</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>710</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,14 +3641,14 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3663,31 +3663,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>2.84</v>
+        <v>10.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>1.89</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6</v>
+        <v>630</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -4029,14 +4029,14 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="J19" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,14 +4223,14 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4245,61 +4245,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -4308,123 +4308,123 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BD20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BG20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4434,66 +4434,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.95</v>
+        <v>1.92</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1.93</v>
       </c>
       <c r="H21" t="n">
-        <v>1.99</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4502,123 +4502,123 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
         <v>11</v>
       </c>
-      <c r="Z21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
         <v>23</v>
       </c>
-      <c r="AB21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.5</v>
+        <v>120</v>
       </c>
       <c r="AP21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV21" t="n">
         <v>17</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>9.4</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="BB21" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="BC21" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>36</v>
       </c>
       <c r="BE21" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="BF21" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="BG21" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4633,61 +4633,61 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>3.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>2.02</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>4.9</v>
+        <v>2.94</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4696,123 +4696,123 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AQ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV22" t="n">
         <v>9.6</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AW22" t="n">
         <v>17</v>
       </c>
-      <c r="AS22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV22" t="n">
+      <c r="AX22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY22" t="n">
         <v>14.5</v>
       </c>
-      <c r="AW22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY22" t="n">
+      <c r="AZ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BG22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AZ22" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4822,66 +4822,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.32</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4890,123 +4890,123 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BE23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BF23" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5021,31 +5021,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
         <v>1.01</v>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,36 +5210,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 08:43:33</t>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>
@@ -5598,184 +5598,378 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cobreloa Calama</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-21 11:13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Curico Unido</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Magallanes</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F28" t="n">
         <v>1.04</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G28" t="n">
         <v>1000</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>1.04</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>1000</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J28" t="n">
         <v>1.01</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K28" t="n">
         <v>1000</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q28" t="n">
         <v>1.01</v>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>2026-02-21 08:43:33</t>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-21 11:13:48</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,191 +748,191 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.92</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,191 +942,191 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mladost Lucani</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,191 +1136,191 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.4</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>1.99</v>
       </c>
       <c r="O4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.3</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.64</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB4" t="n">
         <v>19</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BC4" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.2</v>
+        <v>25</v>
       </c>
       <c r="BE4" t="n">
-        <v>7.4</v>
+        <v>48</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,191 +1330,191 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1524,191 +1524,191 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.68</v>
+        <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>1.69</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.6</v>
+        <v>48</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR6" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>15.5</v>
       </c>
-      <c r="AT6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>17</v>
-      </c>
       <c r="BA6" t="n">
-        <v>50</v>
+        <v>4.6</v>
       </c>
       <c r="BB6" t="n">
-        <v>15</v>
+        <v>4.7</v>
       </c>
       <c r="BC6" t="n">
-        <v>15.5</v>
+        <v>4.6</v>
       </c>
       <c r="BD6" t="n">
-        <v>21</v>
+        <v>4.7</v>
       </c>
       <c r="BE6" t="n">
-        <v>38</v>
+        <v>4.9</v>
       </c>
       <c r="BF6" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>14.5</v>
+        <v>4.4</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,191 +1718,191 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Mladost Lucani</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,191 +1912,191 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,42 +2106,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="G9" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2174,123 +2174,123 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Amed Sportif Faaliyetle</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Van Buyuksehir Belediye</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="K10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.63</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66</v>
+        <v>1.82</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>410</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,191 +2688,191 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW12" t="n">
         <v>5.7</v>
       </c>
-      <c r="K12" t="n">
-        <v>710</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,36 +2882,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>9.800000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>1.85</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,33 +3076,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,36 +3270,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="G15" t="n">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>19.5</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>710</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,36 +3464,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.86</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>85</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,14 +3641,14 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3663,31 +3663,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>10.5</v>
+        <v>1.69</v>
       </c>
       <c r="H17" t="n">
-        <v>1.56</v>
+        <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>1.89</v>
+        <v>980</v>
       </c>
       <c r="J17" t="n">
         <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>630</v>
+        <v>410</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3852,36 +3852,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>1.93</v>
       </c>
       <c r="H19" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,14 +4223,14 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4240,36 +4240,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>1.89</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>630</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,14 +4417,14 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4434,66 +4434,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>2.38</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>710</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4502,123 +4502,123 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4628,66 +4628,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>1.18</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I22" t="n">
-        <v>2.02</v>
+        <v>980</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4696,123 +4696,123 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4822,66 +4822,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>1.25</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.6</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.56</v>
+        <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4890,123 +4890,123 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BG23" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,36 +5016,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
         <v>1.01</v>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,36 +5210,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,14 +5387,14 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5404,36 +5404,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -5448,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5581,14 +5581,14 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5598,378 +5598,1930 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>12</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AY27" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BE27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BG27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-21 11:13:48</t>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>980</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Porto B</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Chilean Primera B</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>2026-02-23</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Cobreloa Calama</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Zamora FC</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Academia Anzoategui FC</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Estudiantes de Merida</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Curico Unido</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Magallanes</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F36" t="n">
         <v>1.04</v>
       </c>
-      <c r="G28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.04</v>
       </c>
-      <c r="I28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="I36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH28" t="inlineStr">
-        <is>
-          <t>2026-02-21 11:13:48</t>
+      <c r="Q36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:43:09</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -795,13 +795,13 @@
         <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -956,170 +956,170 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.42</v>
+        <v>2.62</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AP3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF3" t="n">
         <v>7.4</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>28</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>27</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>44</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>50</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="BG3" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -1153,28 +1153,28 @@
         <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.99</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
@@ -1186,134 +1186,134 @@
         <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>4.7</v>
       </c>
       <c r="AS4" t="n">
-        <v>46</v>
+        <v>2.48</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.5</v>
+        <v>4.1</v>
       </c>
       <c r="AW4" t="n">
-        <v>30</v>
+        <v>4.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="BA4" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>4.4</v>
       </c>
       <c r="BD4" t="n">
-        <v>25</v>
+        <v>4.8</v>
       </c>
       <c r="BE4" t="n">
-        <v>48</v>
+        <v>2.9</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -1344,170 +1344,170 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.7</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.63</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>10.5</v>
+        <v>3.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.6</v>
+        <v>3.15</v>
       </c>
       <c r="AR5" t="n">
-        <v>9.6</v>
+        <v>3.45</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>3.85</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.800000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.6</v>
+        <v>2.98</v>
       </c>
       <c r="AV5" t="n">
-        <v>8.800000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="AW5" t="n">
-        <v>18.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>18.5</v>
+        <v>3.8</v>
       </c>
       <c r="AY5" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>3.6</v>
       </c>
       <c r="BA5" t="n">
-        <v>30</v>
+        <v>3.95</v>
       </c>
       <c r="BB5" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
       <c r="BC5" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="BD5" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="BE5" t="n">
-        <v>50</v>
+        <v>4.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -1547,10 +1547,10 @@
         <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.6</v>
@@ -1559,7 +1559,7 @@
         <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
         <v>3.1</v>
@@ -1577,19 +1577,19 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.84</v>
@@ -1750,28 +1750,28 @@
         <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>1.46</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
         <v>1.77</v>
@@ -1840,52 +1840,52 @@
         <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AS7" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AV7" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AW7" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BC7" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BE7" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF7" t="n">
         <v>1.01</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -1926,170 +1926,170 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.31</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>1.31</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -2120,170 +2120,170 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J9" t="n">
         <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -2314,170 +2314,170 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -2508,170 +2508,170 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -2705,10 +2705,10 @@
         <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
         <v>6.2</v>
@@ -2720,7 +2720,7 @@
         <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2729,143 +2729,143 @@
         <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
         <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
         <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
         <v>9.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.8</v>
+        <v>44</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.7</v>
+        <v>65</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AY12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>38</v>
+      </c>
+      <c r="BF12" t="n">
         <v>8.6</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>21</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>8</v>
-      </c>
       <c r="BG12" t="n">
-        <v>4.1</v>
+        <v>70</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -2899,167 +2899,167 @@
         <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.85</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -3090,170 +3090,170 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -3284,13 +3284,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G15" t="n">
         <v>1.17</v>
       </c>
       <c r="H15" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
         <v>38</v>
@@ -3302,152 +3302,152 @@
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
         <v>2.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -3478,170 +3478,170 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="G16" t="n">
         <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.01</v>
       </c>
-      <c r="K16" t="n">
-        <v>85</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -3681,10 +3681,10 @@
         <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="K17" t="n">
         <v>410</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -4060,40 +4060,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="G19" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.12</v>
       </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -4254,22 +4254,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>4.8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>630</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>710</v>
+        <v>6.4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.18</v>
+        <v>2.26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -4672,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="G23" t="n">
         <v>1.38</v>
@@ -4845,13 +4845,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="K23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>1.69</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
         <v>2.92</v>
@@ -5427,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -5451,7 +5451,7 @@
         <v>1.73</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
         <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
         <v>1.78</v>
@@ -5654,10 +5654,10 @@
         <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>7.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>20</v>
@@ -5696,10 +5696,10 @@
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
         <v>22</v>
@@ -5714,7 +5714,7 @@
         <v>180</v>
       </c>
       <c r="AN27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>120</v>
@@ -5729,10 +5729,10 @@
         <v>20</v>
       </c>
       <c r="AS27" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU27" t="n">
         <v>7.4</v>
@@ -5747,7 +5747,7 @@
         <v>9.4</v>
       </c>
       <c r="AY27" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ27" t="n">
         <v>19.5</v>
@@ -5765,17 +5765,17 @@
         <v>36</v>
       </c>
       <c r="BE27" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="BF27" t="n">
         <v>14</v>
       </c>
       <c r="BG27" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
         <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
@@ -5866,7 +5866,7 @@
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA28" t="n">
         <v>23</v>
@@ -5875,13 +5875,13 @@
         <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE28" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
         <v>32</v>
@@ -5893,28 +5893,28 @@
         <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ28" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
         <v>42</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
         <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
         <v>11.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
@@ -5923,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="AS28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT28" t="n">
         <v>16</v>
@@ -5935,7 +5935,7 @@
         <v>9.4</v>
       </c>
       <c r="AW28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>28</v>
@@ -5947,29 +5947,29 @@
         <v>15</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>60</v>
       </c>
       <c r="BC28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BD28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BE28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BF28" t="n">
         <v>34</v>
       </c>
       <c r="BG28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
         <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="n">
         <v>8.4</v>
@@ -6072,13 +6072,13 @@
         <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
         <v>60</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
@@ -6090,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="n">
         <v>34</v>
@@ -6099,10 +6099,10 @@
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO29" t="n">
         <v>80</v>
@@ -6114,56 +6114,56 @@
         <v>9.6</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>11.5</v>
+        <v>48</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU29" t="n">
         <v>6.4</v>
       </c>
       <c r="AV29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AX29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
       </c>
       <c r="BD29" t="n">
+        <v>46</v>
+      </c>
+      <c r="BE29" t="n">
         <v>44</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>12.5</v>
       </c>
       <c r="BF29" t="n">
         <v>19.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="G30" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H30" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -6224,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
-        <v>1.98</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.87</v>
+        <v>2.54</v>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -6806,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="G34" t="n">
         <v>5.9</v>
@@ -6979,19 +6979,19 @@
         <v>1.99</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="J34" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K34" t="n">
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
         <v>2.54</v>
@@ -7003,7 +7003,7 @@
         <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
@@ -7018,10 +7018,10 @@
         <v>1.71</v>
       </c>
       <c r="V34" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="W34" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
@@ -7033,7 +7033,7 @@
         <v>13.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -7075,65 +7075,65 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="AR34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AS34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AT34" t="n">
-        <v>9</v>
+        <v>3.45</v>
       </c>
       <c r="AU34" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="AV34" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="AW34" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AX34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>3.95</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>3.85</v>
       </c>
       <c r="BA34" t="n">
         <v>4.1</v>
       </c>
       <c r="BB34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC34" t="n">
         <v>4.2</v>
       </c>
-      <c r="BC34" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BD34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BG34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
         <v>4.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -7272,62 +7272,62 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AR35" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AS35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC35" t="n">
         <v>4.1</v>
       </c>
-      <c r="AT35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BD35" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BE35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BF35" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="BG35" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-21 13:43:09</t>
+          <t>2026-02-21 16:07:37</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH36"/>
+  <dimension ref="A1:BH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,170 +762,170 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>1.63</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AP2" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>50</v>
+        <v>4.1</v>
       </c>
       <c r="AT2" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AZ2" t="n">
         <v>17.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="BB2" t="n">
         <v>11.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>25</v>
+        <v>3.85</v>
       </c>
       <c r="BE2" t="n">
-        <v>50</v>
+        <v>4.1</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.94</v>
@@ -1004,7 +1004,7 @@
         <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
         <v>1.59</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -1174,19 +1174,19 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.84</v>
@@ -1207,7 +1207,7 @@
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>36</v>
@@ -1216,22 +1216,22 @@
         <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1252,7 +1252,7 @@
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
         <v>50</v>
@@ -1303,7 +1303,7 @@
         <v>4.8</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="BF4" t="n">
         <v>4.1</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1362,16 +1362,16 @@
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
         <v>1.84</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -1541,13 +1541,13 @@
         <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1565,7 +1565,7 @@
         <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
         <v>1.72</v>
@@ -1580,16 +1580,16 @@
         <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -1732,25 +1732,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1765,7 +1765,7 @@
         <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1780,122 +1780,122 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -1929,13 +1929,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1944,40 +1944,40 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="W8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -2123,55 +2123,55 @@
         <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I9" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
         <v>27</v>
@@ -2180,13 +2180,13 @@
         <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA9" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>15.5</v>
@@ -2198,7 +2198,7 @@
         <v>230</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -2207,10 +2207,10 @@
         <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -2225,7 +2225,7 @@
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AP9" t="n">
         <v>22</v>
@@ -2234,22 +2234,22 @@
         <v>32</v>
       </c>
       <c r="AR9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT9" t="n">
         <v>9</v>
       </c>
-      <c r="AS9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AU9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>7.4</v>
@@ -2258,13 +2258,13 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="BB9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC9" t="n">
         <v>12</v>
@@ -2273,17 +2273,17 @@
         <v>32</v>
       </c>
       <c r="BE9" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -2353,13 +2353,13 @@
         <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
@@ -2368,116 +2368,116 @@
         <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP10" t="n">
         <v>15</v>
       </c>
-      <c r="AG10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>1.89</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.74</v>
+        <v>6.8</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.76</v>
+        <v>7.2</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.89</v>
+        <v>19.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.77</v>
+        <v>7.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.76</v>
+        <v>7.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.88</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.96</v>
+        <v>4.1</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.84</v>
+        <v>13.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.93</v>
+        <v>24</v>
       </c>
       <c r="BE10" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="BF10" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>3.6</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
         <v>1.95</v>
@@ -2529,7 +2529,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>4.2</v>
@@ -2541,13 +2541,13 @@
         <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
         <v>1.56</v>
@@ -2559,119 +2559,119 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -2702,31 +2702,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
         <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2738,13 +2738,13 @@
         <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
         <v>2.12</v>
@@ -2753,7 +2753,7 @@
         <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2765,10 +2765,10 @@
         <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2786,10 +2786,10 @@
         <v>9.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
@@ -2801,16 +2801,16 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>85</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>19.5</v>
@@ -2846,7 +2846,7 @@
         <v>65</v>
       </c>
       <c r="BB12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>15.5</v>
@@ -2855,17 +2855,17 @@
         <v>29</v>
       </c>
       <c r="BE12" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BG12" t="n">
         <v>70</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2920,146 +2920,146 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
         <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
         <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.12</v>
+        <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.94</v>
+        <v>13.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.02</v>
+        <v>6.4</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.06</v>
+        <v>7.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.86</v>
+        <v>9.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.81</v>
+        <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.94</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.04</v>
+        <v>7.2</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.91</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.86</v>
+        <v>9.6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.95</v>
+        <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.06</v>
+        <v>7.2</v>
       </c>
       <c r="BB13" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.98</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.02</v>
+        <v>6.6</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.12</v>
+        <v>7.6</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.12</v>
+        <v>10</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.12</v>
+        <v>6.8</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G14" t="n">
         <v>1.88</v>
@@ -3099,7 +3099,7 @@
         <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -3114,10 +3114,10 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>1.96</v>
@@ -3126,100 +3126,100 @@
         <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
         <v>2.12</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.16</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.98</v>
+        <v>6.8</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.06</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.16</v>
+        <v>10.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.84</v>
+        <v>7.8</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.84</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX14" t="n">
         <v>9.199999999999999</v>
@@ -3228,32 +3228,32 @@
         <v>8.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.06</v>
+        <v>8.6</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.16</v>
+        <v>10.5</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.16</v>
+        <v>9</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.16</v>
+        <v>10</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -3284,13 +3284,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="G15" t="n">
         <v>1.17</v>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
         <v>38</v>
@@ -3323,16 +3323,16 @@
         <v>1.76</v>
       </c>
       <c r="S15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
         <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="V15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W15" t="n">
         <v>6.8</v>
@@ -3371,7 +3371,7 @@
         <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.4</v>
@@ -3386,22 +3386,22 @@
         <v>380</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AS15" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT15" t="n">
         <v>9.6</v>
@@ -3410,10 +3410,10 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
@@ -3422,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="BB15" t="n">
         <v>6.8</v>
@@ -3434,20 +3434,20 @@
         <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="BE15" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="BG15" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -3478,170 +3478,170 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>1.76</v>
       </c>
       <c r="J16" t="n">
-        <v>1.32</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>9</v>
       </c>
       <c r="AW16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>4.2</v>
       </c>
       <c r="AY16" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>46</v>
+        <v>4.4</v>
       </c>
       <c r="BC16" t="n">
-        <v>26</v>
+        <v>4.2</v>
       </c>
       <c r="BD16" t="n">
-        <v>26</v>
+        <v>4.2</v>
       </c>
       <c r="BE16" t="n">
-        <v>36</v>
+        <v>4.2</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -3672,170 +3672,170 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G17" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>410</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
         <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -3866,170 +3866,170 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>1.33</v>
       </c>
       <c r="J18" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>710</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -4051,186 +4051,186 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="I19" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BE19" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BF19" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4245,179 +4245,179 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>1.65</v>
       </c>
       <c r="G20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>25</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF20" t="n">
         <v>6.6</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
       <c r="BG20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
@@ -4466,16 +4466,16 @@
         <v>6.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
         <v>2.8</v>
@@ -4484,134 +4484,134 @@
         <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BF21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -4645,174 +4645,174 @@
         <v>2.26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
         <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
         <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,186 +4827,186 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.38</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>9.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X23" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC23" t="n">
         <v>13.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BD23" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BE23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF23" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5021,186 +5021,186 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BG24" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5215,186 +5215,186 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5404,191 +5404,191 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.46</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AY26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BD26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BF26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5598,191 +5598,191 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>4.3</v>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>11.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>1.56</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR27" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AS27" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="AT27" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AW27" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY27" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA27" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BD27" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BE27" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BF27" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="BG27" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5792,191 +5792,191 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2.32</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.04</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="U28" t="n">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK28" t="n">
         <v>32</v>
       </c>
-      <c r="AG28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>42</v>
-      </c>
       <c r="AL28" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>11.5</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="n">
-        <v>17.5</v>
+        <v>3.7</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>4.4</v>
       </c>
       <c r="AS28" t="n">
-        <v>21</v>
+        <v>4.9</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY28" t="n">
         <v>9.4</v>
       </c>
-      <c r="AW28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>4.9</v>
       </c>
       <c r="BB28" t="n">
-        <v>60</v>
+        <v>4.5</v>
       </c>
       <c r="BC28" t="n">
-        <v>34</v>
+        <v>4.4</v>
       </c>
       <c r="BD28" t="n">
-        <v>40</v>
+        <v>4.7</v>
       </c>
       <c r="BE28" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="BF28" t="n">
-        <v>34</v>
+        <v>4.3</v>
       </c>
       <c r="BG28" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,191 +5986,191 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW29" t="n">
         <v>60</v>
       </c>
-      <c r="AM29" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>38</v>
-      </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
-        <v>12.5</v>
+        <v>70</v>
       </c>
       <c r="BB29" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
       </c>
       <c r="BD29" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="BE29" t="n">
         <v>44</v>
       </c>
       <c r="BF29" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="BG29" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,191 +6180,191 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.57</v>
+        <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>1.72</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>6.2</v>
       </c>
-      <c r="I30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>0</v>
-      </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BC30" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BE30" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BG30" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6374,191 +6374,191 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6568,191 +6568,191 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>1.96</v>
+        <v>110</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>720</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6762,191 +6762,191 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
         <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6956,191 +6956,191 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zamora FC</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.4</v>
       </c>
-      <c r="G34" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="L34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV34" t="n">
         <v>2.18</v>
       </c>
-      <c r="J34" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="AW34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>2.16</v>
       </c>
-      <c r="U34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BA34" t="n">
-        <v>4.1</v>
+        <v>2.32</v>
       </c>
       <c r="BB34" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="BC34" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="BD34" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="BE34" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="BF34" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="BG34" t="n">
-        <v>3.9</v>
+        <v>2.32</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7150,72 +7150,72 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Academia Anzoategui FC</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Estudiantes de Merida</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="G35" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="H35" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.26</v>
       </c>
-      <c r="S35" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -7272,62 +7272,62 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="AR35" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AS35" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU35" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="AV35" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AX35" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="AY35" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="AZ35" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="BA35" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="BB35" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC35" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BD35" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="BE35" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="BF35" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="BG35" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-21 16:07:37</t>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>
@@ -7344,184 +7344,960 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Cobreloa Calama</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:31:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:31:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Zamora FC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:31:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Academia Anzoategui FC</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Estudiantes de Merida</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:31:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Curico Unido</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Magallanes</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F40" t="n">
         <v>1.04</v>
       </c>
-      <c r="G36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.04</v>
       </c>
-      <c r="I36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="I40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH36" t="inlineStr">
-        <is>
-          <t>2026-02-21 16:07:37</t>
+      <c r="Q40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:31:03</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -807,13 +807,13 @@
         <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -837,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -861,71 +861,71 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO2" t="n">
         <v>110</v>
       </c>
       <c r="AP2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>16.5</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>19</v>
-      </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BB2" t="n">
         <v>11.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.85</v>
+        <v>23</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BF2" t="n">
         <v>6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -998,7 +998,7 @@
         <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -1064,10 +1064,10 @@
         <v>90</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="AR3" t="n">
         <v>6.6</v>
@@ -1076,22 +1076,22 @@
         <v>7.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="AV3" t="n">
-        <v>13.5</v>
+        <v>5.7</v>
       </c>
       <c r="AW3" t="n">
         <v>7.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="AZ3" t="n">
         <v>6.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
         <v>2.2</v>
@@ -1159,13 +1159,13 @@
         <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
         <v>1.4</v>
@@ -1198,13 +1198,13 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
         <v>1.84</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1234,7 +1234,7 @@
         <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1258,62 +1258,62 @@
         <v>50</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AR4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB4" t="n">
         <v>4.7</v>
       </c>
-      <c r="AS4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BC4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="BF4" t="n">
         <v>4.1</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -1362,7 +1362,7 @@
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1395,7 +1395,7 @@
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
         <v>16.5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -1541,13 +1541,13 @@
         <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1577,19 +1577,19 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
         <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1616,7 +1616,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1655,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AT6" t="n">
         <v>9.199999999999999</v>
@@ -1679,29 +1679,29 @@
         <v>15.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BB6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC6" t="n">
         <v>4.7</v>
       </c>
-      <c r="BC6" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BD6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF6" t="n">
         <v>4.7</v>
       </c>
-      <c r="BE6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BG6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1750,7 +1750,7 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1765,7 +1765,7 @@
         <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1780,7 +1780,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
         <v>1.81</v>
@@ -1852,10 +1852,10 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AV7" t="n">
         <v>15.5</v>
@@ -1864,13 +1864,13 @@
         <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>4.9</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G8" t="n">
         <v>8.4</v>
@@ -1935,10 +1935,10 @@
         <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1947,34 +1947,34 @@
         <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
         <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="W8" t="n">
         <v>1.13</v>
@@ -1986,7 +1986,7 @@
         <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1995,31 +1995,31 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>65</v>
       </c>
       <c r="AG8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH8" t="n">
         <v>29</v>
       </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="n">
         <v>130</v>
@@ -2028,19 +2028,19 @@
         <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AP8" t="n">
         <v>13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AR8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS8" t="n">
         <v>12.5</v>
@@ -2058,38 +2058,38 @@
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AY8" t="n">
         <v>19.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="BC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="BE8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG8" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2153,13 +2153,13 @@
         <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
         <v>2.1</v>
@@ -2198,7 +2198,7 @@
         <v>230</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -2234,7 +2234,7 @@
         <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2249,7 +2249,7 @@
         <v>34</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>7.4</v>
@@ -2258,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BA9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB9" t="n">
         <v>8.800000000000001</v>
@@ -2270,10 +2270,10 @@
         <v>12</v>
       </c>
       <c r="BD9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BF9" t="n">
         <v>3.95</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2425,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2434,22 +2434,22 @@
         <v>4.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AU10" t="n">
         <v>7.2</v>
       </c>
       <c r="AV10" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>4.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ10" t="n">
         <v>17</v>
@@ -2458,10 +2458,10 @@
         <v>4.1</v>
       </c>
       <c r="BB10" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>24</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>3.6</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
         <v>1.95</v>
@@ -2547,7 +2547,7 @@
         <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.56</v>
@@ -2559,7 +2559,7 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2625,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.65</v>
+        <v>17.5</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
@@ -2634,10 +2634,10 @@
         <v>6.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>3.15</v>
       </c>
       <c r="AW11" t="n">
-        <v>14.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
         <v>3.75</v>
@@ -2646,10 +2646,10 @@
         <v>11.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>3.75</v>
       </c>
       <c r="BB11" t="n">
         <v>4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -2702,19 +2702,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
@@ -2750,7 +2750,7 @@
         <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
         <v>2.48</v>
@@ -2771,10 +2771,10 @@
         <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
         <v>80</v>
@@ -2798,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
@@ -2837,7 +2837,7 @@
         <v>9.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ12" t="n">
         <v>18</v>
@@ -2855,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="BE12" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="BF12" t="n">
         <v>8.4</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -2905,13 +2905,13 @@
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2929,22 +2929,22 @@
         <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
         <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
         <v>1.84</v>
@@ -2956,7 +2956,7 @@
         <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>70</v>
@@ -2974,7 +2974,7 @@
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -3004,16 +3004,16 @@
         <v>40</v>
       </c>
       <c r="AP13" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="AQ13" t="n">
         <v>13.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT13" t="n">
         <v>9.4</v>
@@ -3025,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX13" t="n">
         <v>12</v>
@@ -3037,29 +3037,29 @@
         <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BC13" t="n">
         <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF13" t="n">
         <v>10</v>
       </c>
       <c r="BG13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
         <v>1.88</v>
@@ -3105,7 +3105,7 @@
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -3114,7 +3114,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
         <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
         <v>1.02</v>
@@ -3386,22 +3386,22 @@
         <v>380</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AQ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR15" t="n">
         <v>8.6</v>
       </c>
-      <c r="AR15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AS15" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT15" t="n">
         <v>9.6</v>
@@ -3410,10 +3410,10 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW15" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
@@ -3422,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BA15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="BB15" t="n">
         <v>6.8</v>
@@ -3434,20 +3434,20 @@
         <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF15" t="n">
         <v>2.78</v>
       </c>
       <c r="BG15" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -3481,19 +3481,19 @@
         <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
         <v>1.63</v>
       </c>
       <c r="I16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -3511,28 +3511,28 @@
         <v>2.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
         <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
         <v>17</v>
@@ -3547,13 +3547,13 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF16" t="n">
         <v>55</v>
@@ -3571,22 +3571,22 @@
         <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
         <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AQ16" t="n">
         <v>12</v>
@@ -3598,7 +3598,7 @@
         <v>15.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
         <v>17.5</v>
@@ -3622,26 +3622,26 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="BE16" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BG16" t="n">
         <v>4.7</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -3681,13 +3681,13 @@
         <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="J17" t="n">
         <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -3696,16 +3696,16 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -3717,10 +3717,10 @@
         <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
         <v>2.74</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
         <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>1.59</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G20" t="n">
         <v>1.79</v>
@@ -4263,13 +4263,13 @@
         <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -4284,7 +4284,7 @@
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
         <v>1.71</v>
@@ -4293,13 +4293,13 @@
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T20" t="n">
         <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
         <v>1.2</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
         <v>6.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -4487,7 +4487,7 @@
         <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -4496,7 +4496,7 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
         <v>2.5</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -4642,13 +4642,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
         <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I22" t="n">
         <v>3.05</v>
@@ -4660,7 +4660,7 @@
         <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4675,7 +4675,7 @@
         <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
         <v>1.73</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -4836,25 +4836,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I23" t="n">
         <v>1.79</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4866,13 +4866,13 @@
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
         <v>1.47</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="n">
         <v>2.32</v>
@@ -4881,10 +4881,10 @@
         <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="W23" t="n">
         <v>1.19</v>
@@ -4893,19 +4893,19 @@
         <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>15.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
         <v>32</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -4914,13 +4914,13 @@
         <v>19.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>34</v>
@@ -4935,7 +4935,7 @@
         <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
         <v>60</v>
@@ -4944,16 +4944,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AP23" t="n">
-        <v>18.5</v>
+        <v>3.7</v>
       </c>
       <c r="AQ23" t="n">
         <v>3.3</v>
       </c>
       <c r="AR23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AT23" t="n">
         <v>3.7</v>
@@ -4968,13 +4968,13 @@
         <v>11.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AY23" t="n">
         <v>3.6</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="BA23" t="n">
         <v>19</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -5048,10 +5048,10 @@
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
         <v>2.48</v>
@@ -5099,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
         <v>15</v>
@@ -5135,7 +5135,7 @@
         <v>120</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AP24" t="n">
         <v>7.2</v>
@@ -5144,56 +5144,56 @@
         <v>5.9</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU24" t="n">
         <v>6.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.5</v>
+        <v>26</v>
       </c>
       <c r="AX24" t="n">
         <v>4.4</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BB24" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BD24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BE24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF24" t="n">
         <v>5</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>4.9</v>
       </c>
       <c r="BG24" t="n">
         <v>4.6</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -5248,10 +5248,10 @@
         <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>1.37</v>
+        <v>2.12</v>
       </c>
       <c r="O25" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="P25" t="n">
         <v>1.37</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -5418,127 +5418,127 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="G26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>1.58</v>
       </c>
       <c r="I26" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>1.61</v>
+        <v>2.84</v>
       </c>
       <c r="O26" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
         <v>1.61</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V26" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W26" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AP26" t="n">
         <v>9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AS26" t="n">
         <v>11</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5547,41 +5547,41 @@
         <v>9.4</v>
       </c>
       <c r="AW26" t="n">
-        <v>18</v>
+        <v>5.4</v>
       </c>
       <c r="AX26" t="n">
-        <v>40</v>
+        <v>6.2</v>
       </c>
       <c r="AY26" t="n">
-        <v>24</v>
+        <v>5.8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>27</v>
+        <v>5.7</v>
       </c>
       <c r="BA26" t="n">
-        <v>44</v>
+        <v>6.2</v>
       </c>
       <c r="BB26" t="n">
-        <v>100</v>
+        <v>6.6</v>
       </c>
       <c r="BC26" t="n">
-        <v>90</v>
+        <v>6.6</v>
       </c>
       <c r="BD26" t="n">
-        <v>100</v>
+        <v>6.6</v>
       </c>
       <c r="BE26" t="n">
-        <v>100</v>
+        <v>6.6</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -5612,16 +5612,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
@@ -5633,7 +5633,7 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>3.35</v>
@@ -5648,7 +5648,7 @@
         <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
         <v>3.05</v>
@@ -5660,10 +5660,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -5815,10 +5815,10 @@
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.4</v>
@@ -5839,22 +5839,22 @@
         <v>1.71</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
         <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
         <v>1.75</v>
@@ -5869,7 +5869,7 @@
         <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB28" t="n">
         <v>9.6</v>
@@ -5878,10 +5878,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -5908,22 +5908,22 @@
         <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AQ28" t="n">
         <v>10.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AS28" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AT28" t="n">
         <v>7</v>
@@ -5932,10 +5932,10 @@
         <v>6.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AX28" t="n">
         <v>11</v>
@@ -5944,32 +5944,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BA28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BB28" t="n">
         <v>4.9</v>
       </c>
-      <c r="BB28" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BC28" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="BD28" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="BE28" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BF28" t="n">
-        <v>4.3</v>
+        <v>17</v>
       </c>
       <c r="BG28" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -6009,16 +6009,16 @@
         <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
         <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
@@ -6033,16 +6033,16 @@
         <v>1.77</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U29" t="n">
         <v>1.91</v>
@@ -6117,13 +6117,13 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AT29" t="n">
         <v>7.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV29" t="n">
         <v>17.5</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -6194,16 +6194,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -6236,16 +6236,16 @@
         <v>3.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
@@ -6305,59 +6305,59 @@
         <v>5.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AU30" t="n">
         <v>5.6</v>
       </c>
       <c r="AV30" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AY30" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ30" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BA30" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="BB30" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC30" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="BE30" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="BF30" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="BG30" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -6397,22 +6397,22 @@
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -6427,7 +6427,7 @@
         <v>1.49</v>
       </c>
       <c r="S31" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T31" t="n">
         <v>1.7</v>
@@ -6436,7 +6436,7 @@
         <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W31" t="n">
         <v>1.33</v>
@@ -6460,7 +6460,7 @@
         <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE31" t="n">
         <v>19</v>
@@ -6487,7 +6487,7 @@
         <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
         <v>36</v>
@@ -6514,7 +6514,7 @@
         <v>8.4</v>
       </c>
       <c r="AV31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
         <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
         <v>1.04</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -6794,13 +6794,13 @@
         <v>3.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.51</v>
@@ -6809,13 +6809,13 @@
         <v>1.61</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T33" t="n">
         <v>2.1</v>
@@ -6824,7 +6824,7 @@
         <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W33" t="n">
         <v>1.66</v>
@@ -6887,13 +6887,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AQ33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AR33" t="n">
         <v>21</v>
       </c>
       <c r="AS33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AT33" t="n">
         <v>7.6</v>
@@ -6908,7 +6908,7 @@
         <v>48</v>
       </c>
       <c r="AX33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY33" t="n">
         <v>11</v>
@@ -6935,11 +6935,11 @@
         <v>29</v>
       </c>
       <c r="BG33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -6970,16 +6970,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G34" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>6.4</v>
       </c>
       <c r="I34" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J34" t="n">
         <v>3.9</v>
@@ -6994,13 +6994,13 @@
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>1.84</v>
+        <v>3.45</v>
       </c>
       <c r="O34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P34" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q34" t="n">
         <v>2</v>
@@ -7012,10 +7012,10 @@
         <v>3.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V34" t="n">
         <v>1.15</v>
@@ -7024,116 +7024,116 @@
         <v>2.42</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG34" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB34" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>2.1</v>
-      </c>
       <c r="BC34" t="n">
-        <v>2.14</v>
+        <v>6.2</v>
       </c>
       <c r="BD34" t="n">
-        <v>2.24</v>
+        <v>7.6</v>
       </c>
       <c r="BE34" t="n">
-        <v>2.32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF34" t="n">
-        <v>2.32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG34" t="n">
-        <v>2.32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -7167,13 +7167,13 @@
         <v>1.89</v>
       </c>
       <c r="G35" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -7185,7 +7185,7 @@
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
         <v>1.65</v>
@@ -7194,7 +7194,7 @@
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
         <v>1.91</v>
@@ -7206,13 +7206,13 @@
         <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W35" t="n">
         <v>1.68</v>
@@ -7221,46 +7221,46 @@
         <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
         <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -7272,62 +7272,62 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="AW35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="BA35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="BB35" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="BC35" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="BD35" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="BE35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="BF35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="BG35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -7364,10 +7364,10 @@
         <v>1.96</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J36" t="n">
         <v>3.2</v>
@@ -7376,16 +7376,16 @@
         <v>4.7</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
         <v>1.72</v>
@@ -7394,134 +7394,134 @@
         <v>1.96</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AU36" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AV36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AW36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AX36" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AY36" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BA36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BC36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BE36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BF36" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="BG36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -7555,10 +7555,10 @@
         <v>2.54</v>
       </c>
       <c r="G37" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H37" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I37" t="n">
         <v>3.4</v>
@@ -7570,152 +7570,152 @@
         <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
         <v>1.59</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA37" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BB37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC37" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BD37" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BE37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG37" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -7749,13 +7749,13 @@
         <v>4.5</v>
       </c>
       <c r="G38" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H38" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="I38" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="J38" t="n">
         <v>2.7</v>
@@ -7764,10 +7764,10 @@
         <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
         <v>2.54</v>
@@ -7779,7 +7779,7 @@
         <v>1.52</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="R38" t="n">
         <v>1.18</v>
@@ -7794,10 +7794,10 @@
         <v>1.71</v>
       </c>
       <c r="V38" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="W38" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X38" t="n">
         <v>10.5</v>
@@ -7878,7 +7878,7 @@
         <v>20</v>
       </c>
       <c r="AX38" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AY38" t="n">
         <v>3.75</v>
@@ -7887,7 +7887,7 @@
         <v>3.95</v>
       </c>
       <c r="BA38" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BB38" t="n">
         <v>4.3</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
         <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
@@ -8099,11 +8099,11 @@
         <v>3.05</v>
       </c>
       <c r="BG39" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>
@@ -8146,158 +8146,158 @@
         <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P40" t="n">
         <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-21 18:31:03</t>
+          <t>2026-02-21 20:52:28</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>5.7</v>
@@ -786,7 +786,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -795,7 +795,7 @@
         <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
@@ -804,16 +804,16 @@
         <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -870,37 +870,37 @@
         <v>110</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>4.2</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU2" t="n">
         <v>7.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA2" t="n">
         <v>4.2</v>
@@ -909,10 +909,10 @@
         <v>11.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="BE2" t="n">
         <v>4.3</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -1159,16 +1159,16 @@
         <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1192,13 +1192,13 @@
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.84</v>
@@ -1258,7 +1258,7 @@
         <v>50</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>4.4</v>
@@ -1273,7 +1273,7 @@
         <v>3.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AV4" t="n">
         <v>4.3</v>
@@ -1306,14 +1306,14 @@
         <v>3</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG4" t="n">
         <v>5.2</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1362,7 +1362,7 @@
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1371,7 +1371,7 @@
         <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>1.84</v>
@@ -1398,25 +1398,25 @@
         <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1425,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AQ5" t="n">
         <v>3.15</v>
@@ -1464,16 +1464,16 @@
         <v>3.85</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AV5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX5" t="n">
         <v>3.8</v>
@@ -1485,7 +1485,7 @@
         <v>3.6</v>
       </c>
       <c r="BA5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
         <v>4.1</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF5" t="n">
         <v>4</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -1541,13 +1541,13 @@
         <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1556,7 +1556,7 @@
         <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1571,19 +1571,19 @@
         <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
         <v>1.56</v>
@@ -1595,16 +1595,16 @@
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
@@ -1616,7 +1616,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1628,10 +1628,10 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
@@ -1643,7 +1643,7 @@
         <v>48</v>
       </c>
       <c r="AO6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP6" t="n">
         <v>9.800000000000001</v>
@@ -1655,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
         <v>9.199999999999999</v>
@@ -1679,29 +1679,29 @@
         <v>15.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BE6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
@@ -1750,7 +1750,7 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1765,7 +1765,7 @@
         <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1774,13 +1774,13 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
         <v>1.81</v>
@@ -1843,7 +1843,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
         <v>4.6</v>
@@ -1858,7 +1858,7 @@
         <v>6.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AW7" t="n">
         <v>4.9</v>
@@ -1876,13 +1876,13 @@
         <v>4.9</v>
       </c>
       <c r="BB7" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BE7" t="n">
         <v>5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -1944,16 +1944,16 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>1.91</v>
@@ -1962,13 +1962,13 @@
         <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -2085,11 +2085,11 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BG8" t="n">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>12.5</v>
       </c>
       <c r="I9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
         <v>6.8</v>
@@ -2138,16 +2138,16 @@
         <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
         <v>2.58</v>
@@ -2156,16 +2156,16 @@
         <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
         <v>1.07</v>
@@ -2186,7 +2186,7 @@
         <v>800</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>15.5</v>
@@ -2195,10 +2195,10 @@
         <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -2207,7 +2207,7 @@
         <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.6</v>
@@ -2216,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>220</v>
@@ -2234,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="AT9" t="n">
         <v>9</v>
@@ -2246,22 +2246,22 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>5.3</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>15.5</v>
+        <v>5.3</v>
       </c>
       <c r="BB9" t="n">
         <v>8.800000000000001</v>
@@ -2273,17 +2273,17 @@
         <v>30</v>
       </c>
       <c r="BE9" t="n">
-        <v>16</v>
+        <v>5.3</v>
       </c>
       <c r="BF9" t="n">
         <v>3.95</v>
       </c>
       <c r="BG9" t="n">
-        <v>16.5</v>
+        <v>5.4</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2338,7 +2338,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -2347,7 +2347,7 @@
         <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
         <v>1.41</v>
@@ -2356,13 +2356,13 @@
         <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
         <v>2.38</v>
@@ -2425,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2434,50 +2434,50 @@
         <v>4.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AW10" t="n">
         <v>4.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA10" t="n">
         <v>4.1</v>
       </c>
       <c r="BB10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BC10" t="n">
         <v>14</v>
       </c>
       <c r="BD10" t="n">
-        <v>24</v>
+        <v>3.9</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF10" t="n">
         <v>6.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -2508,16 +2508,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2544,10 +2544,10 @@
         <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.56</v>
@@ -2559,7 +2559,7 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2625,19 +2625,19 @@
         <v>10</v>
       </c>
       <c r="AS11" t="n">
-        <v>17.5</v>
+        <v>3.7</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
         <v>3.15</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.6</v>
+        <v>14.5</v>
       </c>
       <c r="AX11" t="n">
         <v>3.75</v>
@@ -2646,10 +2646,10 @@
         <v>11.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BB11" t="n">
         <v>4</v>
@@ -2658,7 +2658,7 @@
         <v>3.9</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BE11" t="n">
         <v>4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2786,7 +2786,7 @@
         <v>9.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>75</v>
@@ -2810,7 +2810,7 @@
         <v>85</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
         <v>19.5</v>
@@ -2834,7 +2834,7 @@
         <v>65</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY12" t="n">
         <v>9.199999999999999</v>
@@ -2855,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="BE12" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="BF12" t="n">
         <v>8.4</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
         <v>6.6</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AT13" t="n">
         <v>9.4</v>
@@ -3025,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.4</v>
+        <v>36</v>
       </c>
       <c r="AX13" t="n">
         <v>12</v>
@@ -3049,17 +3049,17 @@
         <v>6.8</v>
       </c>
       <c r="BE13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BF13" t="n">
         <v>10</v>
       </c>
       <c r="BG13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -3147,10 +3147,10 @@
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="n">
         <v>140</v>
@@ -3162,10 +3162,10 @@
         <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
@@ -3174,10 +3174,10 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
@@ -3186,7 +3186,7 @@
         <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
         <v>130</v>
@@ -3195,19 +3195,19 @@
         <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AR14" t="n">
         <v>7</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AS14" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AT14" t="n">
         <v>7.8</v>
@@ -3216,10 +3216,10 @@
         <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AX14" t="n">
         <v>9.199999999999999</v>
@@ -3228,32 +3228,32 @@
         <v>8.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="BB14" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="BD14" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE14" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="BF14" t="n">
         <v>9</v>
       </c>
       <c r="BG14" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
         <v>380</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR15" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AS15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT15" t="n">
         <v>9.6</v>
@@ -3410,10 +3410,10 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AW15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
@@ -3422,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BB15" t="n">
         <v>6.8</v>
@@ -3434,20 +3434,20 @@
         <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BE15" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="BG15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
         <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
         <v>1.63</v>
@@ -3529,7 +3529,7 @@
         <v>2.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X16" t="n">
         <v>32</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.04</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
@@ -3711,13 +3711,13 @@
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
         <v>1.13</v>
@@ -3741,7 +3741,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -3750,10 +3750,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -3762,10 +3762,10 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -3774,68 +3774,68 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="AZ17" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="BC17" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -3890,10 +3890,10 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
         <v>2.36</v>
@@ -3902,16 +3902,16 @@
         <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="V18" t="n">
         <v>4</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
         <v>26</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF19" t="n">
         <v>3.5</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
         <v>1.79</v>
@@ -4272,7 +4272,7 @@
         <v>5.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4287,7 +4287,7 @@
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.44</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
@@ -4472,10 +4472,10 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
         <v>2.8</v>
@@ -4484,10 +4484,10 @@
         <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I22" t="n">
         <v>3.05</v>
@@ -4660,7 +4660,7 @@
         <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4672,7 +4672,7 @@
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
         <v>1.45</v>
@@ -4687,7 +4687,7 @@
         <v>1.46</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V22" t="n">
         <v>1.48</v>
@@ -4747,7 +4747,7 @@
         <v>12.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP22" t="n">
         <v>25</v>
@@ -4759,7 +4759,7 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>15</v>
@@ -4786,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BC22" t="n">
         <v>18</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>4.9</v>
       </c>
       <c r="G23" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
         <v>1.62</v>
@@ -4854,7 +4854,7 @@
         <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4881,25 +4881,25 @@
         <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
         <v>2.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
         <v>15.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>32</v>
@@ -4929,13 +4929,13 @@
         <v>140</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="n">
         <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
         <v>60</v>
@@ -4944,19 +4944,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR23" t="n">
-        <v>9.4</v>
+        <v>3.35</v>
       </c>
       <c r="AS23" t="n">
-        <v>12.5</v>
+        <v>3.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.7</v>
+        <v>18.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.199999999999999</v>
@@ -4968,38 +4968,38 @@
         <v>11.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="BB23" t="n">
         <v>4.1</v>
       </c>
       <c r="BC23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BE23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF23" t="n">
         <v>4</v>
       </c>
-      <c r="BF23" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BG23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -5048,13 +5048,13 @@
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="O24" t="n">
         <v>1.48</v>
@@ -5072,7 +5072,7 @@
         <v>5.7</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="n">
         <v>1.61</v>
@@ -5084,7 +5084,7 @@
         <v>1.32</v>
       </c>
       <c r="X24" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y24" t="n">
         <v>8.6</v>
@@ -5144,10 +5144,10 @@
         <v>5.9</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AT24" t="n">
         <v>8.800000000000001</v>
@@ -5156,7 +5156,7 @@
         <v>6.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AW24" t="n">
         <v>26</v>
@@ -5174,26 +5174,26 @@
         <v>4.9</v>
       </c>
       <c r="BB24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BC24" t="n">
         <v>4.9</v>
       </c>
       <c r="BD24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BE24" t="n">
         <v>5.1</v>
       </c>
       <c r="BF24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BG24" t="n">
         <v>4.6</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
         <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
@@ -5242,10 +5242,10 @@
         <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M25" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N25" t="n">
         <v>2.12</v>
@@ -5263,131 +5263,131 @@
         <v>1.12</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BB25" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I26" t="n">
         <v>1.66</v>
@@ -5433,7 +5433,7 @@
         <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -5442,7 +5442,7 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="O26" t="n">
         <v>1.48</v>
@@ -5451,22 +5451,22 @@
         <v>1.61</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
         <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="V26" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.12</v>
@@ -5478,28 +5478,28 @@
         <v>6.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA26" t="n">
         <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
         <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="n">
         <v>38</v>
@@ -5508,25 +5508,25 @@
         <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AK26" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AL26" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AM26" t="n">
         <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AO26" t="n">
         <v>16.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>9</v>
+        <v>3.65</v>
       </c>
       <c r="AQ26" t="n">
         <v>5.3</v>
@@ -5538,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="AT26" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5547,41 +5547,41 @@
         <v>9.4</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="AX26" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="BA26" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="BC26" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="BD26" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="BE26" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="BF26" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="BG26" t="n">
         <v>10.5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -5612,25 +5612,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="G27" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I27" t="n">
         <v>1.73</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5642,22 +5642,22 @@
         <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
         <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
         <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
         <v>2.38</v>
@@ -5717,65 +5717,65 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
         <v>4.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>3.4</v>
@@ -5866,7 +5866,7 @@
         <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
         <v>90</v>
@@ -5890,10 +5890,10 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -5902,7 +5902,7 @@
         <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -5914,16 +5914,16 @@
         <v>70</v>
       </c>
       <c r="AP28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ28" t="n">
         <v>10.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AS28" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AT28" t="n">
         <v>7</v>
@@ -5932,10 +5932,10 @@
         <v>6.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX28" t="n">
         <v>11</v>
@@ -5944,32 +5944,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD28" t="n">
         <v>5.4</v>
       </c>
-      <c r="BB28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BE28" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BF28" t="n">
         <v>17</v>
       </c>
       <c r="BG28" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
         <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -6239,7 +6239,7 @@
         <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V30" t="n">
         <v>1.42</v>
@@ -6263,7 +6263,7 @@
         <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
         <v>970</v>
@@ -6281,7 +6281,7 @@
         <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
         <v>40</v>
@@ -6314,7 +6314,7 @@
         <v>3.05</v>
       </c>
       <c r="AT30" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU30" t="n">
         <v>5.6</v>
@@ -6344,7 +6344,7 @@
         <v>7.8</v>
       </c>
       <c r="BD30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BE30" t="n">
         <v>2.18</v>
@@ -6353,11 +6353,11 @@
         <v>4</v>
       </c>
       <c r="BG30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -6394,10 +6394,10 @@
         <v>3.95</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -6436,10 +6436,10 @@
         <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X31" t="n">
         <v>18.5</v>
@@ -6463,7 +6463,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF31" t="n">
         <v>30</v>
@@ -6523,7 +6523,7 @@
         <v>28</v>
       </c>
       <c r="AY31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>15.5</v>
@@ -6547,11 +6547,11 @@
         <v>32</v>
       </c>
       <c r="BG31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
         <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J33" t="n">
         <v>3.05</v>
@@ -6911,7 +6911,7 @@
         <v>13</v>
       </c>
       <c r="AY33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ33" t="n">
         <v>21</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -6970,13 +6970,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H34" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I34" t="n">
         <v>7.4</v>
@@ -6985,7 +6985,7 @@
         <v>3.9</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.42</v>
@@ -7003,13 +7003,13 @@
         <v>1.82</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R34" t="n">
         <v>1.31</v>
       </c>
       <c r="S34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T34" t="n">
         <v>2.02</v>
@@ -7018,7 +7018,7 @@
         <v>1.82</v>
       </c>
       <c r="V34" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W34" t="n">
         <v>2.42</v>
@@ -7027,13 +7027,13 @@
         <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB34" t="n">
         <v>7.8</v>
@@ -7045,7 +7045,7 @@
         <v>27</v>
       </c>
       <c r="AE34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
         <v>9.6</v>
@@ -7075,7 +7075,7 @@
         <v>11.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AP34" t="n">
         <v>11.5</v>
@@ -7084,10 +7084,10 @@
         <v>16.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS34" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT34" t="n">
         <v>6.6</v>
@@ -7099,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="AW34" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AX34" t="n">
         <v>8</v>
@@ -7108,32 +7108,32 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ34" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BA34" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BB34" t="n">
         <v>13.5</v>
       </c>
       <c r="BC34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BD34" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BE34" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF34" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BG34" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BG34" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -7164,82 +7164,82 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T35" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="n">
         <v>970</v>
@@ -7248,86 +7248,86 @@
         <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.77</v>
+        <v>3.3</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.61</v>
+        <v>3.35</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.69</v>
+        <v>3.8</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.77</v>
+        <v>4.1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.54</v>
+        <v>3.05</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.77</v>
+        <v>2.96</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.64</v>
+        <v>3.5</v>
       </c>
       <c r="AW35" t="n">
-        <v>1.77</v>
+        <v>4</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1.66</v>
+        <v>3.65</v>
       </c>
       <c r="BA35" t="n">
-        <v>1.77</v>
+        <v>4</v>
       </c>
       <c r="BB35" t="n">
-        <v>1.69</v>
+        <v>3.8</v>
       </c>
       <c r="BC35" t="n">
-        <v>1.69</v>
+        <v>3.75</v>
       </c>
       <c r="BD35" t="n">
-        <v>1.72</v>
+        <v>3.9</v>
       </c>
       <c r="BE35" t="n">
-        <v>1.77</v>
+        <v>4.1</v>
       </c>
       <c r="BF35" t="n">
-        <v>1.77</v>
+        <v>13.5</v>
       </c>
       <c r="BG35" t="n">
-        <v>1.77</v>
+        <v>4</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -7358,13 +7358,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
         <v>1.96</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
         <v>8.199999999999999</v>
@@ -7406,16 +7406,16 @@
         <v>1.56</v>
       </c>
       <c r="V36" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W36" t="n">
         <v>2.04</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -7466,62 +7466,62 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY36" t="n">
         <v>1.91</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AZ36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF36" t="n">
         <v>1.97</v>
       </c>
-      <c r="AR36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>1.94</v>
-      </c>
       <c r="BG36" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -7552,31 +7552,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="G37" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="H37" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="n">
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O37" t="n">
         <v>1.47</v>
@@ -7597,25 +7597,25 @@
         <v>1.97</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="V37" t="n">
         <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="X37" t="n">
         <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="n">
         <v>9</v>
@@ -7624,10 +7624,10 @@
         <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF37" t="n">
         <v>17.5</v>
@@ -7639,7 +7639,7 @@
         <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
         <v>46</v>
@@ -7663,59 +7663,59 @@
         <v>8.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AS37" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AW37" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AX37" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY37" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA37" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="BB37" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="BC37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BE37" t="n">
         <v>6.8</v>
       </c>
-      <c r="BD37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>8</v>
-      </c>
       <c r="BF37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG37" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -7749,40 +7749,40 @@
         <v>4.5</v>
       </c>
       <c r="G38" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="I38" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="J38" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M38" t="n">
         <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O38" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P38" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q38" t="n">
         <v>2.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S38" t="n">
         <v>4.7</v>
@@ -7791,10 +7791,10 @@
         <v>2.16</v>
       </c>
       <c r="U38" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V38" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="W38" t="n">
         <v>1.23</v>
@@ -7863,31 +7863,31 @@
         <v>3.4</v>
       </c>
       <c r="AS38" t="n">
-        <v>16.5</v>
+        <v>4.3</v>
       </c>
       <c r="AT38" t="n">
         <v>3.45</v>
       </c>
       <c r="AU38" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="AV38" t="n">
         <v>3.4</v>
       </c>
       <c r="AW38" t="n">
-        <v>20</v>
+        <v>3.95</v>
       </c>
       <c r="AX38" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AZ38" t="n">
-        <v>3.95</v>
+        <v>21</v>
       </c>
       <c r="BA38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BB38" t="n">
         <v>4.3</v>
@@ -7905,11 +7905,11 @@
         <v>4.3</v>
       </c>
       <c r="BG38" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>
@@ -8134,170 +8134,170 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.24</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S40" t="n">
-        <v>1.35</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AU40" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AV40" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AW40" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AX40" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BA40" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="BB40" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BC40" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BE40" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BF40" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BG40" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-21 20:52:28</t>
+          <t>2026-02-21 23:13:20</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH40"/>
+  <dimension ref="A1:BH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
         <v>1.67</v>
@@ -771,7 +771,7 @@
         <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -780,13 +780,13 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -807,13 +807,13 @@
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -825,10 +825,10 @@
         <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
@@ -840,7 +840,7 @@
         <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
@@ -864,7 +864,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
         <v>110</v>
@@ -873,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
         <v>8.199999999999999</v>
@@ -888,10 +888,10 @@
         <v>7.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
@@ -900,10 +900,10 @@
         <v>8.6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BB2" t="n">
         <v>11.5</v>
@@ -912,20 +912,20 @@
         <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BF2" t="n">
         <v>6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -974,19 +974,19 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
         <v>2.56</v>
@@ -998,7 +998,7 @@
         <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -1064,34 +1064,34 @@
         <v>90</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.7</v>
+        <v>8.6</v>
       </c>
       <c r="AR3" t="n">
-        <v>6.6</v>
+        <v>19.5</v>
       </c>
       <c r="AS3" t="n">
         <v>7.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>5.7</v>
+        <v>13.5</v>
       </c>
       <c r="AW3" t="n">
         <v>7.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>6.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
         <v>3.55</v>
@@ -1165,10 +1165,10 @@
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1362,13 +1362,13 @@
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1392,10 +1392,10 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1422,7 +1422,7 @@
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
@@ -1434,13 +1434,13 @@
         <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1452,62 +1452,62 @@
         <v>23</v>
       </c>
       <c r="AP5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY5" t="n">
         <v>3.45</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="BA5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BB5" t="n">
         <v>4</v>
       </c>
-      <c r="BB5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BC5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BD5" t="n">
         <v>4</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1565,10 +1565,10 @@
         <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
         <v>2.14</v>
@@ -1577,34 +1577,34 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
@@ -1613,10 +1613,10 @@
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1628,37 +1628,37 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AS6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU6" t="n">
         <v>6.4</v>
@@ -1670,38 +1670,38 @@
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE6" t="n">
         <v>5.2</v>
       </c>
-      <c r="BB6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BF6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.9</v>
+        <v>21</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
         <v>5.7</v>
@@ -1765,7 +1765,7 @@
         <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1774,16 +1774,16 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
@@ -1840,10 +1840,10 @@
         <v>150</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="AR7" t="n">
         <v>4.6</v>
@@ -1852,31 +1852,31 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.6</v>
+        <v>3.25</v>
       </c>
       <c r="AV7" t="n">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="AW7" t="n">
         <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.4</v>
+        <v>3.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.4</v>
+        <v>3.7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="BA7" t="n">
         <v>4.9</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>4.4</v>
       </c>
       <c r="BC7" t="n">
         <v>4.4</v>
@@ -1888,14 +1888,14 @@
         <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>17</v>
+        <v>4.3</v>
       </c>
       <c r="BG7" t="n">
         <v>5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -1944,31 +1944,31 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.94</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1989,7 +1989,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -2010,16 +2010,16 @@
         <v>34</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
         <v>130</v>
@@ -2028,16 +2028,16 @@
         <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AP8" t="n">
         <v>13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AR8" t="n">
         <v>7.6</v>
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AY8" t="n">
         <v>19.5</v>
@@ -2067,29 +2067,29 @@
         <v>20</v>
       </c>
       <c r="BA8" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB8" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BG8" t="n">
         <v>8</v>
       </c>
-      <c r="BD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H9" t="n">
         <v>12.5</v>
@@ -2135,10 +2135,10 @@
         <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2147,16 +2147,16 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
         <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>2.32</v>
@@ -2165,13 +2165,13 @@
         <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
         <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X9" t="n">
         <v>27</v>
@@ -2183,10 +2183,10 @@
         <v>150</v>
       </c>
       <c r="AA9" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>15.5</v>
@@ -2195,10 +2195,10 @@
         <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -2225,7 +2225,7 @@
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AP9" t="n">
         <v>22</v>
@@ -2234,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.4</v>
+        <v>17.5</v>
       </c>
       <c r="AT9" t="n">
         <v>9</v>
@@ -2246,10 +2246,10 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.3</v>
+        <v>16.5</v>
       </c>
       <c r="AX9" t="n">
         <v>7.2</v>
@@ -2258,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
-        <v>5.3</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>8.800000000000001</v>
@@ -2273,17 +2273,17 @@
         <v>30</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.3</v>
+        <v>16</v>
       </c>
       <c r="BF9" t="n">
         <v>3.95</v>
       </c>
       <c r="BG9" t="n">
-        <v>5.4</v>
+        <v>14.5</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
         <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2353,7 +2353,7 @@
         <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.81</v>
@@ -2362,10 +2362,10 @@
         <v>1.99</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -2425,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2434,13 +2434,13 @@
         <v>4.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AU10" t="n">
         <v>8.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>4.1</v>
@@ -2452,7 +2452,7 @@
         <v>7.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>4.1</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -2508,16 +2508,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
         <v>1.97</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2526,19 +2526,19 @@
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -2547,7 +2547,7 @@
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T11" t="n">
         <v>1.56</v>
@@ -2559,7 +2559,7 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2574,7 +2574,7 @@
         <v>30</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
@@ -2595,10 +2595,10 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
         <v>55</v>
@@ -2610,37 +2610,37 @@
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.199999999999999</v>
+        <v>3.25</v>
       </c>
       <c r="AR11" t="n">
         <v>10</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AW11" t="n">
-        <v>14.5</v>
+        <v>3.65</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AY11" t="n">
         <v>11.5</v>
@@ -2649,29 +2649,29 @@
         <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BB11" t="n">
         <v>4</v>
       </c>
       <c r="BC11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF11" t="n">
         <v>3.9</v>
       </c>
-      <c r="BD11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>3.85</v>
-      </c>
       <c r="BG11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -2908,13 +2908,13 @@
         <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2950,10 +2950,10 @@
         <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
@@ -2968,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>50</v>
@@ -2983,7 +2983,7 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="AP13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>13.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.6</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>7.8</v>
@@ -3019,7 +3019,7 @@
         <v>9.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV13" t="n">
         <v>13</v>
@@ -3037,13 +3037,13 @@
         <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BB13" t="n">
         <v>6.4</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="BD13" t="n">
         <v>6.8</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
         <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
         <v>9</v>
@@ -3308,28 +3308,28 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="T15" t="n">
         <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="V15" t="n">
         <v>1.02</v>
@@ -3344,7 +3344,7 @@
         <v>80</v>
       </c>
       <c r="Z15" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -3356,10 +3356,10 @@
         <v>24</v>
       </c>
       <c r="AD15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AF15" t="n">
         <v>8.4</v>
@@ -3371,7 +3371,7 @@
         <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.4</v>
@@ -3383,37 +3383,37 @@
         <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AR15" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AR15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AS15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT15" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>9.6</v>
       </c>
       <c r="AU15" t="n">
         <v>19</v>
       </c>
       <c r="AV15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AW15" t="n">
         <v>9</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
@@ -3422,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB15" t="n">
         <v>6.8</v>
@@ -3434,20 +3434,20 @@
         <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BE15" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="BG15" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
         <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>1.63</v>
@@ -3493,7 +3493,7 @@
         <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -3514,10 +3514,10 @@
         <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
         <v>1.54</v>
@@ -3529,7 +3529,7 @@
         <v>2.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
         <v>32</v>
@@ -3538,10 +3538,10 @@
         <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -3559,7 +3559,7 @@
         <v>55</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -3586,7 +3586,7 @@
         <v>6.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>12</v>
@@ -3598,7 +3598,7 @@
         <v>15.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AY16" t="n">
         <v>17.5</v>
@@ -3622,26 +3622,26 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BG16" t="n">
         <v>4.7</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3708,7 +3708,7 @@
         <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
@@ -3726,7 +3726,7 @@
         <v>2.74</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -3735,61 +3735,61 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.02</v>
+        <v>5.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.91</v>
+        <v>5.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.98</v>
+        <v>6.4</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.02</v>
+        <v>6.8</v>
       </c>
       <c r="AT17" t="n">
         <v>7.2</v>
@@ -3798,44 +3798,44 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.92</v>
+        <v>5.7</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.02</v>
+        <v>6.6</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.77</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ17" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.02</v>
+        <v>6.6</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.83</v>
+        <v>4.7</v>
       </c>
       <c r="BC17" t="n">
         <v>13</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.02</v>
+        <v>6</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.02</v>
+        <v>6.6</v>
       </c>
       <c r="BF17" t="n">
         <v>5.9</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.02</v>
+        <v>6.8</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>12.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>17.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="AR18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW18" t="n">
         <v>4</v>
       </c>
-      <c r="W18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AX18" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4078,7 @@
         <v>7.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -4216,14 +4216,14 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="BG19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -4245,179 +4245,179 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>12.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.79</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X20" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
         <v>4.9</v>
       </c>
-      <c r="I20" t="n">
+      <c r="AP20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR20" t="n">
         <v>6.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="AS20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AT20" t="n">
         <v>5.2</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X20" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AU20" t="n">
         <v>12</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AV20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW20" t="n">
         <v>12</v>
       </c>
-      <c r="AD20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4</v>
-      </c>
       <c r="AX20" t="n">
-        <v>9.6</v>
+        <v>5.6</v>
       </c>
       <c r="AY20" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>5.1</v>
       </c>
       <c r="BA20" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="BB20" t="n">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="BC20" t="n">
-        <v>14.5</v>
+        <v>5.7</v>
       </c>
       <c r="BD20" t="n">
-        <v>25</v>
+        <v>5.7</v>
       </c>
       <c r="BE20" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="BF20" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -4451,10 +4451,10 @@
         <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
         <v>7.4</v>
@@ -4472,22 +4472,22 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q21" t="n">
         <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -4496,10 +4496,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -4538,7 +4538,7 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -4553,7 +4553,7 @@
         <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP21" t="n">
         <v>4</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="n">
         <v>2.1</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
         <v>1.62</v>
       </c>
       <c r="I23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
@@ -4860,10 +4860,10 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
         <v>2.46</v>
@@ -4872,10 +4872,10 @@
         <v>1.47</v>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T23" t="n">
         <v>1.53</v>
@@ -4887,7 +4887,7 @@
         <v>2.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X23" t="n">
         <v>30</v>
@@ -4941,25 +4941,25 @@
         <v>60</v>
       </c>
       <c r="AO23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AP23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT23" t="n">
         <v>3.75</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AU23" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="AV23" t="n">
         <v>7.8</v>
@@ -4968,16 +4968,16 @@
         <v>11.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3.55</v>
+        <v>12.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="BB23" t="n">
         <v>4.1</v>
@@ -4989,17 +4989,17 @@
         <v>4</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BF23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BG23" t="n">
         <v>5.2</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -5039,10 +5039,10 @@
         <v>2.34</v>
       </c>
       <c r="I24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K24" t="n">
         <v>3.35</v>
@@ -5099,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>15</v>
@@ -5144,10 +5144,10 @@
         <v>5.9</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AT24" t="n">
         <v>8.800000000000001</v>
@@ -5156,44 +5156,44 @@
         <v>6.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AW24" t="n">
         <v>26</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AY24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BB24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BE24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF24" t="n">
         <v>5.1</v>
       </c>
-      <c r="BF24" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BG24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
         <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.18</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -5421,19 +5421,19 @@
         <v>7.8</v>
       </c>
       <c r="G26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -5442,31 +5442,31 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O26" t="n">
         <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
         <v>1.55</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W26" t="n">
         <v>1.12</v>
@@ -5526,10 +5526,10 @@
         <v>16.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>3.65</v>
+        <v>8.6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AR26" t="n">
         <v>7</v>
@@ -5538,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="AT26" t="n">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -5624,40 +5624,40 @@
         <v>1.73</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R27" t="n">
         <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="V27" t="n">
         <v>2.38</v>
@@ -5720,62 +5720,62 @@
         <v>11.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ27" t="n">
         <v>3.35</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AS27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AW27" t="n">
         <v>4.2</v>
       </c>
       <c r="AX27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA27" t="n">
         <v>4.8</v>
       </c>
-      <c r="AY27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BB27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC27" t="n">
         <v>5.1</v>
       </c>
-      <c r="BC27" t="n">
-        <v>5</v>
-      </c>
       <c r="BD27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BE27" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="BF27" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="BG27" t="n">
         <v>7.6</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
         <v>2.32</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
         <v>4.3</v>
@@ -5969,14 +5969,14 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5991,186 +5991,186 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="G29" t="n">
-        <v>1.93</v>
+        <v>2.68</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P29" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE29" t="n">
         <v>2.24</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>44</v>
-      </c>
       <c r="BF29" t="n">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="BG29" t="n">
-        <v>75</v>
+        <v>8.4</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6185,186 +6185,186 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68</v>
+        <v>1.94</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W30" t="n">
         <v>2.06</v>
       </c>
-      <c r="R30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.59</v>
-      </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>22</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AI30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW30" t="n">
         <v>60</v>
       </c>
-      <c r="AB30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI30" t="n">
+      <c r="AX30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>44</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG30" t="n">
         <v>75</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6379,186 +6379,186 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="G31" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="P31" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="R31" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>2.96</v>
+        <v>5.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="U31" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.97</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY31" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB31" t="n">
         <v>30</v>
       </c>
-      <c r="AG31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="BC31" t="n">
         <v>29</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>70</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>38</v>
-      </c>
       <c r="BD31" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BE31" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BF31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BG31" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6573,186 +6573,186 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.04</v>
+        <v>3.9</v>
       </c>
       <c r="G32" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H32" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>720</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>1.24</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="S32" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="BA32" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="BB32" t="n">
-        <v>1.01</v>
+        <v>70</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="BD32" t="n">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="BE32" t="n">
-        <v>1.01</v>
+        <v>65</v>
       </c>
       <c r="BF32" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6767,179 +6767,179 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>3.1</v>
+        <v>720</v>
       </c>
       <c r="L33" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="T33" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AQ33" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AR33" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AS33" t="n">
-        <v>65</v>
+        <v>1.01</v>
       </c>
       <c r="AT33" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV33" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW33" t="n">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="AX33" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AY33" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ33" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="BA33" t="n">
-        <v>65</v>
+        <v>1.01</v>
       </c>
       <c r="BB33" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="BC33" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BD33" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BE33" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BF33" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="BG33" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="G34" t="n">
         <v>1.71</v>
@@ -6979,13 +6979,13 @@
         <v>6.2</v>
       </c>
       <c r="I34" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J34" t="n">
         <v>3.9</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.42</v>
@@ -6994,13 +6994,13 @@
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.34</v>
       </c>
       <c r="P34" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q34" t="n">
         <v>2.02</v>
@@ -7021,7 +7021,7 @@
         <v>1.18</v>
       </c>
       <c r="W34" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X34" t="n">
         <v>14.5</v>
@@ -7033,7 +7033,7 @@
         <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AB34" t="n">
         <v>7.8</v>
@@ -7075,7 +7075,7 @@
         <v>11.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AP34" t="n">
         <v>11.5</v>
@@ -7084,10 +7084,10 @@
         <v>16.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AS34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AT34" t="n">
         <v>6.6</v>
@@ -7099,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="AW34" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AX34" t="n">
         <v>8</v>
@@ -7111,19 +7111,19 @@
         <v>7</v>
       </c>
       <c r="BA34" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB34" t="n">
         <v>13.5</v>
       </c>
       <c r="BC34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BD34" t="n">
         <v>8</v>
       </c>
       <c r="BE34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF34" t="n">
         <v>9.4</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -7182,25 +7182,25 @@
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q35" t="n">
         <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S35" t="n">
         <v>3.55</v>
@@ -7212,16 +7212,16 @@
         <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W35" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X35" t="n">
         <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
         <v>36</v>
@@ -7236,10 +7236,10 @@
         <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF35" t="n">
         <v>970</v>
@@ -7257,7 +7257,7 @@
         <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
@@ -7266,19 +7266,19 @@
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO35" t="n">
         <v>80</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AR35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AS35" t="n">
         <v>4.1</v>
@@ -7287,10 +7287,10 @@
         <v>3.05</v>
       </c>
       <c r="AU35" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="AV35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AW35" t="n">
         <v>4</v>
@@ -7299,35 +7299,35 @@
         <v>3.35</v>
       </c>
       <c r="AY35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AZ35" t="n">
         <v>3.65</v>
       </c>
       <c r="BA35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BB35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BC35" t="n">
         <v>3.75</v>
       </c>
       <c r="BD35" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BE35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF35" t="n">
         <v>13.5</v>
       </c>
       <c r="BG35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -7358,64 +7358,64 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="H36" t="n">
         <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="J36" t="n">
         <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U36" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="V36" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -7427,7 +7427,7 @@
         <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -7451,7 +7451,7 @@
         <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -7460,68 +7460,68 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="AR36" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AV36" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="AW36" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="AX36" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="AY36" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="AZ36" t="n">
-        <v>2.18</v>
+        <v>3.65</v>
       </c>
       <c r="BA36" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="BB36" t="n">
-        <v>2.02</v>
+        <v>3.6</v>
       </c>
       <c r="BC36" t="n">
-        <v>2.04</v>
+        <v>3.65</v>
       </c>
       <c r="BD36" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
       <c r="BE36" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="BF36" t="n">
-        <v>1.97</v>
+        <v>10</v>
       </c>
       <c r="BG36" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.2</v>
@@ -7576,76 +7576,76 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q37" t="n">
         <v>2.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
         <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="X37" t="n">
         <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB37" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC37" t="n">
         <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
         <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
@@ -7654,13 +7654,13 @@
         <v>180</v>
       </c>
       <c r="AN37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP37" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ37" t="n">
         <v>8.199999999999999</v>
@@ -7669,19 +7669,19 @@
         <v>17</v>
       </c>
       <c r="AS37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU37" t="n">
         <v>6.4</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>6.2</v>
       </c>
       <c r="AV37" t="n">
         <v>12</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AX37" t="n">
         <v>13</v>
@@ -7693,29 +7693,29 @@
         <v>18.5</v>
       </c>
       <c r="BA37" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="BB37" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BC37" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BD37" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="BE37" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="BF37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG37" t="n">
-        <v>6.4</v>
+        <v>40</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
         <v>1.12</v>
@@ -7878,7 +7878,7 @@
         <v>3.95</v>
       </c>
       <c r="AX38" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AY38" t="n">
         <v>3.8</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-21 23:13:20</t>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>
@@ -8143,16 +8143,16 @@
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J40" t="n">
         <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
@@ -8224,7 +8224,7 @@
         <v>90</v>
       </c>
       <c r="AJ40" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK40" t="n">
         <v>30</v>
@@ -8242,62 +8242,450 @@
         <v>100</v>
       </c>
       <c r="AP40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AQ40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX40" t="n">
         <v>4.6</v>
       </c>
-      <c r="AR40" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AY40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AZ40" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BA40" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BB40" t="n">
         <v>5.7</v>
       </c>
       <c r="BC40" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BD40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>2026-02-22 01:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Independiente Yumbo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY41" t="n">
         <v>3.65</v>
       </c>
-      <c r="BF40" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BH40" t="inlineStr">
-        <is>
-          <t>2026-02-21 23:13:20</t>
+      <c r="AZ41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>2026-02-22 01:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Libertad FC</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>95</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>2026-02-22 01:32:47</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
         <v>1.67</v>
@@ -786,7 +786,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -795,7 +795,7 @@
         <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
@@ -807,7 +807,7 @@
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
@@ -825,10 +825,10 @@
         <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
@@ -840,7 +840,7 @@
         <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
@@ -864,7 +864,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO2" t="n">
         <v>110</v>
@@ -873,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
         <v>8.199999999999999</v>
@@ -888,44 +888,44 @@
         <v>7.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BB2" t="n">
         <v>11.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF2" t="n">
         <v>6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -998,7 +998,7 @@
         <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1377,7 +1377,7 @@
         <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>1.32</v>
@@ -1422,7 +1422,7 @@
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AQ5" t="n">
         <v>3.1</v>
@@ -1464,22 +1464,22 @@
         <v>3.8</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AV5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
         <v>3.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AZ5" t="n">
         <v>3.55</v>
@@ -1488,10 +1488,10 @@
         <v>3.9</v>
       </c>
       <c r="BB5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC5" t="n">
         <v>4</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>3.95</v>
       </c>
       <c r="BD5" t="n">
         <v>4</v>
@@ -1500,14 +1500,14 @@
         <v>4.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1577,7 +1577,7 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.74</v>
@@ -1589,22 +1589,22 @@
         <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
@@ -1613,10 +1613,10 @@
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1628,37 +1628,37 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
         <v>4.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>6.4</v>
@@ -1670,10 +1670,10 @@
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
@@ -1682,26 +1682,26 @@
         <v>4.9</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BC6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD6" t="n">
         <v>4.9</v>
       </c>
-      <c r="BD6" t="n">
-        <v>5</v>
-      </c>
       <c r="BE6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BG6" t="n">
-        <v>21</v>
+        <v>4.6</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1750,7 +1750,7 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1762,7 +1762,7 @@
         <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
         <v>2.4</v>
@@ -1780,7 +1780,7 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.86</v>
@@ -1840,10 +1840,10 @@
         <v>150</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>4.6</v>
@@ -1852,34 +1852,34 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="AW7" t="n">
         <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
         <v>4.9</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.4</v>
+        <v>18.5</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.4</v>
+        <v>20</v>
       </c>
       <c r="BD7" t="n">
         <v>4.8</v>
@@ -1888,14 +1888,14 @@
         <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.3</v>
+        <v>17</v>
       </c>
       <c r="BG7" t="n">
         <v>5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>7.2</v>
       </c>
       <c r="G8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
@@ -1941,13 +1941,13 @@
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>3.7</v>
@@ -1959,16 +1959,16 @@
         <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1995,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -2031,7 +2031,7 @@
         <v>200</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AP8" t="n">
         <v>13</v>
@@ -2073,7 +2073,7 @@
         <v>9.6</v>
       </c>
       <c r="BC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BD8" t="n">
         <v>9.199999999999999</v>
@@ -2082,14 +2082,14 @@
         <v>9.4</v>
       </c>
       <c r="BF8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BG8" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H9" t="n">
         <v>12.5</v>
@@ -2132,13 +2132,13 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
         <v>7.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2147,25 +2147,25 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
         <v>1.07</v>
@@ -2186,7 +2186,7 @@
         <v>750</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>15.5</v>
@@ -2225,7 +2225,7 @@
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AP9" t="n">
         <v>22</v>
@@ -2234,22 +2234,22 @@
         <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AT9" t="n">
         <v>9</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AV9" t="n">
         <v>34</v>
       </c>
       <c r="AW9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AX9" t="n">
         <v>7.2</v>
@@ -2258,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>8.800000000000001</v>
@@ -2273,17 +2273,17 @@
         <v>30</v>
       </c>
       <c r="BE9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="BF9" t="n">
         <v>3.95</v>
       </c>
       <c r="BG9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2341,55 +2341,55 @@
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
         <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
         <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="n">
         <v>12.5</v>
@@ -2404,7 +2404,7 @@
         <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -2416,68 +2416,68 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>15</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AR10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD10" t="n">
         <v>4</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>3.9</v>
       </c>
       <c r="BE10" t="n">
         <v>4.2</v>
       </c>
       <c r="BF10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BG10" t="n">
         <v>4.2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
         <v>1.97</v>
@@ -2532,28 +2532,28 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
         <v>1.83</v>
@@ -2562,7 +2562,7 @@
         <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>13.5</v>
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2610,16 +2610,16 @@
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR11" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         <v>3.2</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
         <v>3.8</v>
@@ -2658,10 +2658,10 @@
         <v>3.95</v>
       </c>
       <c r="BD11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BE11" t="n">
         <v>4</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>4.1</v>
       </c>
       <c r="BF11" t="n">
         <v>3.9</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>4.1</v>
@@ -2911,7 +2911,7 @@
         <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2920,28 +2920,28 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.32</v>
@@ -2950,19 +2950,19 @@
         <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2986,7 +2986,7 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>22</v>
@@ -2998,10 +2998,10 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -3013,13 +3013,13 @@
         <v>24</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV13" t="n">
         <v>13</v>
@@ -3037,29 +3037,29 @@
         <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB13" t="n">
-        <v>6.4</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>18.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BE13" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
         <v>1.88</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
         <v>5.4</v>
@@ -3105,10 +3105,10 @@
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -3317,13 +3317,13 @@
         <v>2.94</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
         <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T15" t="n">
         <v>2.42</v>
@@ -3386,22 +3386,22 @@
         <v>370</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AR15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>9.800000000000001</v>
@@ -3410,10 +3410,10 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
@@ -3422,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB15" t="n">
         <v>6.8</v>
@@ -3434,20 +3434,20 @@
         <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BE15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="BG15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3481,22 @@
         <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H16" t="n">
         <v>1.63</v>
       </c>
       <c r="I16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J16" t="n">
         <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -3508,40 +3508,40 @@
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
         <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X16" t="n">
         <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -3550,22 +3550,22 @@
         <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>16.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
         <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
         <v>120</v>
@@ -3577,16 +3577,16 @@
         <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AQ16" t="n">
         <v>12</v>
@@ -3598,7 +3598,7 @@
         <v>15.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>17.5</v>
@@ -3622,26 +3622,26 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
       </c>
       <c r="BD16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BE16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>4.9</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
         <v>3.95</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -4296,10 +4296,10 @@
         <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V20" t="n">
         <v>4</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -4451,10 +4451,10 @@
         <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
         <v>7.4</v>
@@ -4478,7 +4478,7 @@
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q21" t="n">
         <v>1.4</v>
@@ -4487,19 +4487,19 @@
         <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -4538,7 +4538,7 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -4553,7 +4553,7 @@
         <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP21" t="n">
         <v>4</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
         <v>3.05</v>
@@ -4660,7 +4660,7 @@
         <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
         <v>1.62</v>
@@ -4860,13 +4860,13 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q23" t="n">
         <v>1.47</v>
@@ -4875,25 +4875,25 @@
         <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W23" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>15.5</v>
@@ -4929,37 +4929,37 @@
         <v>140</v>
       </c>
       <c r="AK23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
         <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
         <v>60</v>
       </c>
       <c r="AO23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
-        <v>17.5</v>
+        <v>3.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9</v>
+        <v>3.35</v>
       </c>
       <c r="AR23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AS23" t="n">
-        <v>12.5</v>
+        <v>3.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="AV23" t="n">
         <v>7.8</v>
@@ -4968,19 +4968,19 @@
         <v>11.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12.5</v>
+        <v>3.55</v>
       </c>
       <c r="BA23" t="n">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4989,17 +4989,17 @@
         <v>4</v>
       </c>
       <c r="BE23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF23" t="n">
         <v>4</v>
       </c>
-      <c r="BF23" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BG23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>5.7</v>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
         <v>1.61</v>
@@ -5156,7 +5156,7 @@
         <v>6.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AW24" t="n">
         <v>26</v>
@@ -5171,19 +5171,19 @@
         <v>4.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BB24" t="n">
         <v>5.1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BD24" t="n">
         <v>5.1</v>
       </c>
       <c r="BE24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BF24" t="n">
         <v>5.1</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>2.48</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M25" t="n">
         <v>1.18</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -5418,46 +5418,46 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="G26" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I26" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O26" t="n">
         <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
         <v>2.38</v>
@@ -5466,10 +5466,10 @@
         <v>1.55</v>
       </c>
       <c r="V26" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W26" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X26" t="n">
         <v>11.5</v>
@@ -5502,10 +5502,10 @@
         <v>38</v>
       </c>
       <c r="AH26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
         <v>400</v>
@@ -5526,10 +5526,10 @@
         <v>16.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AR26" t="n">
         <v>7</v>
@@ -5547,10 +5547,10 @@
         <v>9.4</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AY26" t="n">
         <v>4.7</v>
@@ -5562,26 +5562,26 @@
         <v>5</v>
       </c>
       <c r="BB26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC26" t="n">
         <v>5.3</v>
       </c>
-      <c r="BC26" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BD26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE26" t="n">
         <v>5.3</v>
       </c>
       <c r="BF26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BG26" t="n">
         <v>10.5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
         <v>1.73</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
@@ -5633,16 +5633,16 @@
         <v>1.35</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
         <v>1.89</v>
@@ -5654,10 +5654,10 @@
         <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V27" t="n">
         <v>2.38</v>
@@ -5720,62 +5720,62 @@
         <v>11.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AQ27" t="n">
         <v>3.35</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AW27" t="n">
         <v>4.2</v>
       </c>
       <c r="AX27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC27" t="n">
         <v>5</v>
       </c>
-      <c r="AY27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC27" t="n">
+      <c r="BD27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE27" t="n">
         <v>5.1</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BF27" t="n">
         <v>5.1</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>4</v>
       </c>
       <c r="BG27" t="n">
         <v>7.6</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
         <v>2.32</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
         <v>4.3</v>
@@ -5824,7 +5824,7 @@
         <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
@@ -5839,10 +5839,10 @@
         <v>1.71</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>2.46</v>
       </c>
       <c r="G29" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -6018,7 +6018,7 @@
         <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
@@ -6051,7 +6051,7 @@
         <v>1.42</v>
       </c>
       <c r="W29" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
@@ -6087,7 +6087,7 @@
         <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
         <v>40</v>
@@ -6129,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AX29" t="n">
         <v>6.4</v>
@@ -6153,7 +6153,7 @@
         <v>3.7</v>
       </c>
       <c r="BE29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="BF29" t="n">
         <v>4.2</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G30" t="n">
         <v>1.94</v>
@@ -6221,10 +6221,10 @@
         <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
         <v>2.24</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
         <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M31" t="n">
         <v>1.12</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
         <v>22</v>
       </c>
       <c r="AT32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AU32" t="n">
         <v>8.4</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G34" t="n">
         <v>1.71</v>
@@ -6988,7 +6988,7 @@
         <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
@@ -6997,7 +6997,7 @@
         <v>3.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P34" t="n">
         <v>1.85</v>
@@ -7015,7 +7015,7 @@
         <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
         <v>1.18</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -7188,13 +7188,13 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q35" t="n">
         <v>1.95</v>
@@ -7212,10 +7212,10 @@
         <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
         <v>970</v>
@@ -7236,7 +7236,7 @@
         <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
         <v>70</v>
@@ -7260,49 +7260,49 @@
         <v>30</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO35" t="n">
         <v>80</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AQ35" t="n">
         <v>3.4</v>
       </c>
       <c r="AR35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AS35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT35" t="n">
         <v>3.05</v>
       </c>
       <c r="AU35" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AV35" t="n">
         <v>3.6</v>
       </c>
       <c r="AW35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AX35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AY35" t="n">
         <v>3.25</v>
       </c>
       <c r="AZ35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BA35" t="n">
         <v>4.1</v>
@@ -7311,7 +7311,7 @@
         <v>3.85</v>
       </c>
       <c r="BC35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BD35" t="n">
         <v>3.95</v>
@@ -7320,14 +7320,14 @@
         <v>4.2</v>
       </c>
       <c r="BF35" t="n">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="BG35" t="n">
         <v>4.1</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -7358,13 +7358,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G36" t="n">
         <v>2.06</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>6.4</v>
@@ -7376,7 +7376,7 @@
         <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
         <v>2.76</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I37" t="n">
         <v>3.3</v>
@@ -7582,7 +7582,7 @@
         <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q37" t="n">
         <v>2.4</v>
@@ -7600,19 +7600,19 @@
         <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X37" t="n">
         <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>60</v>
@@ -7621,19 +7621,19 @@
         <v>8.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE37" t="n">
         <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
         <v>23</v>
@@ -7663,25 +7663,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AR37" t="n">
         <v>17</v>
       </c>
       <c r="AS37" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AT37" t="n">
         <v>7.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV37" t="n">
         <v>12</v>
       </c>
       <c r="AW37" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AX37" t="n">
         <v>13</v>
@@ -7693,29 +7693,29 @@
         <v>18.5</v>
       </c>
       <c r="BA37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BB37" t="n">
         <v>7.6</v>
       </c>
-      <c r="BB37" t="n">
-        <v>7</v>
-      </c>
       <c r="BC37" t="n">
-        <v>6.8</v>
+        <v>30</v>
       </c>
       <c r="BD37" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BE37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG37" t="n">
         <v>8</v>
       </c>
-      <c r="BF37" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>40</v>
-      </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M38" t="n">
         <v>1.12</v>
@@ -7878,7 +7878,7 @@
         <v>3.95</v>
       </c>
       <c r="AX38" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
         <v>3.8</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -8099,11 +8099,11 @@
         <v>3.05</v>
       </c>
       <c r="BG39" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
         <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P41" t="n">
         <v>1.66</v>
@@ -8373,7 +8373,7 @@
         <v>2.02</v>
       </c>
       <c r="U41" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V41" t="n">
         <v>1.18</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -8525,16 +8525,16 @@
         <v>1.77</v>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H42" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
         <v>4.9</v>
@@ -8546,34 +8546,34 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q42" t="n">
         <v>1.84</v>
       </c>
       <c r="R42" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S42" t="n">
         <v>2.9</v>
       </c>
       <c r="T42" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
         <v>1.23</v>
       </c>
       <c r="W42" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X42" t="n">
         <v>970</v>
@@ -8585,7 +8585,7 @@
         <v>48</v>
       </c>
       <c r="AA42" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
@@ -8609,7 +8609,7 @@
         <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="n">
         <v>24</v>
@@ -8618,7 +8618,7 @@
         <v>23</v>
       </c>
       <c r="AL42" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM42" t="n">
         <v>130</v>
@@ -8627,7 +8627,7 @@
         <v>970</v>
       </c>
       <c r="AO42" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AP42" t="n">
         <v>3.5</v>
@@ -8657,7 +8657,7 @@
         <v>3.25</v>
       </c>
       <c r="AY42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AZ42" t="n">
         <v>3.6</v>
@@ -8672,20 +8672,20 @@
         <v>3.6</v>
       </c>
       <c r="BD42" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BE42" t="n">
         <v>4.1</v>
       </c>
       <c r="BF42" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BG42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH42"/>
+  <dimension ref="A1:BH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
         <v>1.67</v>
@@ -786,7 +786,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -795,7 +795,7 @@
         <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
@@ -804,10 +804,10 @@
         <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
@@ -828,7 +828,7 @@
         <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
@@ -840,7 +840,7 @@
         <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
@@ -873,59 +873,59 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AT2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ2" t="n">
         <v>17.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BB2" t="n">
         <v>11.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF2" t="n">
         <v>6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -1064,34 +1064,34 @@
         <v>90</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="AR3" t="n">
-        <v>19.5</v>
+        <v>6.6</v>
       </c>
       <c r="AS3" t="n">
         <v>7.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="AV3" t="n">
-        <v>13.5</v>
+        <v>5.7</v>
       </c>
       <c r="AW3" t="n">
         <v>7.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="AZ3" t="n">
         <v>6.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1395,7 +1395,7 @@
         <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1556,7 +1556,7 @@
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1577,13 +1577,13 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
         <v>1.57</v>
@@ -1592,16 +1592,16 @@
         <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="n">
         <v>12.5</v>
@@ -1613,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1631,7 +1631,7 @@
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
@@ -1646,7 +1646,7 @@
         <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ6" t="n">
         <v>8.199999999999999</v>
@@ -1655,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AT6" t="n">
         <v>9.199999999999999</v>
@@ -1679,29 +1679,29 @@
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.9</v>
+        <v>38</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.8</v>
+        <v>32</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BE6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG6" t="n">
         <v>5.1</v>
       </c>
-      <c r="BF6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1732,64 +1732,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
         <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
         <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>42</v>
@@ -1807,95 +1807,95 @@
         <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>28</v>
       </c>
-      <c r="AI7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>150</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.199999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AW7" t="n">
         <v>5</v>
       </c>
-      <c r="AT7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD7" t="n">
         <v>4.9</v>
       </c>
-      <c r="AX7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BE7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BF7" t="n">
-        <v>17</v>
+        <v>4.4</v>
       </c>
       <c r="BG7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1926,19 +1926,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>4.6</v>
@@ -1950,16 +1950,16 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
@@ -1968,16 +1968,16 @@
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1986,10 +1986,10 @@
         <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -2004,34 +2004,34 @@
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN8" t="n">
         <v>180</v>
       </c>
-      <c r="AN8" t="n">
-        <v>200</v>
-      </c>
       <c r="AO8" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>13</v>
@@ -2046,7 +2046,7 @@
         <v>12.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.6</v>
@@ -2058,45 +2058,45 @@
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AY8" t="n">
         <v>19.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="BB8" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC8" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="BE8" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="BF8" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="BG8" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2111,186 +2111,186 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Amed Sportif Faaliyetle</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Van Buyuksehir Belediye</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.26</v>
       </c>
-      <c r="H9" t="n">
+      <c r="P9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>15</v>
       </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="AR9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT9" t="n">
         <v>7.8</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>750</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AU9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AV9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>17</v>
       </c>
-      <c r="AS9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU9" t="n">
+      <c r="BA9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AV9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>12</v>
-      </c>
       <c r="BD9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="BE9" t="n">
-        <v>17.5</v>
+        <v>4.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.95</v>
+        <v>6.8</v>
       </c>
       <c r="BG9" t="n">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2305,179 +2305,179 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetle</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediye</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
+        <v>750</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="n">
         <v>190</v>
       </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AN10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>290</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BC10" t="n">
         <v>12</v>
       </c>
-      <c r="AH10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BD10" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="BF10" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.29</v>
@@ -2532,34 +2532,34 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
         <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
@@ -2568,52 +2568,52 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL11" t="n">
         <v>55</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP11" t="n">
         <v>3.55</v>
@@ -2622,28 +2622,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AS11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AU11" t="n">
         <v>6.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.8</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
-        <v>11.5</v>
+        <v>3.45</v>
       </c>
       <c r="AZ11" t="n">
         <v>12</v>
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="BC11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BD11" t="n">
         <v>3.95</v>
@@ -2664,14 +2664,14 @@
         <v>4</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BG11" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
         <v>6.2</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
         <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
@@ -2923,25 +2923,25 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
         <v>1.32</v>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3081,186 +3081,186 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>1.39</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>110</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>3.35</v>
       </c>
       <c r="W14" t="n">
-        <v>2.12</v>
+        <v>1.07</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>970</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AC14" t="n">
         <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
         <v>970</v>
       </c>
-      <c r="AK14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>90</v>
-      </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.8</v>
+        <v>3.55</v>
       </c>
       <c r="AR14" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.8</v>
+        <v>3.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.8</v>
+        <v>3.95</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="AY14" t="n">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="BB14" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="BD14" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="BE14" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="BF14" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="BG14" t="n">
-        <v>7.6</v>
+        <v>2.78</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3275,186 +3275,186 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.14</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB15" t="n">
         <v>9</v>
       </c>
-      <c r="K15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="AC15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BD15" t="n">
         <v>6.8</v>
       </c>
-      <c r="X15" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>620</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>390</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="BE15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF15" t="n">
         <v>9</v>
       </c>
-      <c r="AR15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>2.72</v>
-      </c>
       <c r="BG15" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,191 +3464,191 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>1.14</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>1.17</v>
       </c>
       <c r="H16" t="n">
-        <v>1.63</v>
+        <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>1.76</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.54</v>
       </c>
-      <c r="U16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="W16" t="n">
-        <v>1.21</v>
+        <v>6.8</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y16" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15</v>
       </c>
-      <c r="Z16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AH16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU16" t="n">
         <v>19</v>
       </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AV16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC16" t="n">
         <v>13</v>
       </c>
-      <c r="AE16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>6</v>
-      </c>
       <c r="BD16" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="BE16" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3658,184 +3658,184 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>1.66</v>
       </c>
       <c r="I17" t="n">
-        <v>8.6</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
         <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>2.32</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>1.23</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>140</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.6</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.4</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AR17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB17" t="n">
         <v>6.4</v>
       </c>
-      <c r="AS17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>6</v>
       </c>
       <c r="BE17" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="BF17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BG17" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.65</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="V18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY18" t="n">
         <v>4.9</v>
       </c>
-      <c r="I18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="AZ18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD18" t="n">
         <v>5.2</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X18" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>25</v>
-      </c>
       <c r="BE18" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="BF18" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="BG18" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -4051,179 +4051,179 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="G19" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="H19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF19" t="n">
         <v>9.6</v>
       </c>
-      <c r="I19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="X19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
         <v>120</v>
       </c>
       <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB19" t="n">
         <v>12</v>
       </c>
-      <c r="AK19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>9.6</v>
-      </c>
       <c r="BC19" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="BG19" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -4245,186 +4245,186 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.5</v>
+        <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>1.26</v>
+        <v>9.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.33</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
         <v>6</v>
       </c>
-      <c r="K20" t="n">
-        <v>7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>1.06</v>
+        <v>3.75</v>
       </c>
       <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>28</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>40</v>
-      </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>280</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>4.9</v>
+        <v>170</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AR20" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="AS20" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AT20" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
       </c>
       <c r="AV20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY20" t="n">
         <v>9.4</v>
       </c>
-      <c r="AW20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>5.1</v>
+        <v>19.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="BC20" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.7</v>
+        <v>26</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF20" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="BG20" t="n">
-        <v>3.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4439,179 +4439,179 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="T21" t="n">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
         <v>160</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB21" t="n">
         <v>15</v>
       </c>
-      <c r="AD21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="BC21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="BE21" t="n">
         <v>4</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BF21" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="BG21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -4633,40 +4633,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.15</v>
@@ -4675,7 +4675,7 @@
         <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="R22" t="n">
         <v>1.74</v>
@@ -4684,135 +4684,135 @@
         <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="U22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W22" t="n">
         <v>2.54</v>
       </c>
-      <c r="V22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X22" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="n">
         <v>38</v>
       </c>
-      <c r="Y22" t="n">
-        <v>25</v>
-      </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
         <v>22</v>
       </c>
-      <c r="AC22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO22" t="n">
         <v>60</v>
       </c>
-      <c r="AN22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AP22" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>3.95</v>
       </c>
       <c r="AR22" t="n">
-        <v>21</v>
+        <v>4.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="AW22" t="n">
-        <v>19.5</v>
+        <v>4.2</v>
       </c>
       <c r="AX22" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>4.1</v>
       </c>
       <c r="BB22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BD22" t="n">
         <v>3.85</v>
       </c>
-      <c r="BC22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>21</v>
-      </c>
       <c r="BE22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BF22" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="BG22" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,186 +4827,186 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>6.2</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>1.62</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R23" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="V23" t="n">
-        <v>2.28</v>
+        <v>1.48</v>
       </c>
       <c r="W23" t="n">
-        <v>1.17</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z23" t="n">
         <v>32</v>
       </c>
-      <c r="Y23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AC23" t="n">
         <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.8</v>
+        <v>25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3.35</v>
+        <v>17</v>
       </c>
       <c r="AR23" t="n">
-        <v>3.35</v>
+        <v>21</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF23" t="n">
         <v>7.8</v>
       </c>
-      <c r="AV23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>4</v>
-      </c>
       <c r="BG23" t="n">
-        <v>5.1</v>
+        <v>10</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,184 +5016,184 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J24" t="n">
         <v>4.2</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.86</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>2.44</v>
+        <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>1.49</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.72</v>
+        <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>1.54</v>
       </c>
       <c r="U24" t="n">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="W24" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="X24" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY24" t="n">
         <v>15</v>
       </c>
-      <c r="AE24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AZ24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB24" t="n">
         <v>4</v>
       </c>
-      <c r="AS24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV24" t="n">
+      <c r="BC24" t="n">
         <v>3.95</v>
       </c>
-      <c r="AW24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BD24" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="BE24" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="BF24" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -5215,179 +5215,179 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.68</v>
+        <v>3.65</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>2.58</v>
       </c>
       <c r="J25" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N25" t="n">
         <v>2.48</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.12</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="P25" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="R25" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="U25" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="X25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y25" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Z25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH25" t="n">
         <v>25</v>
       </c>
-      <c r="AA25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>34</v>
-      </c>
       <c r="AI25" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL25" t="n">
         <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO25" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU25" t="n">
         <v>6.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>13.5</v>
+        <v>5.6</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.3</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="BA25" t="n">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB25" t="n">
-        <v>5.2</v>
+        <v>9.4</v>
       </c>
       <c r="BC25" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="BE25" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="BF25" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="BG25" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -5409,186 +5409,186 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7.6</v>
+        <v>2.68</v>
       </c>
       <c r="G26" t="n">
-        <v>9.800000000000001</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1.66</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="N26" t="n">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="V26" t="n">
-        <v>2.46</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>6.8</v>
       </c>
-      <c r="Z26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>430</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AQ26" t="n">
+      <c r="AR26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AS26" t="n">
         <v>5.3</v>
       </c>
-      <c r="AR26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>11</v>
-      </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="AV26" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AX26" t="n">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="BB26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BD26" t="n">
         <v>5.4</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BE26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BF26" t="n">
         <v>5.3</v>
       </c>
-      <c r="BD26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BF26" t="n">
+      <c r="BG26" t="n">
         <v>5.4</v>
       </c>
-      <c r="BG26" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5603,186 +5603,186 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>1.59</v>
       </c>
       <c r="I27" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="V27" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W27" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="AS27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.65</v>
+        <v>9.4</v>
       </c>
       <c r="AW27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG27" t="n">
         <v>4.2</v>
       </c>
-      <c r="AX27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5797,186 +5797,186 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.12</v>
+        <v>5.5</v>
       </c>
       <c r="G28" t="n">
-        <v>2.32</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
       <c r="I28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY28" t="n">
         <v>4.3</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR28" t="n">
+      <c r="AZ28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BB28" t="n">
         <v>5</v>
       </c>
-      <c r="AS28" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BC28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BE28" t="n">
         <v>5</v>
       </c>
-      <c r="BD28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>5.8</v>
-      </c>
       <c r="BF28" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BG28" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,114 +5986,114 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
         <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U29" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V29" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF29" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>48</v>
@@ -6102,68 +6102,68 @@
         <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.4</v>
+        <v>10.5</v>
       </c>
       <c r="AR29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AT29" t="n">
         <v>7</v>
       </c>
-      <c r="AS29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AU29" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AV29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW29" t="n">
         <v>6</v>
       </c>
-      <c r="AW29" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AX29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BE29" t="n">
         <v>6.4</v>
       </c>
-      <c r="AY29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>2.22</v>
-      </c>
       <c r="BF29" t="n">
-        <v>4.2</v>
+        <v>18.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -6221,10 +6221,10 @@
         <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q30" t="n">
         <v>2.24</v>
@@ -6357,14 +6357,14 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6374,191 +6374,191 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
         <v>3.1</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.88</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X31" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z31" t="n">
         <v>22</v>
       </c>
       <c r="AA31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI31" t="n">
         <v>75</v>
       </c>
-      <c r="AB31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="n">
         <v>32</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AP31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT31" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AU31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX31" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>13</v>
-      </c>
       <c r="AY31" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>65</v>
+        <v>2.94</v>
       </c>
       <c r="BB31" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="BC31" t="n">
-        <v>29</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD31" t="n">
-        <v>50</v>
+        <v>2.88</v>
       </c>
       <c r="BE31" t="n">
-        <v>44</v>
+        <v>2.32</v>
       </c>
       <c r="BF31" t="n">
-        <v>29</v>
+        <v>3.85</v>
       </c>
       <c r="BG31" t="n">
-        <v>60</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6573,186 +6573,186 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.77</v>
+        <v>2.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="S32" t="n">
-        <v>2.94</v>
+        <v>5.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY32" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF32" t="n">
+      <c r="AZ32" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB32" t="n">
         <v>30</v>
       </c>
-      <c r="AG32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI32" t="n">
+      <c r="BC32" t="n">
         <v>29</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>70</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>38</v>
-      </c>
       <c r="BD32" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BE32" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BF32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BG32" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6767,186 +6767,186 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="K33" t="n">
-        <v>720</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.25</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="S33" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AU33" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AV33" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AW33" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AY33" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="BA33" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.01</v>
+        <v>70</v>
       </c>
       <c r="BC33" t="n">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="BD33" t="n">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="BE33" t="n">
-        <v>1.01</v>
+        <v>65</v>
       </c>
       <c r="BF33" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6956,191 +6956,191 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="G34" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I34" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>720</v>
       </c>
       <c r="L34" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="X34" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AU34" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN34" t="n">
+      <c r="AV34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AO34" t="n">
-        <v>170</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BC34" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BD34" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="BE34" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="BF34" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="BG34" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7155,186 +7155,186 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="U35" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>1.78</v>
+        <v>2.44</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
         <v>9.6</v>
       </c>
       <c r="AD35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>20</v>
       </c>
-      <c r="AE35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>3.7</v>
-      </c>
       <c r="BA35" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB35" t="n">
-        <v>3.85</v>
+        <v>13.5</v>
       </c>
       <c r="BC35" t="n">
-        <v>3.8</v>
+        <v>16</v>
       </c>
       <c r="BD35" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="BE35" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="BF35" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="BG35" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7344,72 +7344,72 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
         <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="U36" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="X36" t="n">
         <v>970</v>
@@ -7418,22 +7418,22 @@
         <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
         <v>970</v>
@@ -7442,43 +7442,43 @@
         <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AQ36" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="AR36" t="n">
-        <v>3.9</v>
+        <v>20</v>
       </c>
       <c r="AS36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="AU36" t="n">
         <v>3</v>
@@ -7487,48 +7487,48 @@
         <v>3.6</v>
       </c>
       <c r="AW36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AX36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AY36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AZ36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BA36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BB36" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="BC36" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="BD36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BE36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BG36" t="n">
         <v>4.1</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7543,186 +7543,186 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="G37" t="n">
-        <v>2.76</v>
+        <v>2.06</v>
       </c>
       <c r="H37" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="J37" t="n">
         <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V37" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="W37" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC37" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AK37" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>8.800000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="AR37" t="n">
-        <v>17</v>
+        <v>3.9</v>
       </c>
       <c r="AS37" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="AT37" t="n">
-        <v>7.4</v>
+        <v>2.88</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="AV37" t="n">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="AW37" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="AX37" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="AY37" t="n">
-        <v>10.5</v>
+        <v>3.2</v>
       </c>
       <c r="AZ37" t="n">
-        <v>18.5</v>
+        <v>3.65</v>
       </c>
       <c r="BA37" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="BB37" t="n">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="BC37" t="n">
-        <v>30</v>
+        <v>3.65</v>
       </c>
       <c r="BD37" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="BE37" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="BF37" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="BG37" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7732,184 +7732,184 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Zamora FC</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="H38" t="n">
-        <v>1.97</v>
+        <v>2.98</v>
       </c>
       <c r="I38" t="n">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M38" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="O38" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S38" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T38" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="V38" t="n">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="W38" t="n">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE38" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="n">
         <v>36</v>
       </c>
-      <c r="AF38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO38" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AP38" t="n">
-        <v>3.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ38" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="AR38" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="AS38" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="AU38" t="n">
         <v>6.6</v>
       </c>
       <c r="AV38" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.95</v>
+        <v>7.4</v>
       </c>
       <c r="AX38" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY38" t="n">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="BB38" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="BC38" t="n">
-        <v>4.3</v>
+        <v>30</v>
       </c>
       <c r="BD38" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="BE38" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="BF38" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="BG38" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -7926,105 +7926,105 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Academia Anzoategui FC</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Estudiantes de Merida</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="G39" t="n">
-        <v>2.86</v>
+        <v>5.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96</v>
+        <v>1.97</v>
       </c>
       <c r="I39" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="J39" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="O39" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="S39" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="W39" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -8045,72 +8045,72 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AP39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AR39" t="n">
         <v>3.4</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>4</v>
       </c>
       <c r="AS39" t="n">
         <v>4.3</v>
       </c>
       <c r="AT39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV39" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AW39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB39" t="n">
         <v>4.3</v>
       </c>
-      <c r="AX39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BC39" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BD39" t="n">
         <v>4.3</v>
       </c>
       <c r="BE39" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="BF39" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="BG39" t="n">
         <v>4.3</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8120,191 +8120,191 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Academia Anzoategui FC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Estudiantes de Merida</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="G40" t="n">
-        <v>2.26</v>
+        <v>2.86</v>
       </c>
       <c r="H40" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.6</v>
       </c>
-      <c r="I40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O40" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX40" t="n">
         <v>4</v>
       </c>
-      <c r="T40" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X40" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP40" t="n">
+      <c r="AY40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG40" t="n">
         <v>4.4</v>
       </c>
-      <c r="AQ40" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8314,191 +8314,191 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M41" t="n">
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O41" t="n">
         <v>1.41</v>
       </c>
       <c r="P41" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U41" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="V41" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AP41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU41" t="n">
         <v>3.75</v>
       </c>
-      <c r="AQ41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AV41" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AW41" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AX41" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="AY41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA41" t="n">
         <v>3.65</v>
       </c>
-      <c r="AZ41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>5</v>
-      </c>
       <c r="BB41" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="BC41" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="BD41" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="BE41" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="BF41" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="BG41" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8508,184 +8508,378 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Libertad FC</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.93</v>
       </c>
-      <c r="H42" t="n">
+      <c r="U42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC42" t="n">
         <v>4.3</v>
       </c>
-      <c r="I42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X42" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>90</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AS42" t="n">
+      <c r="BD42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF42" t="n">
         <v>4.1</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>8.4</v>
       </c>
       <c r="BG42" t="n">
         <v>4</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Libertad FC</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X43" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH43"/>
+  <dimension ref="A1:BH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
         <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -810,7 +810,7 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
         <v>2.48</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -986,7 +986,7 @@
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
         <v>2.56</v>
@@ -1064,34 +1064,34 @@
         <v>90</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.7</v>
+        <v>8.6</v>
       </c>
       <c r="AR3" t="n">
-        <v>6.6</v>
+        <v>19.5</v>
       </c>
       <c r="AS3" t="n">
         <v>7.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>5.7</v>
+        <v>13.5</v>
       </c>
       <c r="AW3" t="n">
         <v>7.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>6.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1153,19 +1153,19 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1374,7 +1374,7 @@
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
@@ -1392,7 +1392,7 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
         <v>1.29</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
         <v>3.45</v>
@@ -1553,7 +1553,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.46</v>
@@ -1583,10 +1583,10 @@
         <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
         <v>1.42</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1747,7 +1747,7 @@
         <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1759,7 +1759,7 @@
         <v>2.76</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
         <v>1.6</v>
@@ -1774,16 +1774,16 @@
         <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
         <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1929,13 +1929,13 @@
         <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1944,25 +1944,25 @@
         <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>3.35</v>
@@ -1974,7 +1974,7 @@
         <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="W8" t="n">
         <v>1.14</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
         <v>1.62</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
         <v>5.4</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2144,7 +2144,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.26</v>
@@ -2168,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2210,7 +2210,7 @@
         <v>95</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2237,13 +2237,13 @@
         <v>4.1</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AV9" t="n">
         <v>19</v>
@@ -2252,13 +2252,13 @@
         <v>4.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AY9" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="BA9" t="n">
         <v>4.2</v>
@@ -2270,7 +2270,7 @@
         <v>14.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="BE9" t="n">
         <v>4.2</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2314,13 +2314,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
         <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I10" t="n">
         <v>15.5</v>
@@ -2329,82 +2329,82 @@
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
         <v>4.7</v>
       </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="n">
         <v>750</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD10" t="n">
         <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
         <v>220</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -2416,34 +2416,34 @@
         <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AP10" t="n">
         <v>27</v>
       </c>
       <c r="AQ10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AR10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS10" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AU10" t="n">
         <v>14.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX10" t="n">
         <v>7.4</v>
@@ -2452,13 +2452,13 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BC10" t="n">
         <v>12</v>
@@ -2467,17 +2467,17 @@
         <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="BG10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2511,73 +2511,73 @@
         <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
@@ -2586,7 +2586,7 @@
         <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
         <v>18.5</v>
@@ -2610,68 +2610,68 @@
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AR11" t="n">
         <v>10.5</v>
       </c>
       <c r="AS11" t="n">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="AX11" t="n">
         <v>20</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="AZ11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG11" t="n">
         <v>12</v>
       </c>
-      <c r="BA11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>10</v>
-      </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
         <v>6.2</v>
@@ -2717,7 +2717,7 @@
         <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2753,10 +2753,10 @@
         <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>23</v>
@@ -2789,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
         <v>2.18</v>
@@ -2908,28 +2908,28 @@
         <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
@@ -2965,13 +2965,13 @@
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
         <v>970</v>
@@ -2992,7 +2992,7 @@
         <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
         <v>95</v>
@@ -3001,10 +3001,10 @@
         <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>13.5</v>
@@ -3013,7 +3013,7 @@
         <v>24</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AT13" t="n">
         <v>9</v>
@@ -3037,7 +3037,7 @@
         <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BB13" t="n">
         <v>19</v>
@@ -3046,20 +3046,20 @@
         <v>18.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BG13" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3093,16 +3093,16 @@
         <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="H14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.3</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.39</v>
-      </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="K14" t="n">
         <v>110</v>
@@ -3114,31 +3114,31 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
         <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="W14" t="n">
         <v>1.07</v>
@@ -3156,7 +3156,7 @@
         <v>970</v>
       </c>
       <c r="AB14" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AC14" t="n">
         <v>970</v>
@@ -3171,10 +3171,10 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AH14" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="n">
         <v>44</v>
@@ -3195,65 +3195,65 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AS14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY14" t="n">
         <v>3.75</v>
       </c>
-      <c r="AT14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AU14" t="n">
+      <c r="AZ14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC14" t="n">
         <v>3.95</v>
       </c>
-      <c r="AV14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BD14" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="BE14" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.84</v>
+        <v>3.95</v>
       </c>
       <c r="BG14" t="n">
         <v>2.78</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
         <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
@@ -3299,7 +3299,7 @@
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -3314,10 +3314,10 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
         <v>1.37</v>
@@ -3326,16 +3326,16 @@
         <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3484,25 +3484,25 @@
         <v>1.17</v>
       </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
@@ -3511,7 +3511,7 @@
         <v>2.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
         <v>1.75</v>
@@ -3523,10 +3523,10 @@
         <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W16" t="n">
         <v>6.8</v>
@@ -3535,7 +3535,7 @@
         <v>42</v>
       </c>
       <c r="Y16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="n">
         <v>340</v>
@@ -3586,16 +3586,16 @@
         <v>1000</v>
       </c>
       <c r="AP16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AQ16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AR16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AS16" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AT16" t="n">
         <v>9.199999999999999</v>
@@ -3604,10 +3604,10 @@
         <v>19</v>
       </c>
       <c r="AV16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AW16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AX16" t="n">
         <v>6.6</v>
@@ -3616,10 +3616,10 @@
         <v>12</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BA16" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BB16" t="n">
         <v>6.8</v>
@@ -3628,20 +3628,20 @@
         <v>13</v>
       </c>
       <c r="BD16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BE16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG16" t="n">
         <v>9.6</v>
       </c>
-      <c r="BF16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3672,25 +3672,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3699,143 +3699,143 @@
         <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V17" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="AQ17" t="n">
         <v>12</v>
       </c>
       <c r="AR17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>11.5</v>
       </c>
-      <c r="AS17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AT17" t="n">
+      <c r="BA17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG17" t="n">
         <v>5.7</v>
       </c>
-      <c r="AU17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>12.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP18" t="n">
         <v>16</v>
       </c>
-      <c r="H18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="AQ18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS18" t="n">
         <v>4.1</v>
       </c>
-      <c r="W18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X18" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>280</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AS18" t="n">
+      <c r="AT18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AY18" t="n">
         <v>8.6</v>
       </c>
-      <c r="AT18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>4.7</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.3</v>
+        <v>14.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.2</v>
+        <v>25</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="BG18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -4060,31 +4060,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
         <v>1.28</v>
@@ -4093,37 +4093,37 @@
         <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="n">
         <v>10.5</v>
@@ -4132,76 +4132,76 @@
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="n">
         <v>9.6</v>
       </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.4</v>
+        <v>14</v>
       </c>
       <c r="AQ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AS19" t="n">
         <v>6</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>7.4</v>
       </c>
       <c r="AT19" t="n">
         <v>7.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV19" t="n">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA19" t="n">
         <v>5.9</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>7.2</v>
       </c>
       <c r="BB19" t="n">
         <v>12</v>
@@ -4210,20 +4210,20 @@
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="BF19" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
         <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
         <v>12</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -4439,179 +4439,179 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.65</v>
+        <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.79</v>
+        <v>15.5</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>1.26</v>
       </c>
       <c r="I21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X21" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR21" t="n">
         <v>6.8</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="AS21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>5.1</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X21" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>16</v>
-      </c>
       <c r="BA21" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="BB21" t="n">
-        <v>15</v>
+        <v>5.9</v>
       </c>
       <c r="BC21" t="n">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="BD21" t="n">
-        <v>25</v>
+        <v>5.7</v>
       </c>
       <c r="BE21" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="BF21" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
         <v>1.53</v>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H22" t="n">
         <v>5.4</v>
@@ -4654,10 +4654,10 @@
         <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.21</v>
@@ -4678,10 +4678,10 @@
         <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T22" t="n">
         <v>1.49</v>
@@ -4693,7 +4693,7 @@
         <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="X22" t="n">
         <v>40</v>
@@ -4708,10 +4708,10 @@
         <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD22" t="n">
         <v>28</v>
@@ -4732,7 +4732,7 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4747,19 +4747,19 @@
         <v>6.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AR22" t="n">
         <v>4.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AT22" t="n">
         <v>12</v>
@@ -4768,44 +4768,44 @@
         <v>10.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AX22" t="n">
         <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BA22" t="n">
         <v>4.1</v>
       </c>
       <c r="BB22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="BC22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="BE22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF22" t="n">
         <v>4.1</v>
       </c>
       <c r="BG22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="I23" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -4863,37 +4863,37 @@
         <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T23" t="n">
         <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="V23" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z23" t="n">
         <v>32</v>
@@ -4902,43 +4902,43 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG23" t="n">
         <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>17</v>
       </c>
       <c r="AI23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>34</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>40</v>
-      </c>
       <c r="AK23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL23" t="n">
         <v>26</v>
       </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
         <v>15</v>
@@ -4953,10 +4953,10 @@
         <v>21</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>9.199999999999999</v>
@@ -4980,26 +4980,26 @@
         <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>4.1</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD23" t="n">
         <v>21</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="BF23" t="n">
         <v>7.8</v>
       </c>
       <c r="BG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.22</v>
@@ -5057,37 +5057,37 @@
         <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
         <v>2.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
         <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="W24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
         <v>16</v>
@@ -5096,10 +5096,10 @@
         <v>22</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>13</v>
@@ -5111,89 +5111,89 @@
         <v>55</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO24" t="n">
         <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS24" t="n">
-        <v>12.5</v>
+        <v>3.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>18.5</v>
+        <v>3.95</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AW24" t="n">
         <v>11.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>3.85</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="BC24" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BD24" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BE24" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BF24" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -5233,16 +5233,16 @@
         <v>2.34</v>
       </c>
       <c r="I25" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J25" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
         <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.14</v>
@@ -5266,7 +5266,7 @@
         <v>5.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="n">
         <v>1.61</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
         <v>4.1</v>
@@ -5433,7 +5433,7 @@
         <v>2.48</v>
       </c>
       <c r="K26" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L26" t="n">
         <v>1.64</v>
@@ -5484,7 +5484,7 @@
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
@@ -5532,10 +5532,10 @@
         <v>6.8</v>
       </c>
       <c r="AR26" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AT26" t="n">
         <v>6</v>
@@ -5544,44 +5544,44 @@
         <v>6.2</v>
       </c>
       <c r="AV26" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AW26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB26" t="n">
         <v>5.3</v>
       </c>
-      <c r="AX26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BA26" t="n">
+      <c r="BC26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF26" t="n">
         <v>5.4</v>
       </c>
-      <c r="BB26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BG26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -5639,28 +5639,28 @@
         <v>2.82</v>
       </c>
       <c r="O27" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P27" t="n">
         <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="U27" t="n">
         <v>1.56</v>
       </c>
       <c r="V27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W27" t="n">
         <v>1.13</v>
@@ -5741,7 +5741,7 @@
         <v>9.4</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.7</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>5.3</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -5797,67 +5797,67 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.5</v>
+        <v>1.62</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
         <v>1.59</v>
       </c>
-      <c r="I28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="P28" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.3</v>
+        <v>2.04</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>2.38</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>1.19</v>
+        <v>1.98</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -5914,69 +5914,69 @@
         <v>1000</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="AR28" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU28" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="AY28" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="BA28" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB28" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BC28" t="n">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="BD28" t="n">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="BE28" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BF28" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BG28" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5991,186 +5991,186 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>5.4</v>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>1.58</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>1.71</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="S29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP29" t="n">
         <v>4</v>
       </c>
-      <c r="T29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X29" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="AR29" t="n">
-        <v>19.5</v>
+        <v>3.55</v>
       </c>
       <c r="AS29" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="AT29" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.6</v>
+        <v>3.55</v>
       </c>
       <c r="AV29" t="n">
-        <v>14</v>
+        <v>3.65</v>
       </c>
       <c r="AW29" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="AY29" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="AZ29" t="n">
-        <v>17</v>
+        <v>4.4</v>
       </c>
       <c r="BA29" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="BB29" t="n">
-        <v>19.5</v>
+        <v>5.1</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BD29" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="BE29" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="BF29" t="n">
-        <v>18.5</v>
+        <v>5.1</v>
       </c>
       <c r="BG29" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,184 +6180,184 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
       </c>
       <c r="P30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.77</v>
       </c>
-      <c r="Q30" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>34</v>
       </c>
-      <c r="AA30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AK30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO30" t="n">
         <v>70</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AP30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN30" t="n">
+      <c r="AR30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>17</v>
       </c>
-      <c r="AO30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>20</v>
-      </c>
       <c r="BA30" t="n">
-        <v>70</v>
+        <v>6.2</v>
       </c>
       <c r="BB30" t="n">
         <v>19.5</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
-        <v>40</v>
+        <v>5.9</v>
       </c>
       <c r="BE30" t="n">
-        <v>44</v>
+        <v>6.4</v>
       </c>
       <c r="BF30" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BG30" t="n">
-        <v>75</v>
+        <v>6.2</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
@@ -6400,7 +6400,7 @@
         <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -6439,7 +6439,7 @@
         <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -6551,14 +6551,14 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6568,191 +6568,191 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>1.93</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="H32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.65</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>3.7</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="X32" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF32" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
         <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW32" t="n">
         <v>60</v>
       </c>
-      <c r="AM32" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO32" t="n">
+      <c r="AX32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA32" t="n">
         <v>70</v>
       </c>
-      <c r="AP32" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>65</v>
-      </c>
       <c r="BB32" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="BC32" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="BD32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BE32" t="n">
         <v>44</v>
       </c>
       <c r="BF32" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="BG32" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6767,186 +6767,186 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.95</v>
+        <v>2.48</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.77</v>
+        <v>2.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>2.94</v>
+        <v>5.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="W33" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY33" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AZ33" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB33" t="n">
         <v>30</v>
       </c>
-      <c r="AG33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI33" t="n">
+      <c r="BC33" t="n">
         <v>29</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>70</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>38</v>
-      </c>
       <c r="BD33" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BE33" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BF33" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BG33" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6961,186 +6961,186 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>3.95</v>
       </c>
       <c r="G34" t="n">
-        <v>1.86</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X34" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC34" t="n">
         <v>8.6</v>
       </c>
-      <c r="J34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>720</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X34" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AP34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AW34" t="n">
         <v>17.5</v>
       </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL34" t="n">
+      <c r="AX34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD34" t="n">
         <v>42</v>
       </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>26</v>
-      </c>
       <c r="BE34" t="n">
-        <v>1.01</v>
+        <v>65</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7150,191 +7150,191 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G35" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="H35" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X35" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>4.3</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>170</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AR35" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="AS35" t="n">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="AT35" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="AV35" t="n">
-        <v>19</v>
+        <v>4.4</v>
       </c>
       <c r="AW35" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="AX35" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="AY35" t="n">
-        <v>8.800000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="AZ35" t="n">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="BA35" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="BB35" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="BC35" t="n">
-        <v>16</v>
+        <v>4.1</v>
       </c>
       <c r="BD35" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="BE35" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="BF35" t="n">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="BG35" t="n">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7349,186 +7349,186 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2.04</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>1.76</v>
+        <v>2.44</v>
       </c>
       <c r="X36" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA36" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC36" t="n">
         <v>9.6</v>
       </c>
       <c r="AD36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>20</v>
       </c>
-      <c r="AE36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ36" t="n">
+      <c r="BA36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF36" t="n">
         <v>9.6</v>
       </c>
-      <c r="AR36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>14</v>
-      </c>
       <c r="BG36" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7538,72 +7538,72 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="G37" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="U37" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="W37" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -7612,22 +7612,22 @@
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF37" t="n">
         <v>970</v>
@@ -7636,43 +7636,43 @@
         <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AQ37" t="n">
-        <v>3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR37" t="n">
-        <v>3.9</v>
+        <v>20</v>
       </c>
       <c r="AS37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="AU37" t="n">
         <v>3</v>
@@ -7681,48 +7681,48 @@
         <v>3.6</v>
       </c>
       <c r="AW37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AX37" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AY37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AZ37" t="n">
-        <v>3.65</v>
+        <v>14</v>
       </c>
       <c r="BA37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BB37" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="BC37" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="BD37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BE37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BG37" t="n">
         <v>4.1</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7737,186 +7737,186 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="G38" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="H38" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S38" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V38" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AK38" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
       </c>
       <c r="AP38" t="n">
-        <v>8.800000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="AR38" t="n">
-        <v>17</v>
+        <v>3.9</v>
       </c>
       <c r="AS38" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.4</v>
+        <v>2.88</v>
       </c>
       <c r="AU38" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="AV38" t="n">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="AW38" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="AX38" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="AY38" t="n">
-        <v>10.5</v>
+        <v>3.2</v>
       </c>
       <c r="AZ38" t="n">
-        <v>18.5</v>
+        <v>3.65</v>
       </c>
       <c r="BA38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB38" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="BC38" t="n">
-        <v>30</v>
+        <v>3.65</v>
       </c>
       <c r="BD38" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="BE38" t="n">
-        <v>8.4</v>
+        <v>4.1</v>
       </c>
       <c r="BF38" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="BG38" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7926,184 +7926,184 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Zamora FC</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>2.54</v>
       </c>
       <c r="G39" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="H39" t="n">
-        <v>1.97</v>
+        <v>3.05</v>
       </c>
       <c r="I39" t="n">
-        <v>2.18</v>
+        <v>3.35</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
         <v>3.45</v>
       </c>
       <c r="L39" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="O39" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P39" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="W39" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="X39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AA39" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE39" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="n">
         <v>36</v>
       </c>
-      <c r="AF39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AP39" t="n">
-        <v>3.15</v>
+        <v>8.6</v>
       </c>
       <c r="AQ39" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="AR39" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="AS39" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="AU39" t="n">
         <v>6.6</v>
       </c>
       <c r="AV39" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX39" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY39" t="n">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="AZ39" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="BA39" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="BB39" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="BC39" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="BD39" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="BE39" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="BF39" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="BG39" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -8120,105 +8120,105 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Academia Anzoategui FC</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Estudiantes de Merida</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2.86</v>
+        <v>5.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.96</v>
+        <v>1.98</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>2.18</v>
       </c>
       <c r="J40" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L40" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="O40" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="P40" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="W40" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -8239,31 +8239,31 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AP40" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="AR40" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AS40" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AU40" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AV40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AW40" t="n">
         <v>3.95</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>4.4</v>
       </c>
       <c r="AX40" t="n">
         <v>4</v>
@@ -8272,10 +8272,10 @@
         <v>3.8</v>
       </c>
       <c r="AZ40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA40" t="n">
         <v>4.2</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>3.3</v>
       </c>
       <c r="BB40" t="n">
         <v>4.3</v>
@@ -8284,27 +8284,27 @@
         <v>4.3</v>
       </c>
       <c r="BD40" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="BE40" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="BF40" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="BG40" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8314,191 +8314,191 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Academia Anzoategui FC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Estudiantes de Merida</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="G41" t="n">
-        <v>2.26</v>
+        <v>2.86</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M41" t="n">
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX41" t="n">
         <v>4</v>
       </c>
-      <c r="T41" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X41" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP41" t="n">
+      <c r="AY41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG41" t="n">
         <v>4.4</v>
       </c>
-      <c r="AQ41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8508,191 +8508,191 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="G42" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="H42" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="K42" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R42" t="n">
         <v>1.24</v>
       </c>
       <c r="S42" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
         <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V42" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="W42" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AP42" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AR42" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AS42" t="n">
-        <v>5.1</v>
+        <v>2.96</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="AU42" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="AV42" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AW42" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="AX42" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="AY42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD42" t="n">
         <v>3.65</v>
       </c>
-      <c r="AZ42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BE42" t="n">
-        <v>5.1</v>
+        <v>2.98</v>
       </c>
       <c r="BF42" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="BG42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8702,184 +8702,378 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Libertad FC</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G43" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.3</v>
       </c>
-      <c r="I43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP43" t="n">
         <v>3.75</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X43" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>90</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AR43" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="AS43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF43" t="n">
         <v>4.1</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>8.4</v>
       </c>
       <c r="BG43" t="n">
         <v>4</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Libertad FC</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X44" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1359,10 +1359,10 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1371,7 +1371,7 @@
         <v>3.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1389,13 +1389,13 @@
         <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1455,59 +1455,59 @@
         <v>4.5</v>
       </c>
       <c r="AQ5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AV5" t="n">
         <v>4.4</v>
       </c>
-      <c r="AR5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>4.3</v>
-      </c>
       <c r="AW5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX5" t="n">
         <v>4.3</v>
       </c>
       <c r="AY5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BA5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG5" t="n">
         <v>5.3</v>
       </c>
-      <c r="BB5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
         <v>4.8</v>
@@ -1571,19 +1571,19 @@
         <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.81</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
         <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1756,13 +1756,13 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
         <v>2.14</v>
@@ -1783,7 +1783,7 @@
         <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1861,7 +1861,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>17.5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
         <v>2.1</v>
@@ -1935,16 +1935,16 @@
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1968,13 +1968,13 @@
         <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
         <v>1.9</v>
@@ -2034,10 +2034,10 @@
         <v>150</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.65</v>
+        <v>8.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>4.7</v>
@@ -2046,22 +2046,22 @@
         <v>5.1</v>
       </c>
       <c r="AT8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>6</v>
       </c>
-      <c r="AU8" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AV8" t="n">
-        <v>4.3</v>
+        <v>15.5</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="AY8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AZ8" t="n">
         <v>19.5</v>
@@ -2070,10 +2070,10 @@
         <v>5.1</v>
       </c>
       <c r="BB8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BC8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BD8" t="n">
         <v>4.9</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>1.54</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -2144,16 +2144,16 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
         <v>1.36</v>
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V9" t="n">
         <v>2.66</v>
@@ -2228,19 +2228,19 @@
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>6.6</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AS9" t="n">
         <v>12.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="n">
         <v>8.6</v>
@@ -2261,7 +2261,7 @@
         <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="BB9" t="n">
         <v>7.2</v>
@@ -2279,11 +2279,11 @@
         <v>7.2</v>
       </c>
       <c r="BG9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J10" t="n">
         <v>7</v>
@@ -2338,25 +2338,25 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
         <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.86</v>
@@ -2401,16 +2401,16 @@
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ10" t="n">
         <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
         <v>180</v>
@@ -2428,10 +2428,10 @@
         <v>38</v>
       </c>
       <c r="AR10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AT10" t="n">
         <v>9.4</v>
@@ -2443,7 +2443,7 @@
         <v>36</v>
       </c>
       <c r="AW10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AX10" t="n">
         <v>7.6</v>
@@ -2452,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB10" t="n">
         <v>8.6</v>
@@ -2467,17 +2467,17 @@
         <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BG10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -2514,16 +2514,16 @@
         <v>1.74</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -2547,19 +2547,19 @@
         <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -2631,7 +2631,7 @@
         <v>7.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV11" t="n">
         <v>19</v>
@@ -2643,10 +2643,10 @@
         <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA11" t="n">
         <v>4.2</v>
@@ -2655,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="BC11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="BD11" t="n">
         <v>24</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
         <v>1.68</v>
@@ -2911,7 +2911,7 @@
         <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.38</v>
@@ -3004,7 +3004,7 @@
         <v>85</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>19.5</v>
@@ -3043,7 +3043,7 @@
         <v>15</v>
       </c>
       <c r="BC13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
         <v>29</v>
@@ -3052,14 +3052,14 @@
         <v>80</v>
       </c>
       <c r="BF13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG13" t="n">
         <v>70</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
         <v>2.18</v>
@@ -3102,10 +3102,10 @@
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -3114,19 +3114,19 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
         <v>3.2</v>
@@ -3135,7 +3135,7 @@
         <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
@@ -3144,7 +3144,7 @@
         <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
         <v>16</v>
@@ -3180,10 +3180,10 @@
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
         <v>44</v>
@@ -3192,7 +3192,7 @@
         <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
         <v>44</v>
@@ -3207,13 +3207,13 @@
         <v>24</v>
       </c>
       <c r="AS14" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV14" t="n">
         <v>13</v>
@@ -3231,29 +3231,29 @@
         <v>14.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC14" t="n">
         <v>18.5</v>
       </c>
       <c r="BD14" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="BE14" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="BF14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -3284,61 +3284,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="I15" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="J15" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="S15" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="U15" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="V15" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
         <v>970</v>
@@ -3350,7 +3350,7 @@
         <v>970</v>
       </c>
       <c r="AB15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>970</v>
@@ -3365,13 +3365,13 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -3389,65 +3389,65 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AY15" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BA15" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BF15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
         <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" t="n">
         <v>9</v>
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -3869,22 +3869,22 @@
         <v>3.95</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H18" t="n">
         <v>1.77</v>
       </c>
       <c r="I18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J18" t="n">
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3896,7 +3896,7 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
         <v>1.49</v>
@@ -3923,7 +3923,7 @@
         <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>18.5</v>
@@ -3935,7 +3935,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>13</v>
@@ -3974,7 +3974,7 @@
         <v>8.4</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ18" t="n">
         <v>12</v>
@@ -3998,7 +3998,7 @@
         <v>14.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
@@ -4010,16 +4010,16 @@
         <v>17.5</v>
       </c>
       <c r="BB18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE18" t="n">
         <v>4.5</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>4.4</v>
       </c>
       <c r="BF18" t="n">
         <v>20</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H19" t="n">
         <v>6</v>
@@ -4090,7 +4090,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
@@ -4111,7 +4111,7 @@
         <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4168,7 +4168,7 @@
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>4.6</v>
       </c>
       <c r="AQ19" t="n">
         <v>5</v>
@@ -4186,7 +4186,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AV19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AW19" t="n">
         <v>6</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -4463,7 +4463,7 @@
         <v>5.9</v>
       </c>
       <c r="K21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.23</v>
@@ -4499,7 +4499,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
         <v>5.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4792,7 +4792,7 @@
         <v>14.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BE22" t="n">
         <v>4.1</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
         <v>1.74</v>
       </c>
       <c r="S23" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.49</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
         <v>2.36</v>
@@ -5045,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.21</v>
@@ -5063,7 +5063,7 @@
         <v>2.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="R24" t="n">
         <v>1.76</v>
@@ -5138,7 +5138,7 @@
         <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>17</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>5.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I25" t="n">
         <v>1.8</v>
@@ -5239,7 +5239,7 @@
         <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.22</v>
@@ -5287,22 +5287,22 @@
         <v>16</v>
       </c>
       <c r="AA25" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AB25" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AF25" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
@@ -5317,7 +5317,7 @@
         <v>130</v>
       </c>
       <c r="AK25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
         <v>60</v>
@@ -5329,65 +5329,65 @@
         <v>50</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AP25" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="AQ25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AR25" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="AU25" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.35</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW25" t="n">
         <v>11.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="BA25" t="n">
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="BD25" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="BE25" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="BF25" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="BG25" t="n">
         <v>5.3</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
         <v>2.32</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J26" t="n">
         <v>2.92</v>
@@ -5436,7 +5436,7 @@
         <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -5532,7 +5532,7 @@
         <v>5.9</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AS26" t="n">
         <v>8.6</v>
@@ -5544,7 +5544,7 @@
         <v>6.2</v>
       </c>
       <c r="AV26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5556,16 +5556,16 @@
         <v>6.8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BA26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
       </c>
       <c r="BC26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5574,14 +5574,14 @@
         <v>5.2</v>
       </c>
       <c r="BF26" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="BG26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
         <v>2.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="V27" t="n">
         <v>1.33</v>
@@ -5726,10 +5726,10 @@
         <v>6.8</v>
       </c>
       <c r="AR27" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AS27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5750,10 +5750,10 @@
         <v>12.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BA27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BB27" t="n">
         <v>5.3</v>
@@ -5762,7 +5762,7 @@
         <v>5.3</v>
       </c>
       <c r="BD27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BE27" t="n">
         <v>5.7</v>
@@ -5771,11 +5771,11 @@
         <v>5.4</v>
       </c>
       <c r="BG27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -5809,13 +5809,13 @@
         <v>7.6</v>
       </c>
       <c r="G28" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>1.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J28" t="n">
         <v>3.6</v>
@@ -5824,7 +5824,7 @@
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -5926,7 +5926,7 @@
         <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5935,41 +5935,41 @@
         <v>9.4</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>5.3</v>
       </c>
       <c r="AY28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BA28" t="n">
         <v>5.2</v>
       </c>
       <c r="BB28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BC28" t="n">
         <v>5.6</v>
       </c>
-      <c r="BC28" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BD28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BE28" t="n">
         <v>5.6</v>
       </c>
       <c r="BF28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BG28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
         <v>1.97</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
         <v>7</v>
@@ -6042,13 +6042,13 @@
         <v>3.8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W29" t="n">
         <v>2.02</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -6212,10 +6212,10 @@
         <v>4.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>3.5</v>
@@ -6227,7 +6227,7 @@
         <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
         <v>1.35</v>
@@ -6302,25 +6302,25 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AR30" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="AS30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AW30" t="n">
         <v>4.2</v>
@@ -6353,11 +6353,11 @@
         <v>5.1</v>
       </c>
       <c r="BG30" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -6388,25 +6388,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -6421,7 +6421,7 @@
         <v>1.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
         <v>1.27</v>
@@ -6430,16 +6430,16 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W31" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -6457,7 +6457,7 @@
         <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
         <v>970</v>
@@ -6502,22 +6502,22 @@
         <v>10.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV31" t="n">
         <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AX31" t="n">
         <v>11</v>
@@ -6529,29 +6529,29 @@
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BB31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="BE31" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF31" t="n">
         <v>18.5</v>
       </c>
       <c r="BG31" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -6582,10 +6582,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G32" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>4.7</v>
@@ -6627,13 +6627,13 @@
         <v>2.02</v>
       </c>
       <c r="U32" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V32" t="n">
         <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
         <v>2.5</v>
       </c>
       <c r="G33" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H33" t="n">
         <v>3.05</v>
@@ -6800,7 +6800,7 @@
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.39</v>
@@ -6815,13 +6815,13 @@
         <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.84</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.98</v>
       </c>
       <c r="V33" t="n">
         <v>1.44</v>
@@ -6839,107 +6839,107 @@
         <v>22</v>
       </c>
       <c r="AA33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
         <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF33" t="n">
         <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
         <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO33" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AP33" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="AR33" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="AT33" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU33" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV33" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="AW33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX33" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="AY33" t="n">
-        <v>9.6</v>
+        <v>4.6</v>
       </c>
       <c r="AZ33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA33" t="n">
-        <v>2.94</v>
+        <v>6</v>
       </c>
       <c r="BB33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC33" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="BD33" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="BE33" t="n">
-        <v>2.32</v>
+        <v>6.4</v>
       </c>
       <c r="BF33" t="n">
-        <v>3.85</v>
+        <v>21</v>
       </c>
       <c r="BG33" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G34" t="n">
         <v>2.52</v>
@@ -6985,10 +6985,10 @@
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L34" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M34" t="n">
         <v>1.13</v>
@@ -6997,7 +6997,7 @@
         <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P34" t="n">
         <v>1.6</v>
@@ -7009,13 +7009,13 @@
         <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
         <v>2.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
         <v>1.37</v>
@@ -7024,7 +7024,7 @@
         <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y34" t="n">
         <v>10.5</v>
@@ -7063,13 +7063,13 @@
         <v>34</v>
       </c>
       <c r="AK34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
         <v>34</v>
@@ -7087,7 +7087,7 @@
         <v>21</v>
       </c>
       <c r="AS34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AT34" t="n">
         <v>7.6</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -7176,10 +7176,10 @@
         <v>2.02</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -7224,7 +7224,7 @@
         <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
         <v>24</v>
@@ -7236,10 +7236,10 @@
         <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF35" t="n">
         <v>30</v>
@@ -7266,7 +7266,7 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
         <v>11.5</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -7358,19 +7358,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H36" t="n">
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>4.8</v>
@@ -7385,16 +7385,16 @@
         <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
         <v>3.25</v>
@@ -7403,13 +7403,13 @@
         <v>1.92</v>
       </c>
       <c r="U36" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
         <v>1.15</v>
       </c>
       <c r="W36" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="X36" t="n">
         <v>18</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H37" t="n">
         <v>6.2</v>
@@ -7567,7 +7567,7 @@
         <v>3.95</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.43</v>
@@ -7585,10 +7585,10 @@
         <v>1.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R37" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S37" t="n">
         <v>3.6</v>
@@ -7600,7 +7600,7 @@
         <v>1.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W37" t="n">
         <v>2.44</v>
@@ -7615,7 +7615,7 @@
         <v>55</v>
       </c>
       <c r="AA37" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB37" t="n">
         <v>7.8</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -7752,13 +7752,13 @@
         <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
         <v>4.3</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
         <v>4.2</v>
@@ -7779,13 +7779,13 @@
         <v>1.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="R38" t="n">
         <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T38" t="n">
         <v>1.72</v>
@@ -7797,7 +7797,7 @@
         <v>1.3</v>
       </c>
       <c r="W38" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
         <v>970</v>
@@ -7806,7 +7806,7 @@
         <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
         <v>110</v>
@@ -7821,13 +7821,13 @@
         <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF38" t="n">
         <v>970</v>
       </c>
       <c r="AG38" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
         <v>24</v>
@@ -7854,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="AP38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AQ38" t="n">
         <v>9.6</v>
@@ -7881,7 +7881,7 @@
         <v>3.4</v>
       </c>
       <c r="AY38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AZ38" t="n">
         <v>3.7</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
         <v>2.06</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
         <v>6.4</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -8137,13 +8137,13 @@
         <v>2.54</v>
       </c>
       <c r="G40" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.1</v>
@@ -8158,28 +8158,28 @@
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P40" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
         <v>4.8</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
         <v>1.43</v>
@@ -8206,7 +8206,7 @@
         <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE40" t="n">
         <v>48</v>
@@ -8251,7 +8251,7 @@
         <v>17</v>
       </c>
       <c r="AS40" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AT40" t="n">
         <v>7.4</v>
@@ -8263,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="AW40" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AX40" t="n">
         <v>13</v>
@@ -8275,29 +8275,29 @@
         <v>18.5</v>
       </c>
       <c r="BA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE40" t="n">
         <v>8.6</v>
       </c>
-      <c r="BB40" t="n">
+      <c r="BF40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG40" t="n">
         <v>8</v>
       </c>
-      <c r="BC40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -8334,13 +8334,13 @@
         <v>5.3</v>
       </c>
       <c r="H41" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I41" t="n">
         <v>2.16</v>
       </c>
       <c r="J41" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
         <v>3.45</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G42" t="n">
         <v>2.86</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -8722,16 +8722,16 @@
         <v>2.26</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L43" t="n">
         <v>1.47</v>
@@ -8740,31 +8740,31 @@
         <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="O43" t="n">
         <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
         <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
         <v>1.93</v>
       </c>
       <c r="U43" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W43" t="n">
         <v>1.79</v>
@@ -8776,16 +8776,16 @@
         <v>970</v>
       </c>
       <c r="Z43" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA43" t="n">
         <v>120</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
         <v>970</v>
@@ -8800,16 +8800,16 @@
         <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
         <v>90</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK43" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
         <v>60</v>
@@ -8818,68 +8818,68 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO43" t="n">
         <v>100</v>
       </c>
       <c r="AP43" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AQ43" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AR43" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="AU43" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AV43" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC43" t="n">
         <v>5.4</v>
       </c>
-      <c r="AW43" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AX43" t="n">
+      <c r="BD43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG43" t="n">
         <v>4.7</v>
       </c>
-      <c r="AY43" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>7</v>
-      </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
         <v>1.66</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
         <v>1.24</v>
@@ -8952,10 +8952,10 @@
         <v>3.9</v>
       </c>
       <c r="T44" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U44" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V44" t="n">
         <v>1.18</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -9110,7 +9110,7 @@
         <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
         <v>5.6</v>
@@ -9146,16 +9146,16 @@
         <v>2.9</v>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="U45" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="V45" t="n">
         <v>1.23</v>
       </c>
       <c r="W45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X45" t="n">
         <v>970</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
         <v>6.6</v>
@@ -813,13 +813,13 @@
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
         <v>24</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>28</v>
       </c>
       <c r="Z2" t="n">
         <v>65</v>
@@ -828,34 +828,34 @@
         <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AT2" t="n">
         <v>8.199999999999999</v>
@@ -891,7 +891,7 @@
         <v>19.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="AX2" t="n">
         <v>7.8</v>
@@ -903,7 +903,7 @@
         <v>17.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="BB2" t="n">
         <v>11.5</v>
@@ -912,20 +912,20 @@
         <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="BF2" t="n">
         <v>6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1258,52 +1258,52 @@
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BF4" t="n">
         <v>1.01</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
         <v>4.3</v>
@@ -1362,7 +1362,7 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1389,7 +1389,7 @@
         <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
         <v>1.32</v>
@@ -1473,7 +1473,7 @@
         <v>4.4</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="AX5" t="n">
         <v>4.3</v>
@@ -1485,7 +1485,7 @@
         <v>4.6</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.4</v>
+        <v>2.56</v>
       </c>
       <c r="BB5" t="n">
         <v>4.8</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>1.99</v>
@@ -1646,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="AQ6" t="n">
         <v>3.05</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1744,7 +1744,7 @@
         <v>2.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
@@ -1762,10 +1762,10 @@
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1783,13 +1783,13 @@
         <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1801,10 +1801,10 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>34</v>
@@ -1819,7 +1819,7 @@
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>60</v>
@@ -1828,13 +1828,13 @@
         <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1849,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AT7" t="n">
         <v>9.199999999999999</v>
@@ -1876,26 +1876,26 @@
         <v>38</v>
       </c>
       <c r="BB7" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="BC7" t="n">
         <v>32</v>
       </c>
       <c r="BD7" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="BG7" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1941,10 +1941,10 @@
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
         <v>6.8</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
         <v>1.54</v>
       </c>
       <c r="I9" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -2138,19 +2138,19 @@
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" t="n">
         <v>1.92</v>
@@ -2165,13 +2165,13 @@
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
         <v>2.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X9" t="n">
         <v>17.5</v>
@@ -2198,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
         <v>32</v>
@@ -2273,17 +2273,17 @@
         <v>7</v>
       </c>
       <c r="BE9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BF9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BG9" t="n">
         <v>7.4</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2317,13 +2317,13 @@
         <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H10" t="n">
         <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
         <v>7</v>
@@ -2341,34 +2341,34 @@
         <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="Q10" t="n">
         <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
         <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
         <v>4.7</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="n">
         <v>55</v>
@@ -2389,10 +2389,10 @@
         <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2401,10 +2401,10 @@
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -2416,7 +2416,7 @@
         <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AO10" t="n">
         <v>260</v>
@@ -2431,7 +2431,7 @@
         <v>13.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AT10" t="n">
         <v>9.4</v>
@@ -2452,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>13.5</v>
@@ -2467,17 +2467,17 @@
         <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BG10" t="n">
         <v>14</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2517,10 +2517,10 @@
         <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -2535,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
         <v>2.04</v>
@@ -2544,22 +2544,22 @@
         <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -2595,7 +2595,7 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
@@ -2616,7 +2616,7 @@
         <v>110</v>
       </c>
       <c r="AP11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>17.5</v>
@@ -2658,10 +2658,10 @@
         <v>14.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF11" t="n">
         <v>6.8</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
         <v>4.2</v>
@@ -2723,10 +2723,10 @@
         <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2747,10 +2747,10 @@
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W12" t="n">
         <v>1.32</v>
@@ -2762,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
@@ -2810,7 +2810,7 @@
         <v>970</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.85</v>
+        <v>9.6</v>
       </c>
       <c r="AQ12" t="n">
         <v>8.6</v>
@@ -2837,25 +2837,25 @@
         <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AZ12" t="n">
         <v>3.95</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BB12" t="n">
         <v>4.6</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BD12" t="n">
         <v>4.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BF12" t="n">
         <v>4.5</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H13" t="n">
         <v>6.2</v>
@@ -2911,40 +2911,40 @@
         <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W13" t="n">
         <v>2.46</v>
@@ -2962,10 +2962,10 @@
         <v>160</v>
       </c>
       <c r="AB13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC13" t="n">
         <v>9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>23</v>
@@ -2974,7 +2974,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG13" t="n">
         <v>9.4</v>
@@ -2995,16 +2995,16 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>19.5</v>
@@ -3013,7 +3013,7 @@
         <v>42</v>
       </c>
       <c r="AS13" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AT13" t="n">
         <v>8.4</v>
@@ -3034,7 +3034,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>65</v>
@@ -3043,23 +3043,23 @@
         <v>15</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
         <v>29</v>
       </c>
       <c r="BE13" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="BF13" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BG13" t="n">
         <v>70</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -3090,22 +3090,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
         <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>60</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -3117,25 +3117,25 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.26</v>
       </c>
       <c r="R14" t="n">
         <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
@@ -3144,116 +3144,116 @@
         <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR14" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="AS14" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AT14" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AW14" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AY14" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="BB14" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="BC14" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="BD14" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="BE14" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="BF14" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BG14" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -3290,16 +3290,16 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I15" t="n">
         <v>1.21</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -3314,13 +3314,13 @@
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
         <v>2.06</v>
@@ -3329,10 +3329,10 @@
         <v>2.36</v>
       </c>
       <c r="U15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="W15" t="n">
         <v>1.04</v>
@@ -3389,65 +3389,65 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AS15" t="n">
         <v>3.75</v>
       </c>
-      <c r="AP15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AS15" t="n">
+      <c r="AT15" t="n">
         <v>3.6</v>
       </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AU15" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="AX15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>3.55</v>
       </c>
-      <c r="AY15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="BA15" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="BC15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF15" t="n">
         <v>3.55</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>3.6</v>
       </c>
       <c r="BG15" t="n">
         <v>2.86</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G16" t="n">
         <v>1.87</v>
@@ -3490,10 +3490,10 @@
         <v>5.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -3502,43 +3502,43 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
         <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W16" t="n">
         <v>2.14</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="n">
         <v>140</v>
@@ -3547,13 +3547,13 @@
         <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
         <v>11.5</v>
@@ -3562,7 +3562,7 @@
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>80</v>
@@ -3574,7 +3574,7 @@
         <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>130</v>
@@ -3583,22 +3583,22 @@
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>15</v>
       </c>
       <c r="AR16" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS16" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="n">
         <v>7.8</v>
@@ -3607,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX16" t="n">
         <v>9.199999999999999</v>
@@ -3616,32 +3616,32 @@
         <v>8.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="BA16" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
-        <v>6.8</v>
+        <v>30</v>
       </c>
       <c r="BE16" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="BF16" t="n">
         <v>9</v>
       </c>
       <c r="BG16" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -3678,13 +3678,13 @@
         <v>1.17</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>11</v>
@@ -3702,13 +3702,13 @@
         <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q17" t="n">
         <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
         <v>2.1</v>
@@ -3780,7 +3780,7 @@
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AQ17" t="n">
         <v>8.800000000000001</v>
@@ -3792,7 +3792,7 @@
         <v>9.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
@@ -3828,14 +3828,14 @@
         <v>9.4</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="BG17" t="n">
         <v>9.6</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>4.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I18" t="n">
         <v>1.91</v>
@@ -3881,7 +3881,7 @@
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
         <v>6</v>
@@ -4087,10 +4087,10 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
@@ -4105,19 +4105,19 @@
         <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
         <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -4126,13 +4126,13 @@
         <v>220</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>110</v>
@@ -4168,16 +4168,16 @@
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.6</v>
+        <v>13.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="AS19" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="AT19" t="n">
         <v>7.4</v>
@@ -4189,7 +4189,7 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX19" t="n">
         <v>8.199999999999999</v>
@@ -4198,10 +4198,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="BA19" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="n">
         <v>12</v>
@@ -4210,20 +4210,20 @@
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>5.5</v>
+        <v>30</v>
       </c>
       <c r="BE19" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF19" t="n">
         <v>7</v>
       </c>
       <c r="BG19" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -4260,31 +4260,31 @@
         <v>15.5</v>
       </c>
       <c r="H20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.29</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.32</v>
-      </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
         <v>1.61</v>
@@ -4302,34 +4302,34 @@
         <v>1.72</v>
       </c>
       <c r="V20" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.06</v>
       </c>
       <c r="X20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA20" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AB20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF20" t="n">
         <v>160</v>
@@ -4341,7 +4341,7 @@
         <v>40</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -4374,7 +4374,7 @@
         <v>8.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>5.2</v>
+        <v>34</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
@@ -4386,38 +4386,38 @@
         <v>12</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="AY20" t="n">
-        <v>5.3</v>
+        <v>40</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="BA20" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF20" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG20" t="n">
         <v>3.8</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.31</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -4463,7 +4463,7 @@
         <v>5.9</v>
       </c>
       <c r="K21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.23</v>
@@ -4499,7 +4499,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
         <v>1.79</v>
@@ -4651,7 +4651,7 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.95</v>
@@ -4684,10 +4684,10 @@
         <v>2.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
         <v>1.2</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>1.53</v>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
         <v>5.4</v>
@@ -4878,7 +4878,7 @@
         <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="U23" t="n">
         <v>2.42</v>
@@ -4944,7 +4944,7 @@
         <v>60</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="AQ23" t="n">
         <v>3.95</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.21</v>
@@ -5078,10 +5078,10 @@
         <v>2.84</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
         <v>34</v>
@@ -5129,7 +5129,7 @@
         <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN24" t="n">
         <v>10.5</v>
@@ -5174,10 +5174,10 @@
         <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="BC24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BD24" t="n">
         <v>21</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -5224,76 +5224,76 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="G25" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R25" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="T25" t="n">
         <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="W25" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
         <v>970</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
@@ -5302,92 +5302,92 @@
         <v>970</v>
       </c>
       <c r="AF25" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
         <v>130</v>
       </c>
       <c r="AK25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL25" t="n">
         <v>55</v>
       </c>
-      <c r="AL25" t="n">
-        <v>60</v>
-      </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="AQ25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>4.7</v>
+        <v>13.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW25" t="n">
         <v>11.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BA25" t="n">
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="BC25" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="BD25" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="BE25" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="BF25" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BG25" t="n">
         <v>5.3</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
         <v>2.92</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.6</v>
@@ -5496,7 +5496,7 @@
         <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG26" t="n">
         <v>970</v>
@@ -5532,10 +5532,10 @@
         <v>5.9</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AT26" t="n">
         <v>8.800000000000001</v>
@@ -5547,41 +5547,41 @@
         <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AY26" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BC26" t="n">
         <v>10</v>
       </c>
-      <c r="BB26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BD26" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="BE26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF26" t="n">
         <v>5.2</v>
       </c>
-      <c r="BF26" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BG26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -5618,16 +5618,16 @@
         <v>2.96</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L27" t="n">
         <v>1.64</v>
@@ -5639,13 +5639,13 @@
         <v>2.12</v>
       </c>
       <c r="O27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
         <v>1.37</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R27" t="n">
         <v>1.12</v>
@@ -5660,7 +5660,7 @@
         <v>1.53</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
         <v>1.51</v>
@@ -5675,7 +5675,7 @@
         <v>25</v>
       </c>
       <c r="AA27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB27" t="n">
         <v>7.8</v>
@@ -5711,7 +5711,7 @@
         <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN27" t="n">
         <v>80</v>
@@ -5741,10 +5741,10 @@
         <v>14.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AY27" t="n">
         <v>12.5</v>
@@ -5756,7 +5756,7 @@
         <v>5.6</v>
       </c>
       <c r="BB27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BC27" t="n">
         <v>5.3</v>
@@ -5765,17 +5765,17 @@
         <v>5.6</v>
       </c>
       <c r="BE27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BF27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BG27" t="n">
         <v>5.6</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -5806,25 +5806,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H28" t="n">
         <v>1.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -5833,10 +5833,10 @@
         <v>2.82</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
         <v>2.44</v>
@@ -5848,19 +5848,19 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W28" t="n">
         <v>1.13</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>6.8</v>
@@ -5887,7 +5887,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH28" t="n">
         <v>36</v>
@@ -5923,13 +5923,13 @@
         <v>7</v>
       </c>
       <c r="AS28" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV28" t="n">
         <v>9.4</v>
@@ -5938,38 +5938,38 @@
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AZ28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BA28" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BB28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BC28" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BD28" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BE28" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BF28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BG28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -6108,62 +6108,62 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AR29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AV29" t="n">
         <v>4.8</v>
       </c>
-      <c r="AS29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>4.3</v>
-      </c>
       <c r="AW29" t="n">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="AX29" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AY29" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AZ29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF29" t="n">
         <v>4.4</v>
       </c>
-      <c r="BA29" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>4</v>
-      </c>
       <c r="BG29" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>5.4</v>
       </c>
       <c r="G30" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
         <v>1.58</v>
@@ -6212,7 +6212,7 @@
         <v>4.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -6233,13 +6233,13 @@
         <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T30" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
         <v>2.42</v>
@@ -6302,62 +6302,62 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AR30" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB30" t="n">
         <v>4.1</v>
       </c>
-      <c r="AT30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="BD30" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="BE30" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BF30" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BG30" t="n">
         <v>7.8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -6388,25 +6388,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -6421,7 +6421,7 @@
         <v>1.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
         <v>1.27</v>
@@ -6439,7 +6439,7 @@
         <v>1.32</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -6451,16 +6451,16 @@
         <v>29</v>
       </c>
       <c r="AA31" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="n">
         <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>60</v>
@@ -6481,10 +6481,10 @@
         <v>34</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
         <v>140</v>
@@ -6493,7 +6493,7 @@
         <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP31" t="n">
         <v>9.800000000000001</v>
@@ -6505,7 +6505,7 @@
         <v>18.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6517,7 +6517,7 @@
         <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.6</v>
+        <v>38</v>
       </c>
       <c r="AX31" t="n">
         <v>11</v>
@@ -6529,7 +6529,7 @@
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BB31" t="n">
         <v>21</v>
@@ -6538,20 +6538,20 @@
         <v>20</v>
       </c>
       <c r="BD31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE31" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BF31" t="n">
         <v>18.5</v>
       </c>
       <c r="BG31" t="n">
-        <v>6.6</v>
+        <v>50</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -6582,16 +6582,16 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J32" t="n">
         <v>3.65</v>
@@ -6633,7 +6633,7 @@
         <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -6779,37 +6779,37 @@
         <v>2.5</v>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H33" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3.35</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O33" t="n">
         <v>1.39</v>
       </c>
       <c r="P33" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R33" t="n">
         <v>1.28</v>
@@ -6827,7 +6827,7 @@
         <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X33" t="n">
         <v>970</v>
@@ -6842,7 +6842,7 @@
         <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
         <v>9</v>
@@ -6851,7 +6851,7 @@
         <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF33" t="n">
         <v>970</v>
@@ -6860,7 +6860,7 @@
         <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI33" t="n">
         <v>55</v>
@@ -6881,19 +6881,19 @@
         <v>30</v>
       </c>
       <c r="AO33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP33" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AR33" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AS33" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AT33" t="n">
         <v>8.199999999999999</v>
@@ -6902,28 +6902,28 @@
         <v>6.4</v>
       </c>
       <c r="AV33" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AW33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX33" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AY33" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AZ33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BA33" t="n">
         <v>6</v>
       </c>
       <c r="BB33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BC33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BD33" t="n">
         <v>6</v>
@@ -6935,11 +6935,11 @@
         <v>21</v>
       </c>
       <c r="BG33" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -6973,13 +6973,13 @@
         <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -6988,43 +6988,43 @@
         <v>3.05</v>
       </c>
       <c r="L34" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T34" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
         <v>1.37</v>
       </c>
       <c r="W34" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y34" t="n">
         <v>10.5</v>
@@ -7036,7 +7036,7 @@
         <v>75</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
         <v>6.8</v>
@@ -7057,7 +7057,7 @@
         <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
         <v>34</v>
@@ -7069,10 +7069,10 @@
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
         <v>70</v>
@@ -7084,34 +7084,34 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AR34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AT34" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV34" t="n">
         <v>14.5</v>
       </c>
       <c r="AW34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY34" t="n">
         <v>11.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="BA34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB34" t="n">
         <v>32</v>
@@ -7123,17 +7123,17 @@
         <v>50</v>
       </c>
       <c r="BE34" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="BF34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BG34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G35" t="n">
         <v>3.95</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K35" t="n">
         <v>4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -7194,10 +7194,10 @@
         <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R35" t="n">
         <v>1.49</v>
@@ -7212,7 +7212,7 @@
         <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W35" t="n">
         <v>1.33</v>
@@ -7224,7 +7224,7 @@
         <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA35" t="n">
         <v>24</v>
@@ -7239,7 +7239,7 @@
         <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF35" t="n">
         <v>30</v>
@@ -7248,13 +7248,13 @@
         <v>15.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="n">
         <v>42</v>
@@ -7266,10 +7266,10 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP35" t="n">
         <v>17</v>
@@ -7290,10 +7290,10 @@
         <v>8.4</v>
       </c>
       <c r="AV35" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AX35" t="n">
         <v>28</v>
@@ -7302,10 +7302,10 @@
         <v>15</v>
       </c>
       <c r="AZ35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB35" t="n">
         <v>70</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -7361,13 +7361,13 @@
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="H36" t="n">
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -7382,16 +7382,16 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
         <v>1.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
         <v>1.37</v>
@@ -7400,46 +7400,46 @@
         <v>3.25</v>
       </c>
       <c r="T36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.92</v>
       </c>
-      <c r="U36" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W36" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
         <v>11</v>
       </c>
-      <c r="AD36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>26</v>
@@ -7472,10 +7472,10 @@
         <v>15.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>4.7</v>
+        <v>38</v>
       </c>
       <c r="AS36" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="AT36" t="n">
         <v>6.4</v>
@@ -7487,10 +7487,10 @@
         <v>18.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY36" t="n">
         <v>7.8</v>
@@ -7499,7 +7499,7 @@
         <v>16.5</v>
       </c>
       <c r="BA36" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="BB36" t="n">
         <v>12</v>
@@ -7508,20 +7508,20 @@
         <v>13.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BE36" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BF36" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="BG36" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H37" t="n">
         <v>6.2</v>
       </c>
       <c r="I37" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
         <v>3.95</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.43</v>
@@ -7582,13 +7582,13 @@
         <v>1.35</v>
       </c>
       <c r="P37" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" t="n">
         <v>2.04</v>
       </c>
       <c r="R37" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S37" t="n">
         <v>3.6</v>
@@ -7597,13 +7597,13 @@
         <v>2.02</v>
       </c>
       <c r="U37" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V37" t="n">
         <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X37" t="n">
         <v>14.5</v>
@@ -7630,7 +7630,7 @@
         <v>130</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -7645,7 +7645,7 @@
         <v>970</v>
       </c>
       <c r="AK37" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="n">
         <v>44</v>
@@ -7666,10 +7666,10 @@
         <v>16.5</v>
       </c>
       <c r="AR37" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AS37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AT37" t="n">
         <v>6.6</v>
@@ -7681,7 +7681,7 @@
         <v>19</v>
       </c>
       <c r="AW37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AX37" t="n">
         <v>8</v>
@@ -7693,7 +7693,7 @@
         <v>20</v>
       </c>
       <c r="BA37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BB37" t="n">
         <v>13.5</v>
@@ -7702,20 +7702,20 @@
         <v>16</v>
       </c>
       <c r="BD37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BF37" t="n">
         <v>9.6</v>
       </c>
       <c r="BG37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G38" t="n">
         <v>2.3</v>
@@ -7755,13 +7755,13 @@
         <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
@@ -7779,34 +7779,34 @@
         <v>1.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R38" t="n">
         <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T38" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U38" t="n">
         <v>1.81</v>
       </c>
       <c r="V38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="X38" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
         <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA38" t="n">
         <v>110</v>
@@ -7815,7 +7815,7 @@
         <v>10.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD38" t="n">
         <v>20</v>
@@ -7824,7 +7824,7 @@
         <v>65</v>
       </c>
       <c r="AF38" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG38" t="n">
         <v>13.5</v>
@@ -7866,16 +7866,16 @@
         <v>4.2</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="AU38" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AV38" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="AW38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AX38" t="n">
         <v>3.4</v>
@@ -7884,7 +7884,7 @@
         <v>3.3</v>
       </c>
       <c r="AZ38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BA38" t="n">
         <v>4.1</v>
@@ -7893,7 +7893,7 @@
         <v>3.85</v>
       </c>
       <c r="BC38" t="n">
-        <v>3.8</v>
+        <v>18</v>
       </c>
       <c r="BD38" t="n">
         <v>3.95</v>
@@ -7902,14 +7902,14 @@
         <v>4.2</v>
       </c>
       <c r="BF38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BG38" t="n">
         <v>4.1</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -8134,16 +8134,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J40" t="n">
         <v>3.1</v>
@@ -8152,19 +8152,19 @@
         <v>3.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.49</v>
       </c>
       <c r="P40" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q40" t="n">
         <v>2.46</v>
@@ -8185,7 +8185,7 @@
         <v>1.43</v>
       </c>
       <c r="W40" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X40" t="n">
         <v>10</v>
@@ -8215,7 +8215,7 @@
         <v>16.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH40" t="n">
         <v>23</v>
@@ -8242,7 +8242,7 @@
         <v>1000</v>
       </c>
       <c r="AP40" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>8.4</v>
@@ -8251,10 +8251,10 @@
         <v>17</v>
       </c>
       <c r="AS40" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU40" t="n">
         <v>6.6</v>
@@ -8263,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="AW40" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AX40" t="n">
         <v>13</v>
@@ -8275,29 +8275,29 @@
         <v>18.5</v>
       </c>
       <c r="BA40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BE40" t="n">
         <v>8</v>
       </c>
-      <c r="BB40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BC40" t="n">
+      <c r="BF40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BG40" t="n">
         <v>7.2</v>
       </c>
-      <c r="BD40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>8</v>
-      </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
         <v>5.3</v>
       </c>
       <c r="H41" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>2.16</v>
@@ -8343,7 +8343,7 @@
         <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
         <v>1.56</v>
@@ -8439,19 +8439,19 @@
         <v>3.15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="AR41" t="n">
         <v>3.4</v>
       </c>
       <c r="AS41" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AT41" t="n">
         <v>3.45</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="AV41" t="n">
         <v>3.4</v>
@@ -8460,13 +8460,13 @@
         <v>3.95</v>
       </c>
       <c r="AX41" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AY41" t="n">
         <v>3.8</v>
       </c>
       <c r="AZ41" t="n">
-        <v>21</v>
+        <v>3.95</v>
       </c>
       <c r="BA41" t="n">
         <v>4.2</v>
@@ -8487,11 +8487,11 @@
         <v>4.3</v>
       </c>
       <c r="BG41" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -8525,16 +8525,16 @@
         <v>2.46</v>
       </c>
       <c r="G42" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H42" t="n">
         <v>2.96</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -8567,10 +8567,10 @@
         <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.55</v>
@@ -8630,62 +8630,62 @@
         <v>1000</v>
       </c>
       <c r="AP42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AQ42" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AR42" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AS42" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AT42" t="n">
         <v>3.6</v>
       </c>
       <c r="AU42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD42" t="n">
         <v>3.3</v>
       </c>
-      <c r="AV42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>3.25</v>
-      </c>
       <c r="BE42" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="BF42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BG42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -8875,11 +8875,11 @@
         <v>5.3</v>
       </c>
       <c r="BG43" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
         <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
@@ -8952,10 +8952,10 @@
         <v>3.9</v>
       </c>
       <c r="T44" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U44" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
         <v>1.18</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -9107,19 +9107,19 @@
         <v>1.77</v>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K45" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.32</v>
@@ -9143,7 +9143,7 @@
         <v>1.37</v>
       </c>
       <c r="S45" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="T45" t="n">
         <v>1.67</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -765,19 +765,19 @@
         <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.07</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -786,34 +786,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
         <v>1.67</v>
@@ -974,7 +974,7 @@
         <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -995,13 +995,13 @@
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -1013,34 +1013,34 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>75</v>
@@ -1052,28 +1052,28 @@
         <v>17.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AP3" t="n">
         <v>16</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AS3" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>8.199999999999999</v>
@@ -1085,10 +1085,10 @@
         <v>19.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>8.6</v>
@@ -1097,29 +1097,29 @@
         <v>17.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="BB3" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="BE3" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="BF3" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BG3" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1153,13 +1153,13 @@
         <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -1171,16 +1171,16 @@
         <v>1.57</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
         <v>2.58</v>
@@ -1195,16 +1195,16 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
         <v>8</v>
@@ -1240,10 +1240,10 @@
         <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1252,7 +1252,7 @@
         <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
         <v>90</v>
@@ -1267,7 +1267,7 @@
         <v>19.5</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AT4" t="n">
         <v>6.8</v>
@@ -1279,7 +1279,7 @@
         <v>13.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
@@ -1288,32 +1288,32 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB4" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="BC4" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG4" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1368,16 +1368,16 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
         <v>1.08</v>
@@ -1389,7 +1389,7 @@
         <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="V5" t="n">
         <v>1.12</v>
@@ -1452,62 +1452,62 @@
         <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1565,61 +1565,61 @@
         <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
         <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="n">
         <v>970</v>
       </c>
-      <c r="Y6" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>36</v>
-      </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF6" t="n">
         <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>970</v>
@@ -1628,80 +1628,80 @@
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK6" t="n">
         <v>26</v>
       </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
         <v>970</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AP6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB6" t="n">
         <v>4.5</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="BC6" t="n">
         <v>4.5</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="BD6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE6" t="n">
         <v>5.1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>3.05</v>
       </c>
       <c r="BF6" t="n">
         <v>10</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
@@ -1741,7 +1741,7 @@
         <v>1.99</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1750,7 +1750,7 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1759,58 +1759,58 @@
         <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
@@ -1819,7 +1819,7 @@
         <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ7" t="n">
         <v>110</v>
@@ -1837,65 +1837,65 @@
         <v>70</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AP7" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="BC7" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BD7" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="BF7" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.55</v>
+        <v>12</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
         <v>2.5</v>
@@ -1938,10 +1938,10 @@
         <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1956,7 +1956,7 @@
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
@@ -1965,7 +1965,7 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
         <v>1.84</v>
@@ -1974,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
         <v>13.5</v>
@@ -1986,28 +1986,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
         <v>19.5</v>
@@ -2019,37 +2019,37 @@
         <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
         <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AP8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AQ8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AS8" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AT8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV8" t="n">
         <v>10</v>
@@ -2070,26 +2070,26 @@
         <v>38</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BC8" t="n">
         <v>32</v>
       </c>
       <c r="BD8" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="BE8" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="BF8" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="BG8" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -2135,7 +2135,7 @@
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -2147,13 +2147,13 @@
         <v>2.76</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
@@ -2162,7 +2162,7 @@
         <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
         <v>1.78</v>
@@ -2171,16 +2171,16 @@
         <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
         <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
         <v>160</v>
@@ -2213,7 +2213,7 @@
         <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
@@ -2222,7 +2222,7 @@
         <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>150</v>
@@ -2231,13 +2231,13 @@
         <v>8.6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2246,10 +2246,10 @@
         <v>6.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
         <v>9.4</v>
@@ -2261,29 +2261,29 @@
         <v>19.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="BB9" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BC9" t="n">
         <v>21</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="BF9" t="n">
         <v>16.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2314,82 +2314,82 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>70</v>
@@ -2398,13 +2398,13 @@
         <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AK10" t="n">
         <v>130</v>
@@ -2413,71 +2413,71 @@
         <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS10" t="n">
         <v>12.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AY10" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB10" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BC10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE10" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF10" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2511,19 +2511,19 @@
         <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -2532,46 +2532,46 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
         <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
         <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
         <v>55</v>
       </c>
       <c r="Z11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA11" t="n">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
@@ -2580,19 +2580,19 @@
         <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
         <v>230</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>170</v>
@@ -2604,28 +2604,28 @@
         <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AR11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT11" t="n">
         <v>10</v>
@@ -2634,25 +2634,25 @@
         <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2661,17 +2661,17 @@
         <v>30</v>
       </c>
       <c r="BE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BG11" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
         <v>1.73</v>
@@ -2711,13 +2711,13 @@
         <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2726,16 +2726,16 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
         <v>1.41</v>
@@ -2759,25 +2759,25 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2786,52 +2786,52 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AP12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>7.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>5.4</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2843,29 +2843,29 @@
         <v>17.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="BB12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC12" t="n">
         <v>14.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="BF12" t="n">
         <v>6.8</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2896,170 +2896,170 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I13" t="n">
         <v>2.36</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AP13" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.6</v>
+        <v>1.93</v>
       </c>
       <c r="AR13" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>1.86</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>2.1</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.95</v>
+        <v>2.02</v>
       </c>
       <c r="AZ13" t="n">
-        <v>4</v>
+        <v>2.04</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.4</v>
+        <v>2.14</v>
       </c>
       <c r="BB13" t="n">
-        <v>4.7</v>
+        <v>2.18</v>
       </c>
       <c r="BC13" t="n">
-        <v>4.5</v>
+        <v>2.14</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.6</v>
+        <v>2.16</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.8</v>
+        <v>2.22</v>
       </c>
       <c r="BF13" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="BG13" t="n">
-        <v>12</v>
+        <v>2.22</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>5.9</v>
@@ -3117,22 +3117,22 @@
         <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
         <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -3141,7 +3141,7 @@
         <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
         <v>15.5</v>
@@ -3150,7 +3150,7 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
@@ -3165,7 +3165,7 @@
         <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -3177,13 +3177,13 @@
         <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -3192,7 +3192,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO14" t="n">
         <v>90</v>
@@ -3201,13 +3201,13 @@
         <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR14" t="n">
         <v>42</v>
       </c>
       <c r="AS14" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AT14" t="n">
         <v>8</v>
@@ -3228,10 +3228,10 @@
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB14" t="n">
         <v>15.5</v>
@@ -3246,14 +3246,14 @@
         <v>95</v>
       </c>
       <c r="BF14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BG14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
         <v>2.12</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.38</v>
@@ -3308,146 +3308,146 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.29</v>
       </c>
-      <c r="P15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="W15" t="n">
         <v>1.9</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AP15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AX15" t="n">
         <v>11.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.1</v>
+        <v>46</v>
       </c>
       <c r="BB15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BC15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD15" t="n">
-        <v>4.8</v>
+        <v>29</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.2</v>
+        <v>26</v>
       </c>
       <c r="BF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG15" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
         <v>28</v>
@@ -3487,13 +3487,13 @@
         <v>1.17</v>
       </c>
       <c r="I16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -3502,25 +3502,25 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -3529,10 +3529,10 @@
         <v>5.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
         <v>970</v>
@@ -3544,7 +3544,7 @@
         <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="n">
         <v>970</v>
@@ -3559,7 +3559,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="n">
         <v>55</v>
@@ -3583,65 +3583,65 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AR16" t="n">
         <v>3.75</v>
       </c>
       <c r="AS16" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.97</v>
+        <v>2.84</v>
       </c>
       <c r="AY16" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="BA16" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.97</v>
+        <v>3.5</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.35</v>
+        <v>5.7</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.36</v>
+        <v>2.86</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H17" t="n">
         <v>4.8</v>
@@ -3684,22 +3684,22 @@
         <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>2.08</v>
@@ -3711,10 +3711,10 @@
         <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U17" t="n">
         <v>2.1</v>
@@ -3723,73 +3723,73 @@
         <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="n">
         <v>140</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
         <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AP17" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="AT17" t="n">
         <v>8.199999999999999</v>
@@ -3798,44 +3798,44 @@
         <v>7.8</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AW17" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="AX17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="BC17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>30</v>
+        <v>5.4</v>
       </c>
       <c r="BE17" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="BF17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG17" t="n">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.14</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.17</v>
-      </c>
       <c r="H18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J18" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>1.23</v>
@@ -3890,43 +3890,43 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
         <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -3935,40 +3935,40 @@
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AD18" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -3977,25 +3977,25 @@
         <v>9.6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="AW18" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>6.8</v>
@@ -4004,32 +4004,32 @@
         <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="BA18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB18" t="n">
         <v>6.8</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>44</v>
+        <v>6.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="BG18" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4063,22 +4063,22 @@
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
         <v>1.81</v>
       </c>
       <c r="I19" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -4090,10 +4090,10 @@
         <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R19" t="n">
         <v>1.67</v>
@@ -4108,67 +4108,67 @@
         <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
         <v>18</v>
       </c>
       <c r="AA19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>80</v>
       </c>
       <c r="AK19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL19" t="n">
         <v>50</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>48</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -4183,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AV19" t="n">
         <v>9.4</v>
@@ -4192,38 +4192,38 @@
         <v>14.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>4.9</v>
       </c>
       <c r="BC19" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BD19" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BF19" t="n">
         <v>20</v>
       </c>
       <c r="BG19" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>1.61</v>
       </c>
       <c r="G20" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
@@ -4266,49 +4266,49 @@
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
         <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
         <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -4317,7 +4317,7 @@
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
@@ -4326,16 +4326,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4344,10 +4344,10 @@
         <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -4356,68 +4356,68 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6.4</v>
+        <v>17.5</v>
       </c>
       <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
         <v>7.6</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>8.6</v>
       </c>
       <c r="AT20" t="n">
         <v>7.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX20" t="n">
         <v>8.4</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AY20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6.4</v>
+        <v>18.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BD20" t="n">
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BG20" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>1.27</v>
@@ -4466,7 +4466,7 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4478,7 +4478,7 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.61</v>
@@ -4490,22 +4490,22 @@
         <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
         <v>8.4</v>
@@ -4514,7 +4514,7 @@
         <v>10.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC21" t="n">
         <v>15.5</v>
@@ -4529,13 +4529,13 @@
         <v>160</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
@@ -4547,7 +4547,7 @@
         <v>210</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -4559,7 +4559,7 @@
         <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
         <v>6.8</v>
@@ -4568,10 +4568,10 @@
         <v>8.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV21" t="n">
         <v>9.4</v>
@@ -4580,38 +4580,38 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AY21" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC21" t="n">
         <v>7.2</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BD21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF21" t="n">
         <v>7.6</v>
       </c>
-      <c r="BB21" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="BG21" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4654,10 +4654,10 @@
         <v>11.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.23</v>
@@ -4672,13 +4672,13 @@
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
         <v>2.2</v>
@@ -4687,7 +4687,7 @@
         <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
         <v>1.1</v>
@@ -4696,25 +4696,25 @@
         <v>3.85</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Z22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA22" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="n">
         <v>160</v>
@@ -4726,40 +4726,40 @@
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>14.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AP22" t="n">
         <v>25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AR22" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AT22" t="n">
         <v>9.800000000000001</v>
@@ -4771,7 +4771,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AX22" t="n">
         <v>8.199999999999999</v>
@@ -4780,10 +4780,10 @@
         <v>9.4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BB22" t="n">
         <v>9.6</v>
@@ -4792,20 +4792,20 @@
         <v>11.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BE22" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BF22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BG22" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -4851,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.28</v>
@@ -4875,19 +4875,19 @@
         <v>1.45</v>
       </c>
       <c r="S23" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -4908,28 +4908,28 @@
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK23" t="n">
         <v>21</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>38</v>
@@ -4938,22 +4938,22 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO23" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AP23" t="n">
         <v>16</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="AT23" t="n">
         <v>8.6</v>
@@ -4965,7 +4965,7 @@
         <v>18</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>9.6</v>
@@ -4974,10 +4974,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>15</v>
@@ -4986,20 +4986,20 @@
         <v>14.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="BF23" t="n">
         <v>6.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>4.2</v>
+        <v>48</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G24" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.2</v>
@@ -5054,146 +5054,146 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P24" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W24" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X24" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y24" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="n">
         <v>65</v>
       </c>
       <c r="AA24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
         <v>65</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>80</v>
-      </c>
       <c r="AN24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP24" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU24" t="n">
         <v>10.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.8</v>
+        <v>12.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX24" t="n">
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="BB24" t="n">
-        <v>3.6</v>
+        <v>13.5</v>
       </c>
       <c r="BC24" t="n">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
-        <v>3.85</v>
+        <v>13</v>
       </c>
       <c r="BE24" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="BF24" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.1</v>
+        <v>30</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.2</v>
@@ -5248,22 +5248,22 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q25" t="n">
         <v>1.45</v>
       </c>
       <c r="R25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S25" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T25" t="n">
         <v>1.48</v>
@@ -5272,16 +5272,16 @@
         <v>2.88</v>
       </c>
       <c r="V25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
         <v>32</v>
@@ -5296,52 +5296,52 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
         <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
         <v>32</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AR25" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>6.6</v>
+        <v>38</v>
       </c>
       <c r="AT25" t="n">
         <v>16</v>
@@ -5350,10 +5350,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV25" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
         <v>17.5</v>
@@ -5365,29 +5365,29 @@
         <v>12</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BB25" t="n">
-        <v>6.2</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>21</v>
       </c>
       <c r="BE25" t="n">
-        <v>6.4</v>
+        <v>30</v>
       </c>
       <c r="BF25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BG25" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5418,88 +5418,88 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="I26" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R26" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S26" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="V26" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X26" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB26" t="n">
         <v>36</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>32</v>
       </c>
       <c r="AC26" t="n">
         <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
         <v>22</v>
@@ -5508,16 +5508,16 @@
         <v>30</v>
       </c>
       <c r="AJ26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL26" t="n">
         <v>65</v>
       </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
       <c r="AM26" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
         <v>55</v>
@@ -5529,16 +5529,16 @@
         <v>9.6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AS26" t="n">
         <v>13.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AU26" t="n">
         <v>10</v>
@@ -5547,41 +5547,41 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AW26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="AY26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG26" t="n">
         <v>5</v>
       </c>
-      <c r="AZ26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
         <v>4.1</v>
@@ -5633,19 +5633,19 @@
         <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
         <v>2.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
         <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
@@ -5654,37 +5654,37 @@
         <v>5.7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
         <v>1.74</v>
       </c>
       <c r="V27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AB27" t="n">
         <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>42</v>
@@ -5696,7 +5696,7 @@
         <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
         <v>80</v>
@@ -5705,7 +5705,7 @@
         <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
         <v>110</v>
@@ -5717,34 +5717,34 @@
         <v>120</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AP27" t="n">
         <v>7.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="AT27" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW27" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5753,29 +5753,29 @@
         <v>21</v>
       </c>
       <c r="BA27" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="BB27" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="BC27" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="BD27" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="BE27" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="BF27" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="BG27" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
         <v>2.66</v>
@@ -5824,19 +5824,19 @@
         <v>2.94</v>
       </c>
       <c r="L28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O28" t="n">
         <v>1.75</v>
       </c>
       <c r="P28" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q28" t="n">
         <v>3.3</v>
@@ -5848,85 +5848,85 @@
         <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X28" t="n">
         <v>7.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
         <v>18.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="n">
         <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
         <v>120</v>
       </c>
       <c r="AM28" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="AN28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AP28" t="n">
         <v>5.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AT28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AU28" t="n">
         <v>6.2</v>
@@ -5935,41 +5935,41 @@
         <v>14.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>13.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="BA28" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BB28" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="BC28" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BE28" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="BF28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BG28" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>7.6</v>
       </c>
       <c r="G29" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
         <v>1.6</v>
@@ -6015,7 +6015,7 @@
         <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>1.52</v>
@@ -6039,10 +6039,10 @@
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U29" t="n">
         <v>1.64</v>
@@ -6051,34 +6051,34 @@
         <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X29" t="n">
         <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA29" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
         <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG29" t="n">
         <v>38</v>
@@ -6087,16 +6087,16 @@
         <v>36</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
         <v>390</v>
       </c>
       <c r="AK29" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AL29" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AM29" t="n">
         <v>310</v>
@@ -6105,7 +6105,7 @@
         <v>420</v>
       </c>
       <c r="AO29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>8.800000000000001</v>
@@ -6117,34 +6117,34 @@
         <v>7.2</v>
       </c>
       <c r="AS29" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>7.8</v>
       </c>
       <c r="AV29" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AX29" t="n">
         <v>6.6</v>
       </c>
       <c r="AY29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BA29" t="n">
-        <v>6.6</v>
+        <v>28</v>
       </c>
       <c r="BB29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BC29" t="n">
         <v>7</v>
@@ -6153,17 +6153,17 @@
         <v>7</v>
       </c>
       <c r="BE29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BF29" t="n">
         <v>7.2</v>
       </c>
       <c r="BG29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G30" t="n">
         <v>1.95</v>
@@ -6203,7 +6203,7 @@
         <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>3.35</v>
@@ -6221,13 +6221,13 @@
         <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
         <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
@@ -6239,10 +6239,10 @@
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
         <v>2.04</v>
@@ -6260,10 +6260,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -6272,7 +6272,7 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
         <v>1000</v>
@@ -6302,62 +6302,62 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AW30" t="n">
         <v>5</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AY30" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AZ30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BA30" t="n">
         <v>5</v>
       </c>
       <c r="BB30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BC30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BE30" t="n">
         <v>5.1</v>
       </c>
       <c r="BF30" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="BG30" t="n">
         <v>5.1</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6388,58 +6388,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q31" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
         <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -6460,7 +6460,7 @@
         <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
@@ -6496,19 +6496,19 @@
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT31" t="n">
         <v>4.8</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>5</v>
       </c>
       <c r="AU31" t="n">
         <v>4</v>
@@ -6517,41 +6517,41 @@
         <v>4.1</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AY31" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="BA31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BC31" t="n">
         <v>5.4</v>
       </c>
-      <c r="BB31" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BD31" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="BE31" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="BF31" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>4.1</v>
@@ -6597,7 +6597,7 @@
         <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.48</v>
@@ -6606,37 +6606,37 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V32" t="n">
         <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
         <v>13.5</v>
@@ -6645,31 +6645,31 @@
         <v>29</v>
       </c>
       <c r="AA32" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
         <v>15.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -6678,28 +6678,28 @@
         <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP32" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ32" t="n">
         <v>10.5</v>
       </c>
       <c r="AR32" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AS32" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AT32" t="n">
         <v>7.4</v>
@@ -6708,44 +6708,44 @@
         <v>6.8</v>
       </c>
       <c r="AV32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AX32" t="n">
         <v>11</v>
       </c>
       <c r="AY32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ32" t="n">
         <v>17</v>
       </c>
       <c r="BA32" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="BB32" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC32" t="n">
         <v>21</v>
       </c>
-      <c r="BC32" t="n">
-        <v>20</v>
-      </c>
       <c r="BD32" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="BE32" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="BF32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BG32" t="n">
-        <v>50</v>
+        <v>5.8</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6776,16 +6776,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H33" t="n">
         <v>4.7</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -6800,10 +6800,10 @@
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
         <v>1.79</v>
@@ -6821,13 +6821,13 @@
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
         <v>11.5</v>
@@ -6839,16 +6839,16 @@
         <v>34</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
         <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE33" t="n">
         <v>70</v>
@@ -6860,28 +6860,28 @@
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>22</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>21</v>
       </c>
       <c r="AK33" t="n">
         <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AP33" t="n">
         <v>10.5</v>
@@ -6893,22 +6893,22 @@
         <v>30</v>
       </c>
       <c r="AS33" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AT33" t="n">
         <v>7.4</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AW33" t="n">
         <v>60</v>
       </c>
       <c r="AX33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY33" t="n">
         <v>9.800000000000001</v>
@@ -6920,7 +6920,7 @@
         <v>65</v>
       </c>
       <c r="BB33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BC33" t="n">
         <v>20</v>
@@ -6929,17 +6929,17 @@
         <v>40</v>
       </c>
       <c r="BE33" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="BF33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BG33" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6973,16 +6973,16 @@
         <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>3.35</v>
@@ -7003,7 +7003,7 @@
         <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R34" t="n">
         <v>1.28</v>
@@ -7012,31 +7012,31 @@
         <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
         <v>1.45</v>
       </c>
       <c r="W34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y34" t="n">
         <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC34" t="n">
         <v>9</v>
@@ -7045,95 +7045,95 @@
         <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AF34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH34" t="n">
         <v>970</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>22</v>
       </c>
       <c r="AI34" t="n">
         <v>55</v>
       </c>
       <c r="AJ34" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AK34" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AM34" t="n">
         <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AP34" t="n">
-        <v>4.6</v>
+        <v>9.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>4.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR34" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AS34" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AT34" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV34" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AW34" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AX34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC34" t="n">
         <v>5.2</v>
       </c>
-      <c r="AY34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>5.8</v>
-      </c>
       <c r="BD34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BE34" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="BF34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BG34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -7188,22 +7188,22 @@
         <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P35" t="n">
         <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R35" t="n">
         <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T35" t="n">
         <v>2.06</v>
@@ -7227,19 +7227,19 @@
         <v>22</v>
       </c>
       <c r="AA35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD35" t="n">
         <v>15.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF35" t="n">
         <v>14</v>
@@ -7248,7 +7248,7 @@
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
         <v>75</v>
@@ -7263,13 +7263,13 @@
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
         <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP35" t="n">
         <v>8.6</v>
@@ -7302,10 +7302,10 @@
         <v>11.5</v>
       </c>
       <c r="AZ35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB35" t="n">
         <v>32</v>
@@ -7317,17 +7317,17 @@
         <v>50</v>
       </c>
       <c r="BE35" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="BF35" t="n">
         <v>29</v>
       </c>
       <c r="BG35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -7364,13 +7364,13 @@
         <v>4.1</v>
       </c>
       <c r="H36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.98</v>
       </c>
-      <c r="I36" t="n">
-        <v>1.99</v>
-      </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
         <v>4.1</v>
@@ -7382,16 +7382,16 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R36" t="n">
         <v>1.49</v>
@@ -7400,19 +7400,19 @@
         <v>2.94</v>
       </c>
       <c r="T36" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U36" t="n">
         <v>2.36</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W36" t="n">
         <v>1.32</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y36" t="n">
         <v>11</v>
@@ -7421,10 +7421,10 @@
         <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
@@ -7436,19 +7436,19 @@
         <v>18.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH36" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH36" t="n">
-        <v>16</v>
-      </c>
       <c r="AI36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ36" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="n">
         <v>42</v>
@@ -7457,10 +7457,10 @@
         <v>46</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
         <v>11.5</v>
@@ -7475,28 +7475,28 @@
         <v>12.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT36" t="n">
         <v>16.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AV36" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AW36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AX36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY36" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA36" t="n">
         <v>26</v>
@@ -7514,14 +7514,14 @@
         <v>65</v>
       </c>
       <c r="BF36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BG36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G37" t="n">
         <v>1.66</v>
@@ -7567,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -7585,7 +7585,7 @@
         <v>1.98</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R37" t="n">
         <v>1.38</v>
@@ -7594,7 +7594,7 @@
         <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U37" t="n">
         <v>1.92</v>
@@ -7606,10 +7606,10 @@
         <v>2.5</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -7618,19 +7618,19 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>10</v>
@@ -7645,7 +7645,7 @@
         <v>18</v>
       </c>
       <c r="AK37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
@@ -7660,62 +7660,62 @@
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ37" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AR37" t="n">
-        <v>38</v>
+        <v>6.2</v>
       </c>
       <c r="AS37" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AT37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV37" t="n">
         <v>6.4</v>
       </c>
-      <c r="AU37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AW37" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AX37" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AY37" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ37" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="BA37" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BB37" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="BC37" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="BD37" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="BE37" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BF37" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="BG37" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -7746,31 +7746,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G38" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I38" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -7782,25 +7782,25 @@
         <v>2.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V38" t="n">
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y38" t="n">
         <v>20</v>
@@ -7812,46 +7812,46 @@
         <v>220</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE38" t="n">
         <v>130</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI38" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL38" t="n">
         <v>970</v>
       </c>
-      <c r="AK38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>44</v>
-      </c>
       <c r="AM38" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AP38" t="n">
         <v>12</v>
@@ -7860,10 +7860,10 @@
         <v>16.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="AS38" t="n">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="AT38" t="n">
         <v>6.6</v>
@@ -7872,10 +7872,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AV38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW38" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="AX38" t="n">
         <v>8</v>
@@ -7887,29 +7887,29 @@
         <v>20</v>
       </c>
       <c r="BA38" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="BB38" t="n">
         <v>14</v>
       </c>
       <c r="BC38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD38" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="BE38" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="BF38" t="n">
         <v>9.6</v>
       </c>
       <c r="BG38" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -7940,70 +7940,70 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U39" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X39" t="n">
         <v>15</v>
       </c>
       <c r="Y39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z39" t="n">
         <v>970</v>
       </c>
-      <c r="Z39" t="n">
-        <v>34</v>
-      </c>
       <c r="AA39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB39" t="n">
         <v>10.5</v>
@@ -8012,98 +8012,98 @@
         <v>9.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF39" t="n">
         <v>15.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AO39" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AP39" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AQ39" t="n">
-        <v>9.6</v>
+        <v>3.75</v>
       </c>
       <c r="AR39" t="n">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="AS39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC39" t="n">
         <v>4.2</v>
       </c>
-      <c r="AT39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>3.85</v>
-      </c>
       <c r="BD39" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BE39" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="BF39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BG39" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -8134,19 +8134,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G40" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
         <v>6.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
         <v>4.5</v>
@@ -8167,7 +8167,7 @@
         <v>1.69</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
         <v>1.26</v>
@@ -8179,19 +8179,19 @@
         <v>1.96</v>
       </c>
       <c r="U40" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="V40" t="n">
         <v>1.18</v>
       </c>
       <c r="W40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -8200,10 +8200,10 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -8212,10 +8212,10 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
         <v>1000</v>
@@ -8224,10 +8224,10 @@
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -8236,68 +8236,68 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
       </c>
       <c r="AP40" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AR40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF40" t="n">
         <v>3.9</v>
       </c>
-      <c r="AS40" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AU40" t="n">
+      <c r="BG40" t="n">
         <v>3</v>
       </c>
-      <c r="AV40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -8328,22 +8328,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="G41" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -8352,25 +8352,25 @@
         <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U41" t="n">
         <v>1.83</v>
@@ -8379,119 +8379,119 @@
         <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="X41" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y41" t="n">
         <v>10</v>
       </c>
-      <c r="Y41" t="n">
-        <v>11</v>
-      </c>
       <c r="Z41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA41" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI41" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK41" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="n">
         <v>180</v>
       </c>
       <c r="AN41" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AP41" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ41" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AR41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS41" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AT41" t="n">
         <v>7.2</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV41" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AW41" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AX41" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY41" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BA41" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="BB41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BC41" t="n">
-        <v>6.8</v>
+        <v>27</v>
       </c>
       <c r="BD41" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="BE41" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="BF41" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="BG41" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -8525,10 +8525,10 @@
         <v>4.5</v>
       </c>
       <c r="G42" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I42" t="n">
         <v>2.16</v>
@@ -8537,10 +8537,10 @@
         <v>3.05</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M42" t="n">
         <v>1.12</v>
@@ -8552,16 +8552,16 @@
         <v>1.52</v>
       </c>
       <c r="P42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R42" t="n">
         <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T42" t="n">
         <v>2.16</v>
@@ -8576,31 +8576,31 @@
         <v>1.23</v>
       </c>
       <c r="X42" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE42" t="n">
         <v>36</v>
       </c>
       <c r="AF42" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG42" t="n">
         <v>25</v>
@@ -8609,7 +8609,7 @@
         <v>32</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -8630,62 +8630,62 @@
         <v>32</v>
       </c>
       <c r="AP42" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ42" t="n">
         <v>5.8</v>
       </c>
       <c r="AR42" t="n">
-        <v>3.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS42" t="n">
-        <v>4.4</v>
+        <v>19</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="AU42" t="n">
         <v>6.6</v>
       </c>
       <c r="AV42" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="AX42" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY42" t="n">
-        <v>4.1</v>
+        <v>17.5</v>
       </c>
       <c r="AZ42" t="n">
         <v>21</v>
       </c>
       <c r="BA42" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="BB42" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BC42" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BD42" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BE42" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BF42" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BG42" t="n">
-        <v>4.4</v>
+        <v>19</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -8719,16 +8719,16 @@
         <v>2.46</v>
       </c>
       <c r="G43" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H43" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>3.55</v>
@@ -8749,7 +8749,7 @@
         <v>1.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
         <v>1.26</v>
@@ -8758,7 +8758,7 @@
         <v>3.55</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U43" t="n">
         <v>1.96</v>
@@ -8767,7 +8767,7 @@
         <v>1.42</v>
       </c>
       <c r="W43" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -8827,59 +8827,59 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY43" t="n">
         <v>3.65</v>
       </c>
-      <c r="AR43" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV43" t="n">
+      <c r="AZ43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC43" t="n">
         <v>4</v>
       </c>
-      <c r="AW43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AZ43" t="n">
+      <c r="BD43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE43" t="n">
         <v>4.3</v>
       </c>
-      <c r="BA43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>3.45</v>
-      </c>
       <c r="BF43" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BG43" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -8916,28 +8916,28 @@
         <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
         <v>4.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
         <v>3.65</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
         <v>2.88</v>
       </c>
       <c r="O44" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P44" t="n">
         <v>1.64</v>
@@ -8964,46 +8964,46 @@
         <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA44" t="n">
         <v>120</v>
       </c>
       <c r="AB44" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC44" t="n">
         <v>8.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
         <v>75</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI44" t="n">
         <v>90</v>
       </c>
       <c r="AJ44" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK44" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
         <v>60</v>
@@ -9012,68 +9012,68 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AO44" t="n">
         <v>100</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AQ44" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AR44" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="AU44" t="n">
         <v>3.75</v>
       </c>
       <c r="AV44" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AW44" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="AX44" t="n">
         <v>4.4</v>
       </c>
       <c r="AY44" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AZ44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD44" t="n">
         <v>5.2</v>
       </c>
-      <c r="BA44" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="BB44" t="n">
+      <c r="BE44" t="n">
         <v>5.5</v>
       </c>
-      <c r="BC44" t="n">
+      <c r="BF44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG44" t="n">
         <v>5.4</v>
       </c>
-      <c r="BD44" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>6.2</v>
-      </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G45" t="n">
         <v>1.94</v>
@@ -9116,13 +9116,13 @@
         <v>6.6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
         <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
         <v>1.09</v>
@@ -9137,7 +9137,7 @@
         <v>1.66</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
         <v>1.24</v>
@@ -9146,10 +9146,10 @@
         <v>3.9</v>
       </c>
       <c r="T45" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V45" t="n">
         <v>1.18</v>
@@ -9212,62 +9212,62 @@
         <v>1000</v>
       </c>
       <c r="AP45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BC45" t="n">
         <v>3.75</v>
       </c>
-      <c r="AQ45" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>4.3</v>
-      </c>
       <c r="BD45" t="n">
-        <v>4.8</v>
+        <v>2.76</v>
       </c>
       <c r="BE45" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="BF45" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="BG45" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -9298,13 +9298,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I46" t="n">
         <v>5.5</v>
@@ -9316,7 +9316,7 @@
         <v>4.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -9331,7 +9331,7 @@
         <v>1.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="R46" t="n">
         <v>1.37</v>
@@ -9340,34 +9340,34 @@
         <v>3.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X46" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA46" t="n">
         <v>150</v>
       </c>
       <c r="AB46" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
         <v>24</v>
@@ -9376,10 +9376,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AG46" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH46" t="n">
         <v>24</v>
@@ -9394,13 +9394,13 @@
         <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM46" t="n">
         <v>130</v>
       </c>
       <c r="AN46" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AO46" t="n">
         <v>90</v>
@@ -9418,10 +9418,10 @@
         <v>4.1</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.05</v>
+        <v>7.8</v>
       </c>
       <c r="AU46" t="n">
-        <v>3.05</v>
+        <v>7.6</v>
       </c>
       <c r="AV46" t="n">
         <v>3.6</v>
@@ -9430,10 +9430,10 @@
         <v>4</v>
       </c>
       <c r="AX46" t="n">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="AY46" t="n">
-        <v>3.15</v>
+        <v>8.6</v>
       </c>
       <c r="AZ46" t="n">
         <v>3.6</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.07</v>
       </c>
       <c r="H2" t="n">
         <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
@@ -792,16 +792,16 @@
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
         <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -813,7 +813,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -956,37 +956,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
         <v>1.76</v>
@@ -998,40 +998,40 @@
         <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -1043,13 +1043,13 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
         <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>40</v>
@@ -1061,7 +1061,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AP3" t="n">
         <v>16</v>
@@ -1070,56 +1070,56 @@
         <v>18.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.8</v>
+        <v>38</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU3" t="n">
         <v>8.6</v>
       </c>
       <c r="AV3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>14</v>
       </c>
       <c r="BD3" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="BE3" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BG3" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1153,16 +1153,16 @@
         <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
@@ -1177,13 +1177,13 @@
         <v>2.62</v>
       </c>
       <c r="O4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
@@ -1192,16 +1192,16 @@
         <v>5.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X4" t="n">
         <v>8.800000000000001</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>80</v>
@@ -1243,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1252,7 +1252,7 @@
         <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>90</v>
@@ -1288,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BB4" t="n">
         <v>8.6</v>
@@ -1306,14 +1306,14 @@
         <v>10</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BG4" t="n">
         <v>9.4</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1371,16 +1371,16 @@
         <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.23</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="S5" t="n">
         <v>1.05</v>
@@ -1392,13 +1392,13 @@
         <v>1.48</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1410,10 +1410,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1422,10 +1422,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1446,68 +1446,68 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
       </c>
       <c r="AP5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AT5" t="n">
         <v>3.3</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.84</v>
-      </c>
       <c r="AU5" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="AV5" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="AW5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY5" t="n">
         <v>4</v>
       </c>
-      <c r="AX5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>2.26</v>
       </c>
       <c r="BB5" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.1</v>
+        <v>2.58</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1580,128 +1580,128 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>970</v>
+        <v>220</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="AU6" t="n">
         <v>7.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="BF6" t="n">
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.1</v>
+        <v>30</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I7" t="n">
         <v>2.16</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>1.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
         <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>1.86</v>
@@ -1786,116 +1786,116 @@
         <v>1.3</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AP7" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="AS7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU7" t="n">
         <v>4.4</v>
       </c>
-      <c r="AT7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AV7" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC7" t="n">
         <v>4.6</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BD7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE7" t="n">
         <v>4.8</v>
       </c>
-      <c r="BC7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BF7" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="BG7" t="n">
         <v>12</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1926,16 +1926,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
         <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1944,7 +1944,7 @@
         <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1956,7 +1956,7 @@
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
@@ -1965,7 +1965,7 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>1.84</v>
@@ -1974,40 +1974,40 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
         <v>19.5</v>
@@ -2019,34 +2019,34 @@
         <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
         <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>50</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AP8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AQ8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR8" t="n">
         <v>13.5</v>
       </c>
       <c r="AS8" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU8" t="n">
         <v>6.6</v>
@@ -2067,29 +2067,29 @@
         <v>16</v>
       </c>
       <c r="BA8" t="n">
-        <v>38</v>
+        <v>8.6</v>
       </c>
       <c r="BB8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG8" t="n">
         <v>7.6</v>
       </c>
-      <c r="BC8" t="n">
-        <v>32</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
@@ -2150,10 +2150,10 @@
         <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
@@ -2171,25 +2171,25 @@
         <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>24</v>
@@ -2201,13 +2201,13 @@
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
         <v>28</v>
@@ -2216,10 +2216,10 @@
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>23</v>
@@ -2234,10 +2234,10 @@
         <v>11</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>9.4</v>
@@ -2261,7 +2261,7 @@
         <v>19.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
         <v>20</v>
@@ -2270,20 +2270,20 @@
         <v>21</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="BF9" t="n">
         <v>16.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2317,13 +2317,13 @@
         <v>7.4</v>
       </c>
       <c r="G10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="I10" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
@@ -2332,64 +2332,64 @@
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
         <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
         <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>70</v>
@@ -2398,31 +2398,31 @@
         <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK10" t="n">
         <v>130</v>
       </c>
       <c r="AL10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>7</v>
@@ -2437,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV10" t="n">
         <v>9</v>
@@ -2446,7 +2446,7 @@
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>25</v>
@@ -2458,26 +2458,26 @@
         <v>34</v>
       </c>
       <c r="BB10" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="BC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG10" t="n">
         <v>8</v>
       </c>
-      <c r="BD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>7.8</v>
-      </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2514,37 +2514,37 @@
         <v>1.26</v>
       </c>
       <c r="H11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" t="n">
         <v>15.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
         <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>2.28</v>
@@ -2562,10 +2562,10 @@
         <v>4.8</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
         <v>160</v>
@@ -2577,16 +2577,16 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -2595,49 +2595,49 @@
         <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO11" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AT11" t="n">
         <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
         <v>7.6</v>
@@ -2646,13 +2646,13 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2661,17 +2661,17 @@
         <v>30</v>
       </c>
       <c r="BE11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BG11" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2738,7 +2738,7 @@
         <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
@@ -2765,19 +2765,19 @@
         <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="AB12" t="n">
         <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>700</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2789,25 +2789,25 @@
         <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
@@ -2816,10 +2816,10 @@
         <v>18</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AT12" t="n">
         <v>7.8</v>
@@ -2828,10 +2828,10 @@
         <v>8.4</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2843,7 +2843,7 @@
         <v>17.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BB12" t="n">
         <v>14</v>
@@ -2852,20 +2852,20 @@
         <v>14.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="BF12" t="n">
         <v>6.8</v>
       </c>
       <c r="BG12" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2896,52 +2896,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I13" t="n">
         <v>2.36</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
         <v>1.73</v>
@@ -2950,116 +2950,116 @@
         <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>16</v>
-      </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP13" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.93</v>
+        <v>8.6</v>
       </c>
       <c r="AR13" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.12</v>
+        <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.86</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.95</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.08</v>
+        <v>11.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>2.02</v>
+        <v>12.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.04</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.14</v>
+        <v>7.4</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC13" t="n">
-        <v>2.14</v>
+        <v>7.6</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.16</v>
+        <v>7.8</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.22</v>
+        <v>8.4</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.22</v>
+        <v>7.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.22</v>
+        <v>6</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -3090,25 +3090,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
         <v>6</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.1</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -3123,16 +3123,16 @@
         <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -3141,10 +3141,10 @@
         <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -3159,7 +3159,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>22</v>
@@ -3168,22 +3168,22 @@
         <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
         <v>9.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -3192,25 +3192,25 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AP14" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR14" t="n">
         <v>42</v>
       </c>
       <c r="AS14" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AT14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>8.6</v>
@@ -3219,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="AW14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AX14" t="n">
         <v>9.6</v>
@@ -3246,14 +3246,14 @@
         <v>95</v>
       </c>
       <c r="BF14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -3314,13 +3314,13 @@
         <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
         <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
         <v>3.1</v>
@@ -3332,22 +3332,22 @@
         <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
         <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
@@ -3374,13 +3374,13 @@
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
@@ -3401,7 +3401,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>9.6</v>
@@ -3425,10 +3425,10 @@
         <v>15</v>
       </c>
       <c r="BA15" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC15" t="n">
         <v>18</v>
@@ -3443,11 +3443,11 @@
         <v>12</v>
       </c>
       <c r="BG15" t="n">
-        <v>38</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="n">
         <v>1.17</v>
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -3508,13 +3508,13 @@
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
         <v>2.18</v>
@@ -3529,37 +3529,37 @@
         <v>5.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="n">
         <v>55</v>
@@ -3583,65 +3583,65 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.2</v>
+        <v>2.66</v>
       </c>
       <c r="AQ16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AR16" t="n">
         <v>4.2</v>
       </c>
-      <c r="AR16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AS16" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.8</v>
+        <v>2.54</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AX16" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3.3</v>
+        <v>2.04</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="BC16" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="BD16" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.86</v>
+        <v>7.2</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
         <v>4.8</v>
@@ -3684,13 +3684,13 @@
         <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3702,10 +3702,10 @@
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
         <v>1.39</v>
@@ -3720,7 +3720,7 @@
         <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
         <v>2.16</v>
@@ -3729,67 +3729,67 @@
         <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AF17" t="n">
         <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>700</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="AP17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>5.4</v>
+        <v>16</v>
       </c>
       <c r="AS17" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="AT17" t="n">
         <v>8.199999999999999</v>
@@ -3798,44 +3798,44 @@
         <v>7.8</v>
       </c>
       <c r="AV17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>10</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ17" t="n">
         <v>16.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="BC17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
-        <v>5.4</v>
+        <v>16</v>
       </c>
       <c r="BE17" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
       <c r="BF17" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BG17" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -3869,31 +3869,31 @@
         <v>1.13</v>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
         <v>10.5</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
         <v>3.05</v>
@@ -3902,22 +3902,22 @@
         <v>1.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>70</v>
@@ -3938,7 +3938,7 @@
         <v>32</v>
       </c>
       <c r="AD18" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -3950,7 +3950,7 @@
         <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AI18" t="n">
         <v>470</v>
@@ -3974,7 +3974,7 @@
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>6.6</v>
@@ -3983,19 +3983,19 @@
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AT18" t="n">
         <v>9.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AX18" t="n">
         <v>6.8</v>
@@ -4016,20 +4016,20 @@
         <v>12.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE18" t="n">
         <v>7</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="BG18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4060,25 +4060,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G19" t="n">
         <v>4.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
         <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -4093,13 +4093,13 @@
         <v>2.64</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.55</v>
@@ -4108,67 +4108,67 @@
         <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W19" t="n">
         <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="n">
         <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
         <v>17.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.1</v>
+        <v>14.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -4192,7 +4192,7 @@
         <v>14.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY19" t="n">
         <v>16</v>
@@ -4201,29 +4201,29 @@
         <v>13.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="BC19" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD19" t="n">
-        <v>34</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BG19" t="n">
         <v>6.4</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4257,13 +4257,13 @@
         <v>1.61</v>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -4272,7 +4272,7 @@
         <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4284,13 +4284,13 @@
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
         <v>3.1</v>
@@ -4302,34 +4302,34 @@
         <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA20" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -4341,19 +4341,19 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AN20" t="n">
         <v>9.800000000000001</v>
@@ -4365,13 +4365,13 @@
         <v>14</v>
       </c>
       <c r="AQ20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AT20" t="n">
         <v>7.4</v>
@@ -4383,19 +4383,19 @@
         <v>20</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX20" t="n">
         <v>8.4</v>
       </c>
       <c r="AY20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AZ20" t="n">
         <v>18.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB20" t="n">
         <v>13</v>
@@ -4407,17 +4407,17 @@
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF20" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="BG20" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
         <v>1.27</v>
       </c>
       <c r="I21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
         <v>6.2</v>
@@ -4478,22 +4478,22 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
         <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T21" t="n">
         <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V21" t="n">
         <v>4.2</v>
@@ -4502,25 +4502,25 @@
         <v>1.07</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA21" t="n">
         <v>10.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>15.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15.5</v>
@@ -4529,13 +4529,13 @@
         <v>160</v>
       </c>
       <c r="AG21" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
@@ -4568,7 +4568,7 @@
         <v>8.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AU21" t="n">
         <v>12.5</v>
@@ -4580,38 +4580,38 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BB21" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC21" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="BD21" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE21" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF21" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="BG21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
         <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U22" t="n">
         <v>1.98</v>
@@ -4696,10 +4696,10 @@
         <v>3.85</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="n">
         <v>120</v>
@@ -4708,13 +4708,13 @@
         <v>380</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
         <v>160</v>
@@ -4729,22 +4729,22 @@
         <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>14.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AO22" t="n">
         <v>170</v>
@@ -4753,13 +4753,13 @@
         <v>25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AS22" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="AT22" t="n">
         <v>9.800000000000001</v>
@@ -4771,7 +4771,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>8.199999999999999</v>
@@ -4783,7 +4783,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
         <v>9.6</v>
@@ -4795,17 +4795,17 @@
         <v>24</v>
       </c>
       <c r="BE22" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF22" t="n">
         <v>3.75</v>
       </c>
       <c r="BG22" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4896,10 +4896,10 @@
         <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -4911,7 +4911,7 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="n">
         <v>11.5</v>
@@ -4920,10 +4920,10 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>700</v>
       </c>
       <c r="AJ23" t="n">
         <v>18</v>
@@ -4935,13 +4935,13 @@
         <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="AP23" t="n">
         <v>16</v>
@@ -4950,10 +4950,10 @@
         <v>18</v>
       </c>
       <c r="AR23" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT23" t="n">
         <v>8.6</v>
@@ -4965,7 +4965,7 @@
         <v>18</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX23" t="n">
         <v>9.6</v>
@@ -4977,7 +4977,7 @@
         <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BB23" t="n">
         <v>15</v>
@@ -4986,7 +4986,7 @@
         <v>14.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>5.7</v>
+        <v>16</v>
       </c>
       <c r="BE23" t="n">
         <v>6.2</v>
@@ -4995,11 +4995,11 @@
         <v>6.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>48</v>
+        <v>6.8</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5042,10 +5042,10 @@
         <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.2</v>
@@ -5063,7 +5063,7 @@
         <v>3.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R24" t="n">
         <v>1.83</v>
@@ -5072,7 +5072,7 @@
         <v>2.02</v>
       </c>
       <c r="T24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U24" t="n">
         <v>2.56</v>
@@ -5084,13 +5084,13 @@
         <v>2.62</v>
       </c>
       <c r="X24" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
         <v>46</v>
       </c>
       <c r="Z24" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AA24" t="n">
         <v>150</v>
@@ -5099,13 +5099,13 @@
         <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AD24" t="n">
         <v>27</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -5117,19 +5117,19 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AJ24" t="n">
         <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AN24" t="n">
         <v>6.2</v>
@@ -5138,16 +5138,16 @@
         <v>55</v>
       </c>
       <c r="AP24" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="AR24" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AT24" t="n">
         <v>14</v>
@@ -5159,7 +5159,7 @@
         <v>12.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AX24" t="n">
         <v>11</v>
@@ -5183,17 +5183,17 @@
         <v>13</v>
       </c>
       <c r="BE24" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="BF24" t="n">
         <v>4.5</v>
       </c>
       <c r="BG24" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.2</v>
@@ -5248,61 +5248,61 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P25" t="n">
         <v>2.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S25" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T25" t="n">
         <v>1.48</v>
       </c>
       <c r="U25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
         <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
         <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -5323,19 +5323,19 @@
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>25</v>
@@ -5347,7 +5347,7 @@
         <v>16</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AV25" t="n">
         <v>13</v>
@@ -5356,22 +5356,22 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA25" t="n">
         <v>26</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD25" t="n">
         <v>21</v>
@@ -5380,14 +5380,14 @@
         <v>30</v>
       </c>
       <c r="BF25" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BG25" t="n">
         <v>13.5</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5427,13 +5427,13 @@
         <v>1.56</v>
       </c>
       <c r="I26" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.26</v>
@@ -5448,7 +5448,7 @@
         <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q26" t="n">
         <v>1.47</v>
@@ -5463,10 +5463,10 @@
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="W26" t="n">
         <v>1.2</v>
@@ -5475,7 +5475,7 @@
         <v>44</v>
       </c>
       <c r="Y26" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -5484,7 +5484,7 @@
         <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="n">
         <v>14</v>
@@ -5496,7 +5496,7 @@
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AG26" t="n">
         <v>26</v>
@@ -5508,16 +5508,16 @@
         <v>30</v>
       </c>
       <c r="AJ26" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="AK26" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
         <v>55</v>
@@ -5526,19 +5526,19 @@
         <v>6.8</v>
       </c>
       <c r="AP26" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>12</v>
       </c>
       <c r="AR26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AS26" t="n">
         <v>13.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>4.7</v>
+        <v>14.5</v>
       </c>
       <c r="AU26" t="n">
         <v>10</v>
@@ -5550,7 +5550,7 @@
         <v>12.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
         <v>12.5</v>
@@ -5559,29 +5559,29 @@
         <v>9.6</v>
       </c>
       <c r="BA26" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="BB26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BC26" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="BD26" t="n">
-        <v>5.7</v>
+        <v>42</v>
       </c>
       <c r="BE26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BF26" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="BG26" t="n">
         <v>5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
         <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
         <v>2.5</v>
@@ -5633,25 +5633,25 @@
         <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
         <v>2.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T27" t="n">
         <v>2.18</v>
@@ -5669,7 +5669,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z27" t="n">
         <v>16.5</v>
@@ -5681,7 +5681,7 @@
         <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>15</v>
@@ -5693,31 +5693,31 @@
         <v>32</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AH27" t="n">
         <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AL27" t="n">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="AM27" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO27" t="n">
         <v>120</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>970</v>
       </c>
       <c r="AP27" t="n">
         <v>7.2</v>
@@ -5729,7 +5729,7 @@
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.4</v>
+        <v>14.5</v>
       </c>
       <c r="AT27" t="n">
         <v>8.800000000000001</v>
@@ -5738,13 +5738,13 @@
         <v>6.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5753,29 +5753,29 @@
         <v>21</v>
       </c>
       <c r="BA27" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BC27" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BE27" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="BF27" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BG27" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5809,13 +5809,13 @@
         <v>2.66</v>
       </c>
       <c r="G28" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>2.66</v>
@@ -5824,13 +5824,13 @@
         <v>2.94</v>
       </c>
       <c r="L28" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N28" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O28" t="n">
         <v>1.75</v>
@@ -5857,61 +5857,61 @@
         <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AB28" t="n">
         <v>8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH28" t="n">
         <v>85</v>
       </c>
-      <c r="AF28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>36</v>
-      </c>
       <c r="AI28" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AL28" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM28" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AO28" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AP28" t="n">
         <v>5.6</v>
@@ -5923,7 +5923,7 @@
         <v>18.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="AT28" t="n">
         <v>5.9</v>
@@ -5935,7 +5935,7 @@
         <v>14.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="AX28" t="n">
         <v>13.5</v>
@@ -5944,32 +5944,32 @@
         <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4.9</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="BB28" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="BD28" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="BE28" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF28" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="BG28" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -6000,16 +6000,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>1.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -6018,79 +6018,79 @@
         <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.52</v>
       </c>
       <c r="P29" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T29" t="n">
         <v>2.46</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.38</v>
       </c>
       <c r="U29" t="n">
         <v>1.64</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W29" t="n">
         <v>1.12</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA29" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AH29" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ29" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AK29" t="n">
         <v>210</v>
@@ -6099,31 +6099,31 @@
         <v>210</v>
       </c>
       <c r="AM29" t="n">
-        <v>310</v>
+        <v>700</v>
       </c>
       <c r="AN29" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AR29" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="AS29" t="n">
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>9.6</v>
@@ -6132,38 +6132,38 @@
         <v>11.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY29" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="BA29" t="n">
         <v>28</v>
       </c>
       <c r="BB29" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE29" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF29" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BG29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
         <v>4.8</v>
@@ -6209,10 +6209,10 @@
         <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -6224,31 +6224,31 @@
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
         <v>2.14</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S30" t="n">
         <v>3.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
         <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -6260,10 +6260,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -6272,19 +6272,19 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -6296,68 +6296,68 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>5.1</v>
+        <v>2.82</v>
       </c>
       <c r="AT30" t="n">
         <v>5.9</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>2.42</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="AY30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG30" t="n">
         <v>3.85</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -6397,22 +6397,22 @@
         <v>1.58</v>
       </c>
       <c r="I31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.38</v>
@@ -6424,10 +6424,10 @@
         <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T31" t="n">
         <v>1.96</v>
@@ -6436,34 +6436,34 @@
         <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W31" t="n">
         <v>1.15</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z31" t="n">
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
         <v>1000</v>
@@ -6493,65 +6493,65 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>4.4</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AR31" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AT31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AV31" t="n">
         <v>4.8</v>
       </c>
-      <c r="AU31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AW31" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BB31" t="n">
         <v>4.9</v>
       </c>
-      <c r="AZ31" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>5.9</v>
-      </c>
       <c r="BC31" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="BE31" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="BF31" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BG31" t="n">
         <v>7.6</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -6582,16 +6582,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J32" t="n">
         <v>3.4</v>
@@ -6612,7 +6612,7 @@
         <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q32" t="n">
         <v>2.18</v>
@@ -6624,19 +6624,19 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
         <v>13.5</v>
@@ -6645,34 +6645,34 @@
         <v>29</v>
       </c>
       <c r="AA32" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
         <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
         <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK32" t="n">
         <v>27</v>
@@ -6699,19 +6699,19 @@
         <v>23</v>
       </c>
       <c r="AS32" t="n">
-        <v>6.2</v>
+        <v>65</v>
       </c>
       <c r="AT32" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU32" t="n">
         <v>6.8</v>
       </c>
       <c r="AV32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="AX32" t="n">
         <v>11</v>
@@ -6723,7 +6723,7 @@
         <v>17</v>
       </c>
       <c r="BA32" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB32" t="n">
         <v>24</v>
@@ -6732,20 +6732,20 @@
         <v>21</v>
       </c>
       <c r="BD32" t="n">
-        <v>5.8</v>
+        <v>20</v>
       </c>
       <c r="BE32" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="BF32" t="n">
         <v>18</v>
       </c>
       <c r="BG32" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -6779,13 +6779,13 @@
         <v>1.94</v>
       </c>
       <c r="G33" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -6836,10 +6836,10 @@
         <v>14.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
         <v>7.8</v>
@@ -6866,7 +6866,7 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
         <v>22</v>
@@ -6878,16 +6878,16 @@
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP33" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AR33" t="n">
         <v>30</v>
@@ -6902,7 +6902,7 @@
         <v>7.6</v>
       </c>
       <c r="AV33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW33" t="n">
         <v>60</v>
@@ -6926,7 +6926,7 @@
         <v>20</v>
       </c>
       <c r="BD33" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BE33" t="n">
         <v>75</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
         <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.35</v>
@@ -6994,16 +6994,16 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.39</v>
       </c>
       <c r="P34" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
         <v>1.28</v>
@@ -7024,116 +7024,116 @@
         <v>1.57</v>
       </c>
       <c r="X34" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF34" t="n">
         <v>970</v>
       </c>
-      <c r="Z34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>20</v>
-      </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH34" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ34" t="n">
-        <v>970</v>
+        <v>230</v>
       </c>
       <c r="AK34" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AL34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM34" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AO34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AP34" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AR34" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="AS34" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="AT34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU34" t="n">
         <v>6.6</v>
       </c>
       <c r="AV34" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="AW34" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX34" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AY34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB34" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AZ34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>5.4</v>
-      </c>
       <c r="BC34" t="n">
-        <v>5.2</v>
+        <v>9.4</v>
       </c>
       <c r="BD34" t="n">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE34" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="BF34" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="BG34" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G35" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J35" t="n">
         <v>3.05</v>
@@ -7188,19 +7188,19 @@
         <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
         <v>5.1</v>
@@ -7212,10 +7212,10 @@
         <v>1.9</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X35" t="n">
         <v>8.800000000000001</v>
@@ -7224,7 +7224,7 @@
         <v>10.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
         <v>70</v>
@@ -7233,10 +7233,10 @@
         <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
         <v>50</v>
@@ -7254,10 +7254,10 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK35" t="n">
         <v>34</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>32</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
@@ -7266,16 +7266,16 @@
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
         <v>65</v>
       </c>
       <c r="AP35" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR35" t="n">
         <v>20</v>
@@ -7284,7 +7284,7 @@
         <v>60</v>
       </c>
       <c r="AT35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AU35" t="n">
         <v>6.4</v>
@@ -7302,7 +7302,7 @@
         <v>11.5</v>
       </c>
       <c r="AZ35" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA35" t="n">
         <v>60</v>
@@ -7311,7 +7311,7 @@
         <v>32</v>
       </c>
       <c r="BC35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD35" t="n">
         <v>50</v>
@@ -7320,14 +7320,14 @@
         <v>75</v>
       </c>
       <c r="BF35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BG35" t="n">
         <v>60</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -7364,13 +7364,13 @@
         <v>4.1</v>
       </c>
       <c r="H36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>4.1</v>
@@ -7382,7 +7382,7 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -7391,22 +7391,22 @@
         <v>2.28</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R36" t="n">
         <v>1.49</v>
       </c>
       <c r="S36" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T36" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U36" t="n">
         <v>2.36</v>
       </c>
       <c r="V36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
         <v>1.32</v>
@@ -7424,10 +7424,10 @@
         <v>22</v>
       </c>
       <c r="AB36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
         <v>10</v>
@@ -7436,7 +7436,7 @@
         <v>18.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG36" t="n">
         <v>16</v>
@@ -7481,19 +7481,19 @@
         <v>16.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV36" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AW36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AX36" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ36" t="n">
         <v>16</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -7555,10 +7555,10 @@
         <v>1.61</v>
       </c>
       <c r="G37" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H37" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
         <v>7</v>
@@ -7567,34 +7567,34 @@
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P37" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U37" t="n">
         <v>1.92</v>
@@ -7603,28 +7603,28 @@
         <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X37" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
         <v>24</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -7639,7 +7639,7 @@
         <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ37" t="n">
         <v>18</v>
@@ -7648,28 +7648,28 @@
         <v>20</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR37" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="AS37" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AT37" t="n">
         <v>7.2</v>
@@ -7678,10 +7678,10 @@
         <v>8.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>6.4</v>
+        <v>21</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AX37" t="n">
         <v>8.4</v>
@@ -7693,7 +7693,7 @@
         <v>19</v>
       </c>
       <c r="BA37" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB37" t="n">
         <v>13.5</v>
@@ -7702,20 +7702,20 @@
         <v>15</v>
       </c>
       <c r="BD37" t="n">
-        <v>5.9</v>
+        <v>18</v>
       </c>
       <c r="BE37" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BF37" t="n">
         <v>7.2</v>
       </c>
       <c r="BG37" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -7746,19 +7746,19 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.64</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.66</v>
       </c>
       <c r="H38" t="n">
         <v>6.4</v>
       </c>
       <c r="I38" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
         <v>4.3</v>
@@ -7770,25 +7770,25 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P38" t="n">
         <v>1.86</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R38" t="n">
         <v>1.32</v>
       </c>
       <c r="S38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T38" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U38" t="n">
         <v>1.84</v>
@@ -7797,19 +7797,19 @@
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X38" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z38" t="n">
         <v>55</v>
       </c>
       <c r="AA38" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="AB38" t="n">
         <v>7.6</v>
@@ -7818,13 +7818,13 @@
         <v>11.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE38" t="n">
         <v>130</v>
       </c>
       <c r="AF38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG38" t="n">
         <v>11</v>
@@ -7833,25 +7833,25 @@
         <v>30</v>
       </c>
       <c r="AI38" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ38" t="n">
         <v>17</v>
       </c>
       <c r="AK38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AM38" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AN38" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="AP38" t="n">
         <v>12</v>
@@ -7860,10 +7860,10 @@
         <v>16.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>5.4</v>
+        <v>20</v>
       </c>
       <c r="AS38" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="AT38" t="n">
         <v>6.6</v>
@@ -7875,7 +7875,7 @@
         <v>21</v>
       </c>
       <c r="AW38" t="n">
-        <v>5.8</v>
+        <v>65</v>
       </c>
       <c r="AX38" t="n">
         <v>8</v>
@@ -7887,7 +7887,7 @@
         <v>20</v>
       </c>
       <c r="BA38" t="n">
-        <v>5.7</v>
+        <v>75</v>
       </c>
       <c r="BB38" t="n">
         <v>14</v>
@@ -7899,17 +7899,17 @@
         <v>34</v>
       </c>
       <c r="BE38" t="n">
-        <v>5.8</v>
+        <v>36</v>
       </c>
       <c r="BF38" t="n">
         <v>9.6</v>
       </c>
       <c r="BG38" t="n">
-        <v>5.8</v>
+        <v>18.5</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -7943,16 +7943,16 @@
         <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
         <v>3.65</v>
       </c>
       <c r="I39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
         <v>3.65</v>
@@ -7964,7 +7964,7 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -7979,7 +7979,7 @@
         <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
         <v>1.83</v>
@@ -7991,119 +7991,119 @@
         <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y39" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AA39" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE39" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ39" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK39" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO39" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AP39" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AS39" t="n">
         <v>3.75</v>
       </c>
-      <c r="AR39" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AT39" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="AV39" t="n">
-        <v>3.95</v>
+        <v>9</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AY39" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ39" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="BA39" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="BB39" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC39" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="BD39" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BE39" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="BF39" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="BG39" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -8179,19 +8179,19 @@
         <v>1.96</v>
       </c>
       <c r="U40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
         <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -8200,10 +8200,10 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -8212,10 +8212,10 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH40" t="n">
         <v>1000</v>
@@ -8224,10 +8224,10 @@
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK40" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -8236,68 +8236,68 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
       </c>
       <c r="AP40" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="AR40" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="AU40" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="AV40" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.96</v>
+        <v>2.56</v>
       </c>
       <c r="AX40" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="AY40" t="n">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="AZ40" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="BA40" t="n">
-        <v>2.98</v>
+        <v>2.52</v>
       </c>
       <c r="BB40" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="BC40" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="BD40" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="BE40" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="BF40" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BG40" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -8328,13 +8328,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
         <v>2.48</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
         <v>3.55</v>
@@ -8343,7 +8343,7 @@
         <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -8352,7 +8352,7 @@
         <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -8361,10 +8361,10 @@
         <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -8373,7 +8373,7 @@
         <v>2.06</v>
       </c>
       <c r="U41" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V41" t="n">
         <v>1.4</v>
@@ -8382,7 +8382,7 @@
         <v>1.67</v>
       </c>
       <c r="X41" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -8391,22 +8391,22 @@
         <v>22</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="AB41" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC41" t="n">
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE41" t="n">
         <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
         <v>12</v>
@@ -8421,10 +8421,10 @@
         <v>38</v>
       </c>
       <c r="AK41" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="n">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="AM41" t="n">
         <v>180</v>
@@ -8433,7 +8433,7 @@
         <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AP41" t="n">
         <v>8.800000000000001</v>
@@ -8445,10 +8445,10 @@
         <v>19</v>
       </c>
       <c r="AS41" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AT41" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU41" t="n">
         <v>6.8</v>
@@ -8457,19 +8457,19 @@
         <v>13.5</v>
       </c>
       <c r="AW41" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AX41" t="n">
         <v>12.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ41" t="n">
         <v>20</v>
       </c>
       <c r="BA41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB41" t="n">
         <v>30</v>
@@ -8478,20 +8478,20 @@
         <v>27</v>
       </c>
       <c r="BD41" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="BE41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BF41" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="BG41" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
         <v>5.2</v>
       </c>
       <c r="H42" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I42" t="n">
         <v>2.16</v>
@@ -8573,7 +8573,7 @@
         <v>1.86</v>
       </c>
       <c r="W42" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X42" t="n">
         <v>9</v>
@@ -8585,7 +8585,7 @@
         <v>13.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
@@ -8609,7 +8609,7 @@
         <v>32</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -8630,16 +8630,16 @@
         <v>32</v>
       </c>
       <c r="AP42" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AQ42" t="n">
         <v>5.8</v>
       </c>
       <c r="AR42" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AS42" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AT42" t="n">
         <v>10.5</v>
@@ -8648,13 +8648,13 @@
         <v>6.6</v>
       </c>
       <c r="AV42" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.1</v>
+        <v>14.5</v>
       </c>
       <c r="AX42" t="n">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="AY42" t="n">
         <v>17.5</v>
@@ -8666,7 +8666,7 @@
         <v>5.1</v>
       </c>
       <c r="BB42" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BC42" t="n">
         <v>5.2</v>
@@ -8675,17 +8675,17 @@
         <v>5.2</v>
       </c>
       <c r="BE42" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BF42" t="n">
         <v>5.3</v>
       </c>
       <c r="BG42" t="n">
-        <v>19</v>
+        <v>5.7</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -8734,13 +8734,13 @@
         <v>3.55</v>
       </c>
       <c r="L43" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="O43" t="n">
         <v>1.38</v>
@@ -8764,49 +8764,49 @@
         <v>1.96</v>
       </c>
       <c r="V43" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
         <v>1.54</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK43" t="n">
         <v>1000</v>
@@ -8827,59 +8827,59 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="AR43" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AS43" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="AU43" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="AV43" t="n">
-        <v>3.7</v>
+        <v>9</v>
       </c>
       <c r="AW43" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AX43" t="n">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="AY43" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="AZ43" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="BA43" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BB43" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BC43" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="BD43" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="BE43" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="BF43" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="BG43" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -8910,25 +8910,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="G44" t="n">
         <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I44" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
@@ -8958,122 +8958,122 @@
         <v>1.85</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W44" t="n">
         <v>1.79</v>
       </c>
       <c r="X44" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK44" t="n">
         <v>90</v>
       </c>
-      <c r="Y44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>980</v>
-      </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AO44" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="AQ44" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="AR44" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AS44" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AT44" t="n">
         <v>6.6</v>
       </c>
       <c r="AU44" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="AV44" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="AW44" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="AX44" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="AY44" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="AZ44" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BA44" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="BB44" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="BC44" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="BD44" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="BE44" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BF44" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="BG44" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -9104,31 +9104,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G45" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I45" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="n">
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
@@ -9146,91 +9146,91 @@
         <v>3.9</v>
       </c>
       <c r="T45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR45" t="n">
         <v>2.06</v>
       </c>
-      <c r="U45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>2.76</v>
-      </c>
       <c r="AS45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU45" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AV45" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AW45" t="n">
         <v>2.1</v>
@@ -9242,32 +9242,32 @@
         <v>4.1</v>
       </c>
       <c r="AZ45" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="BA45" t="n">
         <v>2.1</v>
       </c>
       <c r="BB45" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="BC45" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="BD45" t="n">
-        <v>2.76</v>
+        <v>2.06</v>
       </c>
       <c r="BE45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="BF45" t="n">
         <v>4.6</v>
       </c>
       <c r="BG45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -9301,16 +9301,16 @@
         <v>1.78</v>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H46" t="n">
         <v>4.6</v>
       </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
         <v>4.3</v>
@@ -9331,13 +9331,13 @@
         <v>1.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R46" t="n">
         <v>1.37</v>
       </c>
       <c r="S46" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T46" t="n">
         <v>1.78</v>
@@ -9349,19 +9349,19 @@
         <v>1.24</v>
       </c>
       <c r="W46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>22</v>
       </c>
       <c r="Z46" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA46" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB46" t="n">
         <v>11</v>
@@ -9379,7 +9379,7 @@
         <v>14</v>
       </c>
       <c r="AG46" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
         <v>24</v>
@@ -9388,13 +9388,13 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK46" t="n">
         <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM46" t="n">
         <v>130</v>
@@ -9406,16 +9406,16 @@
         <v>90</v>
       </c>
       <c r="AP46" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AQ46" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="AR46" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AS46" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AT46" t="n">
         <v>7.8</v>
@@ -9424,10 +9424,10 @@
         <v>7.6</v>
       </c>
       <c r="AV46" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AW46" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AX46" t="n">
         <v>9</v>
@@ -9436,32 +9436,32 @@
         <v>8.6</v>
       </c>
       <c r="AZ46" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="BA46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB46" t="n">
         <v>4</v>
       </c>
-      <c r="BB46" t="n">
-        <v>3.6</v>
-      </c>
       <c r="BC46" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="BD46" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="BE46" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BF46" t="n">
         <v>8.4</v>
       </c>
       <c r="BG46" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -774,10 +774,10 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -786,22 +786,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -813,7 +813,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -879,10 +879,10 @@
         <v>1.23</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AU2" t="n">
         <v>1.23</v>
@@ -894,10 +894,10 @@
         <v>1.23</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AZ2" t="n">
         <v>1.23</v>
@@ -906,13 +906,13 @@
         <v>1.23</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BE2" t="n">
         <v>1.25</v>
@@ -921,11 +921,11 @@
         <v>1.23</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
         <v>1.68</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
         <v>6.2</v>
@@ -971,155 +971,155 @@
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>2.46</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13</v>
-      </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
         <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AP3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AV3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AR3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT3" t="n">
+      <c r="AW3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AU3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AY3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>5.6</v>
+        <v>29</v>
       </c>
       <c r="BE3" t="n">
-        <v>5.9</v>
+        <v>80</v>
       </c>
       <c r="BF3" t="n">
         <v>7.6</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1347,55 +1347,55 @@
         <v>2.48</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V5" t="n">
         <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>8.800000000000001</v>
@@ -1407,7 +1407,7 @@
         <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
         <v>8</v>
@@ -1416,25 +1416,25 @@
         <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
         <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
@@ -1452,28 +1452,28 @@
         <v>90</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR5" t="n">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV5" t="n">
         <v>13.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1482,32 +1482,32 @@
         <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BA5" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="BB5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC5" t="n">
         <v>8.6</v>
       </c>
-      <c r="BC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BD5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE5" t="n">
         <v>10</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG5" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1538,61 +1538,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1604,10 +1604,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1619,7 +1619,7 @@
         <v>500</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1640,68 +1640,68 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="AQ6" t="n">
         <v>8.4</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="AU6" t="n">
         <v>5.6</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="BC6" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD6" t="n">
         <v>4.1</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1732,61 +1732,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
         <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
         <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>34</v>
@@ -1798,7 +1798,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9.6</v>
@@ -1813,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
         <v>28</v>
@@ -1837,7 +1837,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AP7" t="n">
         <v>8.4</v>
@@ -1849,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AT7" t="n">
         <v>5.7</v>
@@ -1858,10 +1858,10 @@
         <v>7.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
         <v>7.2</v>
@@ -1873,7 +1873,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BA7" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>11.5</v>
@@ -1882,10 +1882,10 @@
         <v>10.5</v>
       </c>
       <c r="BD7" t="n">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="BE7" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BF7" t="n">
         <v>5.9</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1926,76 +1926,76 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
         <v>90</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>40</v>
@@ -2010,7 +2010,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -2022,7 +2022,7 @@
         <v>500</v>
       </c>
       <c r="AL8" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -2031,65 +2031,65 @@
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AP8" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AR8" t="n">
         <v>6.4</v>
       </c>
       <c r="AS8" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT8" t="n">
         <v>8.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AV8" t="n">
         <v>6.2</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="AZ8" t="n">
         <v>10.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="BC8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG8" t="n">
         <v>5</v>
       </c>
-      <c r="BD8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>12</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2120,58 +2120,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -2222,7 +2222,7 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="n">
         <v>30</v>
@@ -2231,16 +2231,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
         <v>13.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU9" t="n">
         <v>6.6</v>
@@ -2261,29 +2261,29 @@
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BB9" t="n">
         <v>40</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BE9" t="n">
         <v>9.4</v>
       </c>
       <c r="BF9" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="BG9" t="n">
         <v>7.8</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2320,40 +2320,40 @@
         <v>2.08</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
         <v>2.08</v>
@@ -2362,7 +2362,7 @@
         <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.92</v>
@@ -2389,7 +2389,7 @@
         <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -2404,7 +2404,7 @@
         <v>260</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2419,7 +2419,7 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="AP10" t="n">
         <v>8.6</v>
@@ -2428,10 +2428,10 @@
         <v>11</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
@@ -2440,10 +2440,10 @@
         <v>6.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AX10" t="n">
         <v>9.4</v>
@@ -2452,10 +2452,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2467,17 +2467,17 @@
         <v>8</v>
       </c>
       <c r="BE10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF10" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="BG10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2508,61 +2508,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I11" t="n">
         <v>1.54</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
         <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
         <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
         <v>2.84</v>
       </c>
       <c r="W11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
         <v>7.6</v>
@@ -2586,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="n">
         <v>32</v>
@@ -2598,19 +2598,19 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AK11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO11" t="n">
         <v>10.5</v>
@@ -2622,16 +2622,16 @@
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT11" t="n">
         <v>20</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2655,23 +2655,23 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="BE11" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="BF11" t="n">
         <v>11</v>
       </c>
       <c r="BG11" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
         <v>1.26</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="I12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J12" t="n">
         <v>7.4</v>
       </c>
       <c r="K12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
@@ -2726,40 +2726,40 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="Y12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z12" t="n">
         <v>160</v>
@@ -2768,19 +2768,19 @@
         <v>740</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2801,37 +2801,37 @@
         <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AP12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AS12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AU12" t="n">
         <v>15.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AW12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AX12" t="n">
         <v>7.6</v>
@@ -2846,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="BB12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC12" t="n">
         <v>12</v>
@@ -2858,14 +2858,14 @@
         <v>29</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="BG12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2896,46 +2896,46 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.45</v>
       </c>
-      <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
         <v>1.68</v>
@@ -2944,10 +2944,10 @@
         <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
         <v>48</v>
@@ -2992,7 +2992,7 @@
         <v>500</v>
       </c>
       <c r="AL13" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
@@ -3043,7 +3043,7 @@
         <v>8.4</v>
       </c>
       <c r="BC13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>8</v>
@@ -3052,14 +3052,14 @@
         <v>8.6</v>
       </c>
       <c r="BF13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BG13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3090,73 +3090,73 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AA14" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -3168,10 +3168,10 @@
         <v>700</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
         <v>25</v>
@@ -3186,7 +3186,7 @@
         <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -3198,62 +3198,62 @@
         <v>700</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.4</v>
+        <v>19.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY14" t="n">
         <v>8.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA14" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB14" t="n">
         <v>14</v>
       </c>
       <c r="BC14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BD14" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BE14" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BF14" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="BG14" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3290,10 +3290,10 @@
         <v>1.71</v>
       </c>
       <c r="H15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -3314,13 +3314,13 @@
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
         <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
         <v>3.3</v>
@@ -3338,10 +3338,10 @@
         <v>2.4</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
         <v>44</v>
@@ -3356,7 +3356,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3386,7 +3386,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>100</v>
@@ -3395,7 +3395,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>42</v>
@@ -3407,7 +3407,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AV15" t="n">
         <v>20</v>
@@ -3419,7 +3419,7 @@
         <v>9.6</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
         <v>19.5</v>
@@ -3440,14 +3440,14 @@
         <v>95</v>
       </c>
       <c r="BF15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BG15" t="n">
         <v>70</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3478,16 +3478,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -3508,28 +3508,28 @@
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
         <v>16</v>
@@ -3538,7 +3538,7 @@
         <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
@@ -3589,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3604,7 +3604,7 @@
         <v>7.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AW16" t="n">
         <v>40</v>
@@ -3613,13 +3613,13 @@
         <v>11.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3637,11 +3637,11 @@
         <v>12</v>
       </c>
       <c r="BG16" t="n">
-        <v>9.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3672,55 +3672,55 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="G17" t="n">
         <v>26</v>
       </c>
       <c r="H17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J17" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q17" t="n">
         <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
         <v>1.56</v>
       </c>
       <c r="V17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.04</v>
@@ -3732,7 +3732,7 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AA17" t="n">
         <v>8.4</v>
@@ -3780,28 +3780,28 @@
         <v>7.2</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AT17" t="n">
         <v>4.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX17" t="n">
         <v>4.2</v>
@@ -3810,10 +3810,10 @@
         <v>4.2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BB17" t="n">
         <v>4.2</v>
@@ -3825,17 +3825,17 @@
         <v>4.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BF17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G18" t="n">
         <v>1.85</v>
@@ -3875,10 +3875,10 @@
         <v>4.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -3890,22 +3890,22 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
         <v>1.83</v>
@@ -3914,13 +3914,13 @@
         <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
         <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
         <v>36</v>
@@ -3932,22 +3932,22 @@
         <v>700</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AE18" t="n">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="AF18" t="n">
         <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
         <v>40</v>
@@ -3959,7 +3959,7 @@
         <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
         <v>100</v>
@@ -3968,7 +3968,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>700</v>
@@ -3977,13 +3977,13 @@
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AR18" t="n">
         <v>16</v>
       </c>
       <c r="AS18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT18" t="n">
         <v>8.199999999999999</v>
@@ -3995,7 +3995,7 @@
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
@@ -4007,10 +4007,10 @@
         <v>16.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB18" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -4019,17 +4019,17 @@
         <v>16</v>
       </c>
       <c r="BE18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BF18" t="n">
         <v>10</v>
       </c>
       <c r="BG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
         <v>1.15</v>
@@ -4069,37 +4069,37 @@
         <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
         <v>3.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="T19" t="n">
         <v>2.48</v>
@@ -4111,16 +4111,16 @@
         <v>1.02</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Y19" t="n">
         <v>110</v>
       </c>
       <c r="Z19" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4129,7 +4129,7 @@
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="n">
         <v>400</v>
@@ -4138,58 +4138,58 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
         <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK19" t="n">
         <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="AN19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AX19" t="n">
         <v>6.8</v>
@@ -4201,29 +4201,29 @@
         <v>20</v>
       </c>
       <c r="BA19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BC19" t="n">
         <v>12.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>6.8</v>
+        <v>42</v>
       </c>
       <c r="BE19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4257,70 +4257,70 @@
         <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J20" t="n">
         <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
         <v>2.12</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
         <v>85</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
         <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
@@ -4329,19 +4329,19 @@
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
         <v>190</v>
       </c>
       <c r="AG20" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>500</v>
@@ -4353,13 +4353,13 @@
         <v>160</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
         <v>14.5</v>
@@ -4374,10 +4374,10 @@
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV20" t="n">
         <v>9.4</v>
@@ -4386,10 +4386,10 @@
         <v>14.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="AY20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
         <v>13.5</v>
@@ -4398,26 +4398,26 @@
         <v>13</v>
       </c>
       <c r="BB20" t="n">
-        <v>9.6</v>
+        <v>5.1</v>
       </c>
       <c r="BC20" t="n">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="BD20" t="n">
         <v>34</v>
       </c>
       <c r="BE20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BF20" t="n">
-        <v>24</v>
+        <v>4.7</v>
       </c>
       <c r="BG20" t="n">
         <v>6.2</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4448,13 +4448,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="I21" t="n">
         <v>1.3</v>
@@ -4466,43 +4466,43 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S21" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="T21" t="n">
         <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V21" t="n">
         <v>4.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
         <v>9.6</v>
@@ -4511,13 +4511,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>11.5</v>
@@ -4526,10 +4526,10 @@
         <v>15.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -4541,19 +4541,19 @@
         <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AP21" t="n">
         <v>20</v>
@@ -4568,10 +4568,10 @@
         <v>8.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
         <v>9.4</v>
@@ -4580,28 +4580,28 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA21" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AY21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BB21" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BC21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD21" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BE21" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BF21" t="n">
         <v>15</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4642,58 +4642,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G22" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
         <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X22" t="n">
         <v>16.5</v>
@@ -4744,7 +4744,7 @@
         <v>700</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -4753,13 +4753,13 @@
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR22" t="n">
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT22" t="n">
         <v>7.4</v>
@@ -4783,7 +4783,7 @@
         <v>18.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB22" t="n">
         <v>13</v>
@@ -4795,17 +4795,17 @@
         <v>30</v>
       </c>
       <c r="BE22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF22" t="n">
         <v>8</v>
       </c>
       <c r="BG22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4836,49 +4836,49 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G23" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
@@ -4887,7 +4887,7 @@
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -4896,28 +4896,28 @@
         <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
         <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AE23" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4926,25 +4926,25 @@
         <v>700</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AO23" t="n">
         <v>700</v>
       </c>
       <c r="AP23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>18</v>
@@ -4953,7 +4953,7 @@
         <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT23" t="n">
         <v>8.6</v>
@@ -4965,22 +4965,22 @@
         <v>18</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AX23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC23" t="n">
         <v>14.5</v>
@@ -4989,7 +4989,7 @@
         <v>16</v>
       </c>
       <c r="BE23" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF23" t="n">
         <v>6.6</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5030,58 +5030,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G24" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K24" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X24" t="n">
         <v>32</v>
@@ -5108,7 +5108,7 @@
         <v>160</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -5120,7 +5120,7 @@
         <v>470</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK24" t="n">
         <v>14.5</v>
@@ -5132,7 +5132,7 @@
         <v>390</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO24" t="n">
         <v>170</v>
@@ -5141,25 +5141,25 @@
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AX24" t="n">
         <v>8.6</v>
@@ -5171,19 +5171,19 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="BB24" t="n">
         <v>9.6</v>
       </c>
       <c r="BC24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BD24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BE24" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BF24" t="n">
         <v>3.75</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5230,55 +5230,55 @@
         <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P25" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="W25" t="n">
         <v>1.2</v>
       </c>
       <c r="X25" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="Y25" t="n">
         <v>14.5</v>
@@ -5296,7 +5296,7 @@
         <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
@@ -5305,7 +5305,7 @@
         <v>150</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -5320,13 +5320,13 @@
         <v>320</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AO25" t="n">
         <v>6.6</v>
@@ -5347,7 +5347,7 @@
         <v>14.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AV25" t="n">
         <v>8.800000000000001</v>
@@ -5356,38 +5356,38 @@
         <v>12.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.4</v>
+        <v>25</v>
       </c>
       <c r="AY25" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="BC25" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="BD25" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="BE25" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="BF25" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="BG25" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5418,46 +5418,46 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K26" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S26" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
@@ -5466,16 +5466,16 @@
         <v>2.58</v>
       </c>
       <c r="V26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X26" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="Y26" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="Z26" t="n">
         <v>350</v>
@@ -5484,10 +5484,10 @@
         <v>150</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC26" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AD26" t="n">
         <v>27</v>
@@ -5496,10 +5496,10 @@
         <v>320</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
@@ -5514,13 +5514,13 @@
         <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>55</v>
@@ -5532,13 +5532,13 @@
         <v>14.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AS26" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU26" t="n">
         <v>9.6</v>
@@ -5547,7 +5547,7 @@
         <v>12.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5559,10 +5559,10 @@
         <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="BB26" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="BC26" t="n">
         <v>11</v>
@@ -5571,7 +5571,7 @@
         <v>13</v>
       </c>
       <c r="BE26" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="BF26" t="n">
         <v>4.5</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5615,10 +5615,10 @@
         <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
         <v>3.1</v>
@@ -5636,7 +5636,7 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.15</v>
@@ -5645,13 +5645,13 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R27" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S27" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
         <v>1.5</v>
@@ -5663,22 +5663,22 @@
         <v>1.47</v>
       </c>
       <c r="W27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
         <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
@@ -5705,7 +5705,7 @@
         <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5714,16 +5714,16 @@
         <v>46</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5732,7 +5732,7 @@
         <v>38</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AU27" t="n">
         <v>9.4</v>
@@ -5750,7 +5750,7 @@
         <v>10.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
         <v>26</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5809,16 +5809,16 @@
         <v>3.7</v>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I28" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
         <v>3.15</v>
@@ -5827,37 +5827,37 @@
         <v>1.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="O28" t="n">
         <v>1.57</v>
       </c>
       <c r="P28" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
         <v>1.68</v>
       </c>
       <c r="W28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X28" t="n">
         <v>9.800000000000001</v>
@@ -5893,7 +5893,7 @@
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="AJ28" t="n">
         <v>900</v>
@@ -5902,7 +5902,7 @@
         <v>440</v>
       </c>
       <c r="AL28" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AM28" t="n">
         <v>500</v>
@@ -5911,16 +5911,16 @@
         <v>500</v>
       </c>
       <c r="AO28" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AP28" t="n">
         <v>7.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS28" t="n">
         <v>14.5</v>
@@ -5929,7 +5929,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV28" t="n">
         <v>10.5</v>
@@ -5947,29 +5947,29 @@
         <v>21</v>
       </c>
       <c r="BA28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BE28" t="n">
         <v>5</v>
       </c>
-      <c r="BB28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BF28" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="BG28" t="n">
         <v>7.8</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6000,58 +6000,58 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G29" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="L29" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="P29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
         <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V29" t="n">
         <v>1.39</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
         <v>6.6</v>
@@ -6090,7 +6090,7 @@
         <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AK29" t="n">
         <v>300</v>
@@ -6111,10 +6111,10 @@
         <v>5.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AR29" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AS29" t="n">
         <v>9</v>
@@ -6144,7 +6144,7 @@
         <v>9.4</v>
       </c>
       <c r="BB29" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BC29" t="n">
         <v>8.6</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6194,25 +6194,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I30" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
         <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
@@ -6224,37 +6224,37 @@
         <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="U30" t="n">
         <v>1.64</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W30" t="n">
         <v>1.12</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="Z30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA30" t="n">
         <v>27</v>
@@ -6278,13 +6278,13 @@
         <v>95</v>
       </c>
       <c r="AH30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>380</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>400</v>
       </c>
       <c r="AK30" t="n">
         <v>210</v>
@@ -6296,28 +6296,28 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AO30" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AP30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AS30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="AV30" t="n">
         <v>9.6</v>
@@ -6326,10 +6326,10 @@
         <v>11.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY30" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AZ30" t="n">
         <v>16</v>
@@ -6338,26 +6338,26 @@
         <v>28</v>
       </c>
       <c r="BB30" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="BD30" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="BE30" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="BF30" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="BG30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6388,61 +6388,61 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G31" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W31" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X31" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -6478,7 +6478,7 @@
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -6490,7 +6490,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -6502,10 +6502,10 @@
         <v>8.4</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="AT31" t="n">
         <v>5.9</v>
@@ -6514,10 +6514,10 @@
         <v>4.9</v>
       </c>
       <c r="AV31" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="AX31" t="n">
         <v>5.1</v>
@@ -6526,32 +6526,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="BA31" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="BB31" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="BC31" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="BD31" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="BE31" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="BF31" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="BG31" t="n">
         <v>6.8</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6582,46 +6582,46 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="G32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="I32" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
         <v>1.96</v>
@@ -6630,10 +6630,10 @@
         <v>1.84</v>
       </c>
       <c r="V32" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W32" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X32" t="n">
         <v>90</v>
@@ -6642,7 +6642,7 @@
         <v>13.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
         <v>180</v>
@@ -6696,10 +6696,10 @@
         <v>4.4</v>
       </c>
       <c r="AR32" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AS32" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AT32" t="n">
         <v>10.5</v>
@@ -6708,34 +6708,34 @@
         <v>5.1</v>
       </c>
       <c r="AV32" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AW32" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AX32" t="n">
         <v>7.2</v>
       </c>
       <c r="AY32" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AZ32" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="BA32" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BB32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BC32" t="n">
         <v>4.2</v>
       </c>
       <c r="BD32" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE32" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="BF32" t="n">
         <v>4.2</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6776,67 +6776,67 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G33" t="n">
         <v>2.22</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
         <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
         <v>1.91</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="n">
         <v>85</v>
@@ -6878,7 +6878,7 @@
         <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
         <v>65</v>
@@ -6917,7 +6917,7 @@
         <v>17</v>
       </c>
       <c r="BA33" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BB33" t="n">
         <v>24</v>
@@ -6929,7 +6929,7 @@
         <v>20</v>
       </c>
       <c r="BE33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BF33" t="n">
         <v>18</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6970,58 +6970,58 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G34" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.35</v>
       </c>
       <c r="L34" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R34" t="n">
         <v>1.28</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U34" t="n">
         <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W34" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X34" t="n">
         <v>22</v>
@@ -7033,7 +7033,7 @@
         <v>48</v>
       </c>
       <c r="AA34" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AB34" t="n">
         <v>19</v>
@@ -7117,23 +7117,23 @@
         <v>10</v>
       </c>
       <c r="BC34" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD34" t="n">
         <v>10</v>
       </c>
       <c r="BE34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BF34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BG34" t="n">
         <v>5.3</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G35" t="n">
         <v>1.93</v>
@@ -7176,10 +7176,10 @@
         <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.49</v>
@@ -7188,7 +7188,7 @@
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.41</v>
@@ -7209,7 +7209,7 @@
         <v>2.02</v>
       </c>
       <c r="U35" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
         <v>1.25</v>
@@ -7269,7 +7269,7 @@
         <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP35" t="n">
         <v>10.5</v>
@@ -7305,7 +7305,7 @@
         <v>20</v>
       </c>
       <c r="BA35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB35" t="n">
         <v>20</v>
@@ -7323,11 +7323,11 @@
         <v>15</v>
       </c>
       <c r="BG35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O36" t="n">
         <v>1.51</v>
@@ -7397,7 +7397,7 @@
         <v>1.22</v>
       </c>
       <c r="S36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T36" t="n">
         <v>2.06</v>
@@ -7418,7 +7418,7 @@
         <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA36" t="n">
         <v>70</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -7558,10 +7558,10 @@
         <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I37" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J37" t="n">
         <v>3.95</v>
@@ -7585,13 +7585,13 @@
         <v>2.26</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R37" t="n">
         <v>1.49</v>
       </c>
       <c r="S37" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T37" t="n">
         <v>1.7</v>
@@ -7600,7 +7600,7 @@
         <v>2.36</v>
       </c>
       <c r="V37" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
         <v>1.32</v>
@@ -7642,7 +7642,7 @@
         <v>27</v>
       </c>
       <c r="AJ37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="n">
         <v>42</v>
@@ -7696,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="BB37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC37" t="n">
         <v>40</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G38" t="n">
         <v>1.66</v>
@@ -7755,46 +7755,46 @@
         <v>6.2</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
         <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O38" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q38" t="n">
         <v>1.97</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.89</v>
       </c>
       <c r="R38" t="n">
         <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T38" t="n">
         <v>1.94</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
         <v>2.5</v>
@@ -7827,7 +7827,7 @@
         <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH38" t="n">
         <v>26</v>
@@ -7860,10 +7860,10 @@
         <v>17.5</v>
       </c>
       <c r="AR38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AS38" t="n">
         <v>8.4</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AT38" t="n">
         <v>7.2</v>
@@ -7875,7 +7875,7 @@
         <v>21</v>
       </c>
       <c r="AW38" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX38" t="n">
         <v>8.4</v>
@@ -7887,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="BA38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BB38" t="n">
         <v>13.5</v>
@@ -7899,17 +7899,17 @@
         <v>18</v>
       </c>
       <c r="BE38" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF38" t="n">
         <v>7.2</v>
       </c>
       <c r="BG38" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G39" t="n">
         <v>1.65</v>
@@ -7949,7 +7949,7 @@
         <v>6.4</v>
       </c>
       <c r="I39" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J39" t="n">
         <v>4.2</v>
@@ -7958,34 +7958,34 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
         <v>1.32</v>
       </c>
       <c r="S39" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V39" t="n">
         <v>1.17</v>
@@ -8003,7 +8003,7 @@
         <v>50</v>
       </c>
       <c r="AA39" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB39" t="n">
         <v>7.6</v>
@@ -8012,10 +8012,10 @@
         <v>9.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="n">
         <v>9</v>
@@ -8024,16 +8024,16 @@
         <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI39" t="n">
         <v>110</v>
       </c>
       <c r="AJ39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL39" t="n">
         <v>42</v>
@@ -8045,7 +8045,7 @@
         <v>11</v>
       </c>
       <c r="AO39" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP39" t="n">
         <v>12</v>
@@ -8057,7 +8057,7 @@
         <v>44</v>
       </c>
       <c r="AS39" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AT39" t="n">
         <v>6.8</v>
@@ -8069,7 +8069,7 @@
         <v>22</v>
       </c>
       <c r="AW39" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AX39" t="n">
         <v>8.199999999999999</v>
@@ -8081,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="BA39" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="BB39" t="n">
         <v>14</v>
@@ -8090,7 +8090,7 @@
         <v>16.5</v>
       </c>
       <c r="BD39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE39" t="n">
         <v>29</v>
@@ -8099,11 +8099,11 @@
         <v>10</v>
       </c>
       <c r="BG39" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -8134,16 +8134,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G40" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>3.45</v>
@@ -8152,7 +8152,7 @@
         <v>3.65</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
@@ -8161,31 +8161,31 @@
         <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R40" t="n">
         <v>1.3</v>
       </c>
       <c r="S40" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="T40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.83</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.78</v>
       </c>
       <c r="X40" t="n">
         <v>24</v>
@@ -8200,10 +8200,10 @@
         <v>900</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
         <v>36</v>
@@ -8212,7 +8212,7 @@
         <v>240</v>
       </c>
       <c r="AF40" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
         <v>21</v>
@@ -8221,7 +8221,7 @@
         <v>60</v>
       </c>
       <c r="AI40" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AJ40" t="n">
         <v>900</v>
@@ -8242,19 +8242,19 @@
         <v>500</v>
       </c>
       <c r="AP40" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AR40" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AS40" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="AT40" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="AU40" t="n">
         <v>5.1</v>
@@ -8263,41 +8263,41 @@
         <v>9</v>
       </c>
       <c r="AW40" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="AX40" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AY40" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ40" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BA40" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="BB40" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BC40" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE40" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BG40" t="n">
-        <v>9.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -8328,58 +8328,58 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K41" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P41" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R41" t="n">
         <v>1.26</v>
       </c>
       <c r="S41" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U41" t="n">
         <v>1.83</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X41" t="n">
         <v>25</v>
@@ -8394,7 +8394,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
         <v>15.5</v>
@@ -8442,10 +8442,10 @@
         <v>7.6</v>
       </c>
       <c r="AR41" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AS41" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="AT41" t="n">
         <v>4.4</v>
@@ -8454,10 +8454,10 @@
         <v>5.1</v>
       </c>
       <c r="AV41" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AW41" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="AX41" t="n">
         <v>5.6</v>
@@ -8466,32 +8466,32 @@
         <v>7</v>
       </c>
       <c r="AZ41" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="BA41" t="n">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="BB41" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BC41" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="BD41" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="BE41" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="BF41" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BG41" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -8522,46 +8522,46 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="G42" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
         <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M42" t="n">
         <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="R42" t="n">
         <v>1.21</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T42" t="n">
         <v>2.06</v>
@@ -8570,10 +8570,10 @@
         <v>1.81</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X42" t="n">
         <v>10</v>
@@ -8600,10 +8600,10 @@
         <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
         <v>25</v>
@@ -8618,7 +8618,7 @@
         <v>80</v>
       </c>
       <c r="AL42" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
         <v>180</v>
@@ -8630,7 +8630,7 @@
         <v>140</v>
       </c>
       <c r="AP42" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AQ42" t="n">
         <v>9</v>
@@ -8651,7 +8651,7 @@
         <v>13.5</v>
       </c>
       <c r="AW42" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AX42" t="n">
         <v>12.5</v>
@@ -8663,7 +8663,7 @@
         <v>20</v>
       </c>
       <c r="BA42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BB42" t="n">
         <v>30</v>
@@ -8675,17 +8675,17 @@
         <v>48</v>
       </c>
       <c r="BE42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BF42" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="BG42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -8725,22 +8725,22 @@
         <v>1.99</v>
       </c>
       <c r="I43" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J43" t="n">
         <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M43" t="n">
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="O43" t="n">
         <v>1.52</v>
@@ -8749,13 +8749,13 @@
         <v>1.54</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R43" t="n">
         <v>1.19</v>
       </c>
       <c r="S43" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="T43" t="n">
         <v>2.16</v>
@@ -8764,10 +8764,10 @@
         <v>1.73</v>
       </c>
       <c r="V43" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X43" t="n">
         <v>9</v>
@@ -8779,7 +8779,7 @@
         <v>13.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -8827,10 +8827,10 @@
         <v>7.6</v>
       </c>
       <c r="AQ43" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AR43" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS43" t="n">
         <v>10.5</v>
@@ -8851,10 +8851,10 @@
         <v>11.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AZ43" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA43" t="n">
         <v>5.1</v>
@@ -8869,17 +8869,17 @@
         <v>5.3</v>
       </c>
       <c r="BE43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF43" t="n">
         <v>5.4</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>5.3</v>
       </c>
       <c r="BG43" t="n">
         <v>5.7</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G44" t="n">
         <v>2.84</v>
@@ -8940,7 +8940,7 @@
         <v>1.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q44" t="n">
         <v>1.99</v>
@@ -8958,7 +8958,7 @@
         <v>1.96</v>
       </c>
       <c r="V44" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W44" t="n">
         <v>1.54</v>
@@ -8988,7 +8988,7 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
         <v>26</v>
@@ -9027,7 +9027,7 @@
         <v>9</v>
       </c>
       <c r="AS44" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AT44" t="n">
         <v>5.1</v>
@@ -9048,32 +9048,32 @@
         <v>7.6</v>
       </c>
       <c r="AZ44" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BA44" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BB44" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="BC44" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="BD44" t="n">
         <v>4.6</v>
       </c>
       <c r="BE44" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BF44" t="n">
         <v>6.2</v>
       </c>
       <c r="BG44" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -9104,55 +9104,55 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="G45" t="n">
         <v>2.26</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P45" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R45" t="n">
         <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U45" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="V45" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W45" t="n">
         <v>1.79</v>
@@ -9182,7 +9182,7 @@
         <v>370</v>
       </c>
       <c r="AF45" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AG45" t="n">
         <v>26</v>
@@ -9218,56 +9218,56 @@
         <v>6.2</v>
       </c>
       <c r="AR45" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AS45" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="AU45" t="n">
         <v>5.1</v>
       </c>
       <c r="AV45" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AW45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX45" t="n">
         <v>5.9</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>5.8</v>
       </c>
       <c r="AY45" t="n">
         <v>7.6</v>
       </c>
       <c r="AZ45" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BA45" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="BB45" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="BC45" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BD45" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="BE45" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="BF45" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="BG45" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -9298,46 +9298,46 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H46" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M46" t="n">
         <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R46" t="n">
         <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T46" t="n">
         <v>2.06</v>
@@ -9346,10 +9346,10 @@
         <v>1.78</v>
       </c>
       <c r="V46" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W46" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -9412,56 +9412,56 @@
         <v>4.7</v>
       </c>
       <c r="AR46" t="n">
-        <v>2.06</v>
+        <v>2.88</v>
       </c>
       <c r="AS46" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AW46" t="n">
         <v>2.12</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>2.1</v>
       </c>
       <c r="AX46" t="n">
         <v>4.2</v>
       </c>
       <c r="AY46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AZ46" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="BA46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="BB46" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="BC46" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BD46" t="n">
         <v>2.06</v>
       </c>
       <c r="BE46" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="BF46" t="n">
         <v>4.6</v>
       </c>
       <c r="BG46" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -9492,58 +9492,58 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H47" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I47" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="O47" t="n">
         <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R47" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S47" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U47" t="n">
         <v>2.02</v>
       </c>
       <c r="V47" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -9570,13 +9570,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
         <v>80</v>
@@ -9597,22 +9597,22 @@
         <v>970</v>
       </c>
       <c r="AO47" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AP47" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AR47" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AS47" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>7.8</v>
+        <v>3.95</v>
       </c>
       <c r="AU47" t="n">
         <v>7.6</v>
@@ -9621,41 +9621,41 @@
         <v>4.7</v>
       </c>
       <c r="AW47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BD47" t="n">
         <v>4.8</v>
       </c>
-      <c r="AX47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>4.4</v>
-      </c>
       <c r="BE47" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BF47" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="BG47" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -765,10 +765,10 @@
         <v>1.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -780,7 +780,7 @@
         <v>970</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -789,22 +789,22 @@
         <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.14</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>1.05</v>
@@ -813,7 +813,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -894,7 +894,7 @@
         <v>1.23</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AY2" t="n">
         <v>1.23</v>
@@ -909,13 +909,13 @@
         <v>1.13</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BF2" t="n">
         <v>1.23</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -956,73 +956,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -1040,7 +1040,7 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>130</v>
@@ -1049,31 +1049,31 @@
         <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AP3" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>36</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AT3" t="n">
         <v>8.4</v>
@@ -1085,28 +1085,28 @@
         <v>18.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="BB3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>15.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="BE3" t="n">
         <v>80</v>
@@ -1115,11 +1115,11 @@
         <v>7.6</v>
       </c>
       <c r="BG3" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1353,28 +1353,28 @@
         <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
         <v>2.66</v>
@@ -1422,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1458,7 +1458,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>10</v>
@@ -1473,7 +1473,7 @@
         <v>13.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1491,23 +1491,23 @@
         <v>13.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BE5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="BG5" t="n">
         <v>10</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1538,61 +1538,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.79</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.72</v>
       </c>
       <c r="V6" t="n">
         <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1604,13 +1604,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1640,7 +1640,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1652,13 +1652,13 @@
         <v>8.4</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AU6" t="n">
         <v>5.6</v>
@@ -1667,41 +1667,41 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="AX6" t="n">
         <v>4.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="BB6" t="n">
         <v>7.4</v>
       </c>
       <c r="BC6" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="BF6" t="n">
         <v>3.85</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
@@ -1759,13 +1759,13 @@
         <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
         <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
@@ -1774,7 +1774,7 @@
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
         <v>2.18</v>
@@ -1786,25 +1786,25 @@
         <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
         <v>200</v>
@@ -1813,19 +1813,19 @@
         <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
         <v>100</v>
@@ -1834,7 +1834,7 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>220</v>
@@ -1849,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AT7" t="n">
         <v>5.7</v>
@@ -1873,7 +1873,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>8.6</v>
       </c>
       <c r="BB7" t="n">
         <v>11.5</v>
@@ -1882,7 +1882,7 @@
         <v>10.5</v>
       </c>
       <c r="BD7" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="BE7" t="n">
         <v>8.4</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1929,13 +1929,13 @@
         <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J8" t="n">
         <v>3.5</v>
@@ -1947,7 +1947,7 @@
         <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.7</v>
@@ -1956,7 +1956,7 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
         <v>2.04</v>
@@ -1968,37 +1968,37 @@
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>70</v>
@@ -2007,10 +2007,10 @@
         <v>100</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -2019,10 +2019,10 @@
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="AL8" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -2037,10 +2037,10 @@
         <v>9.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="AR8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS8" t="n">
         <v>11.5</v>
@@ -2049,47 +2049,47 @@
         <v>8.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>6.2</v>
       </c>
       <c r="AW8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>10.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="BB8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BG8" t="n">
         <v>5.3</v>
       </c>
-      <c r="BD8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>5</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2120,64 +2120,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
@@ -2186,16 +2186,16 @@
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>22</v>
@@ -2207,13 +2207,13 @@
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
@@ -2222,13 +2222,13 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AQ9" t="n">
         <v>8</v>
@@ -2237,19 +2237,19 @@
         <v>13.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV9" t="n">
         <v>10.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
         <v>17.5</v>
@@ -2258,32 +2258,32 @@
         <v>11.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
       </c>
       <c r="BD9" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="BE9" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BG9" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.53</v>
@@ -2338,13 +2338,13 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
         <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
         <v>2.44</v>
@@ -2410,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
@@ -2419,19 +2419,19 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AP10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AQ10" t="n">
         <v>11</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
@@ -2440,10 +2440,10 @@
         <v>6.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="AX10" t="n">
         <v>9.4</v>
@@ -2455,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="BA10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="BD10" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BE10" t="n">
         <v>8.800000000000001</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="G11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H11" t="n">
         <v>1.52</v>
@@ -2520,10 +2520,10 @@
         <v>1.54</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -2538,28 +2538,28 @@
         <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
         <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
         <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
         <v>2.84</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
@@ -2580,13 +2580,13 @@
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG11" t="n">
         <v>32</v>
@@ -2595,7 +2595,7 @@
         <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
         <v>290</v>
@@ -2607,7 +2607,7 @@
         <v>130</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="AN11" t="n">
         <v>180</v>
@@ -2628,10 +2628,10 @@
         <v>12.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2643,7 +2643,7 @@
         <v>30</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ11" t="n">
         <v>22</v>
@@ -2652,26 +2652,26 @@
         <v>34</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="BD11" t="n">
         <v>29</v>
       </c>
       <c r="BE11" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="BF11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG11" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="J12" t="n">
         <v>7.4</v>
@@ -2735,52 +2735,52 @@
         <v>2.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S12" t="n">
         <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
         <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X12" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="n">
         <v>55</v>
       </c>
       <c r="Z12" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AA12" t="n">
-        <v>740</v>
+        <v>580</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>50</v>
       </c>
       <c r="AE12" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2789,7 +2789,7 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.6</v>
@@ -2801,34 +2801,34 @@
         <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
         <v>4.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AP12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR12" t="n">
         <v>29</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>36</v>
-      </c>
       <c r="AS12" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AV12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AW12" t="n">
         <v>16.5</v>
@@ -2843,7 +2843,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>8.800000000000001</v>
@@ -2852,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="BD12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE12" t="n">
         <v>29</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
         <v>3.9</v>
@@ -2905,13 +2905,13 @@
         <v>2.18</v>
       </c>
       <c r="I13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2920,7 +2920,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2938,7 +2938,7 @@
         <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
         <v>2.22</v>
@@ -3001,22 +3001,22 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AP13" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AR13" t="n">
         <v>7.6</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>6.8</v>
@@ -3028,7 +3028,7 @@
         <v>11.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>12.5</v>
@@ -3037,29 +3037,29 @@
         <v>9</v>
       </c>
       <c r="BA13" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="BB13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="BD13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BG13" t="n">
         <v>6.2</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3096,13 +3096,13 @@
         <v>1.71</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
         <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -3114,34 +3114,34 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -3156,7 +3156,7 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -3171,7 +3171,7 @@
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>25</v>
@@ -3180,7 +3180,7 @@
         <v>700</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK14" t="n">
         <v>17.5</v>
@@ -3192,7 +3192,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
         <v>700</v>
@@ -3204,10 +3204,10 @@
         <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AT14" t="n">
         <v>7.6</v>
@@ -3219,7 +3219,7 @@
         <v>19.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.2</v>
+        <v>60</v>
       </c>
       <c r="AX14" t="n">
         <v>8.800000000000001</v>
@@ -3231,7 +3231,7 @@
         <v>18</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>14</v>
@@ -3240,20 +3240,20 @@
         <v>15</v>
       </c>
       <c r="BD14" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BE14" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="BG14" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -3314,7 +3314,7 @@
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
         <v>1.9</v>
@@ -3332,10 +3332,10 @@
         <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
@@ -3356,7 +3356,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
@@ -3368,7 +3368,7 @@
         <v>9.4</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
@@ -3386,7 +3386,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO15" t="n">
         <v>100</v>
@@ -3398,10 +3398,10 @@
         <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AS15" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AT15" t="n">
         <v>8.199999999999999</v>
@@ -3443,11 +3443,11 @@
         <v>9.6</v>
       </c>
       <c r="BG15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.08</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.12</v>
-      </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.38</v>
@@ -3511,7 +3511,7 @@
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
@@ -3520,16 +3520,16 @@
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X16" t="n">
         <v>16</v>
@@ -3538,7 +3538,7 @@
         <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
@@ -3547,13 +3547,13 @@
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3562,49 +3562,49 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
         <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>15.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AT16" t="n">
         <v>9.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>40</v>
@@ -3616,7 +3616,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="BA16" t="n">
         <v>36</v>
@@ -3625,13 +3625,13 @@
         <v>22</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BD16" t="n">
         <v>29</v>
       </c>
       <c r="BE16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BF16" t="n">
         <v>12</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
         <v>1.19</v>
@@ -3684,16 +3684,16 @@
         <v>1.22</v>
       </c>
       <c r="J17" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>6</v>
@@ -3705,7 +3705,7 @@
         <v>2.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
         <v>1.67</v>
@@ -3714,13 +3714,13 @@
         <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="W17" t="n">
         <v>1.04</v>
@@ -3732,7 +3732,7 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>8.4</v>
@@ -3744,7 +3744,7 @@
         <v>22</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3753,7 +3753,7 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="n">
         <v>55</v>
@@ -3777,43 +3777,43 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS17" t="n">
         <v>4.1</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>4</v>
       </c>
       <c r="AT17" t="n">
         <v>4.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX17" t="n">
         <v>4.2</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="BB17" t="n">
         <v>4.2</v>
@@ -3825,17 +3825,17 @@
         <v>4.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="BF17" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3866,19 +3866,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -3899,10 +3899,10 @@
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
         <v>3.35</v>
@@ -3911,19 +3911,19 @@
         <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>1.24</v>
       </c>
       <c r="W18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
         <v>120</v>
@@ -3968,7 +3968,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO18" t="n">
         <v>700</v>
@@ -3977,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR18" t="n">
         <v>16</v>
@@ -3992,7 +3992,7 @@
         <v>7.8</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW18" t="n">
         <v>23</v>
@@ -4016,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="BD18" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="BE18" t="n">
         <v>12.5</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4066,13 +4066,13 @@
         <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I19" t="n">
         <v>40</v>
       </c>
       <c r="J19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
         <v>11.5</v>
@@ -4090,37 +4090,37 @@
         <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="n">
         <v>1.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
         <v>2.14</v>
       </c>
       <c r="T19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="U19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="X19" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="n">
         <v>110</v>
       </c>
       <c r="Z19" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4129,7 +4129,7 @@
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD19" t="n">
         <v>400</v>
@@ -4144,25 +4144,25 @@
         <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AI19" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
         <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AM19" t="n">
         <v>370</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -4171,25 +4171,25 @@
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AT19" t="n">
         <v>9.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="AX19" t="n">
         <v>6.8</v>
@@ -4201,29 +4201,29 @@
         <v>20</v>
       </c>
       <c r="BA19" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="BB19" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="BC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
         <v>42</v>
       </c>
       <c r="BE19" t="n">
-        <v>7.6</v>
+        <v>28</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4254,22 +4254,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.81</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.89</v>
       </c>
       <c r="J20" t="n">
         <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.27</v>
@@ -4278,70 +4278,70 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T20" t="n">
         <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V20" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>85</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
         <v>190</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
         <v>500</v>
@@ -4356,13 +4356,13 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
@@ -4374,50 +4374,50 @@
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV20" t="n">
         <v>9.4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.7</v>
+        <v>18.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AZ20" t="n">
         <v>13.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>4.8</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>34</v>
       </c>
       <c r="BE20" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.7</v>
+        <v>14.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I21" t="n">
         <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -4472,28 +4472,28 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
         <v>4.3</v>
@@ -4502,10 +4502,10 @@
         <v>1.08</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>8.199999999999999</v>
@@ -4514,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD21" t="n">
         <v>11.5</v>
@@ -4526,13 +4526,13 @@
         <v>15.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG21" t="n">
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
         <v>120</v>
@@ -4541,13 +4541,13 @@
         <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AL21" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -4565,10 +4565,10 @@
         <v>6.8</v>
       </c>
       <c r="AS21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AU21" t="n">
         <v>13</v>
@@ -4580,28 +4580,28 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BD21" t="n">
         <v>9</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>10</v>
-      </c>
       <c r="BE21" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF21" t="n">
         <v>15</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
         <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
         <v>4.2</v>
@@ -4666,7 +4666,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4675,10 +4675,10 @@
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
         <v>3.3</v>
@@ -4687,7 +4687,7 @@
         <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
         <v>1.17</v>
@@ -4720,7 +4720,7 @@
         <v>420</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -4738,7 +4738,7 @@
         <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
         <v>700</v>
@@ -4750,16 +4750,16 @@
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>18.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AT22" t="n">
         <v>7.4</v>
@@ -4783,7 +4783,7 @@
         <v>18.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB22" t="n">
         <v>13</v>
@@ -4795,17 +4795,17 @@
         <v>30</v>
       </c>
       <c r="BE22" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BF22" t="n">
         <v>8</v>
       </c>
       <c r="BG22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H23" t="n">
         <v>5.5</v>
@@ -4848,10 +4848,10 @@
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -4866,28 +4866,28 @@
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
         <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -4902,7 +4902,7 @@
         <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
@@ -4950,7 +4950,7 @@
         <v>18</v>
       </c>
       <c r="AR23" t="n">
-        <v>20</v>
+        <v>7.6</v>
       </c>
       <c r="AS23" t="n">
         <v>8.6</v>
@@ -4959,13 +4959,13 @@
         <v>8.6</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV23" t="n">
         <v>18</v>
       </c>
       <c r="AW23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AX23" t="n">
         <v>9.4</v>
@@ -4977,7 +4977,7 @@
         <v>16.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BB23" t="n">
         <v>14</v>
@@ -4986,10 +4986,10 @@
         <v>14.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>16</v>
+        <v>7.2</v>
       </c>
       <c r="BE23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="BF23" t="n">
         <v>6.6</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5033,13 +5033,13 @@
         <v>1.31</v>
       </c>
       <c r="G24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
         <v>6.2</v>
@@ -5060,7 +5060,7 @@
         <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
         <v>1.5</v>
@@ -5078,13 +5078,13 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
         <v>3.9</v>
       </c>
       <c r="X24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
         <v>44</v>
@@ -5096,10 +5096,10 @@
         <v>380</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD24" t="n">
         <v>40</v>
@@ -5108,7 +5108,7 @@
         <v>160</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -5141,28 +5141,28 @@
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS24" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>11</v>
       </c>
       <c r="AT24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AY24" t="n">
         <v>9.4</v>
@@ -5171,19 +5171,19 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
       </c>
       <c r="BD24" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="BE24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BF24" t="n">
         <v>3.75</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H25" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
@@ -5242,49 +5242,49 @@
         <v>5.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S25" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T25" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="W25" t="n">
         <v>1.2</v>
       </c>
       <c r="X25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
         <v>19.5</v>
@@ -5293,13 +5293,13 @@
         <v>80</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>150</v>
@@ -5308,10 +5308,10 @@
         <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
         <v>700</v>
@@ -5326,25 +5326,25 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AP25" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AR25" t="n">
         <v>10.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>9.6</v>
@@ -5356,38 +5356,38 @@
         <v>12.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AZ25" t="n">
         <v>15</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB25" t="n">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="BC25" t="n">
-        <v>6.4</v>
+        <v>26</v>
       </c>
       <c r="BD25" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="BE25" t="n">
-        <v>6.6</v>
+        <v>48</v>
       </c>
       <c r="BF25" t="n">
         <v>34</v>
       </c>
       <c r="BG25" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5424,16 +5424,16 @@
         <v>1.59</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J26" t="n">
         <v>4.9</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.25</v>
@@ -5454,7 +5454,7 @@
         <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
         <v>2.18</v>
@@ -5463,7 +5463,7 @@
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
         <v>1.19</v>
@@ -5475,13 +5475,13 @@
         <v>130</v>
       </c>
       <c r="Y26" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
         <v>350</v>
       </c>
       <c r="AA26" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AB26" t="n">
         <v>28</v>
@@ -5490,25 +5490,25 @@
         <v>18</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>320</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
         <v>27</v>
@@ -5520,10 +5520,10 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>700</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
@@ -5532,22 +5532,22 @@
         <v>14.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="AS26" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>9.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AW26" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5556,32 +5556,32 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BD26" t="n">
         <v>13</v>
       </c>
       <c r="BE26" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BG26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5642,22 +5642,22 @@
         <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="n">
         <v>1.46</v>
       </c>
       <c r="R27" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T27" t="n">
         <v>1.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="V27" t="n">
         <v>1.47</v>
@@ -5666,13 +5666,13 @@
         <v>1.76</v>
       </c>
       <c r="X27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
         <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>55</v>
@@ -5714,28 +5714,28 @@
         <v>46</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AT27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AV27" t="n">
         <v>13</v>
@@ -5756,10 +5756,10 @@
         <v>26</v>
       </c>
       <c r="BB27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BD27" t="n">
         <v>21</v>
@@ -5771,11 +5771,11 @@
         <v>8.4</v>
       </c>
       <c r="BG27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
         <v>2.48</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
         <v>3.15</v>
@@ -5854,7 +5854,7 @@
         <v>1.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W28" t="n">
         <v>1.33</v>
@@ -5863,10 +5863,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA28" t="n">
         <v>44</v>
@@ -5875,13 +5875,13 @@
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AF28" t="n">
         <v>32</v>
@@ -5890,10 +5890,10 @@
         <v>32</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="AJ28" t="n">
         <v>900</v>
@@ -5911,7 +5911,7 @@
         <v>500</v>
       </c>
       <c r="AO28" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AP28" t="n">
         <v>7.2</v>
@@ -5938,38 +5938,38 @@
         <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA28" t="n">
-        <v>4.9</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>4.7</v>
+        <v>23</v>
       </c>
       <c r="BD28" t="n">
-        <v>5.1</v>
+        <v>29</v>
       </c>
       <c r="BE28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF28" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="BG28" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6000,16 +6000,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J29" t="n">
         <v>2.7</v>
@@ -6027,10 +6027,10 @@
         <v>2.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q29" t="n">
         <v>3.5</v>
@@ -6045,16 +6045,16 @@
         <v>2.42</v>
       </c>
       <c r="U29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V29" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W29" t="n">
         <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y29" t="n">
         <v>8.199999999999999</v>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH29" t="n">
         <v>85</v>
@@ -6108,7 +6108,7 @@
         <v>500</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="AQ29" t="n">
         <v>6.8</v>
@@ -6117,10 +6117,10 @@
         <v>17.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AT29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AU29" t="n">
         <v>6.2</v>
@@ -6129,7 +6129,7 @@
         <v>14.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
         <v>13.5</v>
@@ -6141,29 +6141,29 @@
         <v>16</v>
       </c>
       <c r="BA29" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="BB29" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="BC29" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF29" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="BF29" t="n">
-        <v>9</v>
-      </c>
       <c r="BG29" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6194,16 +6194,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J30" t="n">
         <v>3.65</v>
@@ -6218,52 +6218,52 @@
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O30" t="n">
         <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="U30" t="n">
         <v>1.64</v>
       </c>
       <c r="V30" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="W30" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -6278,13 +6278,13 @@
         <v>95</v>
       </c>
       <c r="AH30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="n">
         <v>170</v>
       </c>
       <c r="AJ30" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AK30" t="n">
         <v>210</v>
@@ -6296,19 +6296,19 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="AO30" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AP30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="AS30" t="n">
         <v>13</v>
@@ -6317,47 +6317,47 @@
         <v>15.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
         <v>9.6</v>
       </c>
       <c r="AW30" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>28</v>
       </c>
       <c r="BB30" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="BC30" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE30" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="BF30" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="BG30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6388,25 +6388,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G31" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J31" t="n">
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -6415,28 +6415,28 @@
         <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
         <v>1.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
         <v>2.16</v>
@@ -6478,7 +6478,7 @@
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -6490,7 +6490,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -6502,10 +6502,10 @@
         <v>8.4</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="AT31" t="n">
         <v>5.9</v>
@@ -6514,10 +6514,10 @@
         <v>4.9</v>
       </c>
       <c r="AV31" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="AX31" t="n">
         <v>5.1</v>
@@ -6526,32 +6526,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="BA31" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="BB31" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="BC31" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="BE31" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="BF31" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="BG31" t="n">
         <v>6.8</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
         <v>5.9</v>
       </c>
       <c r="G32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
         <v>1.61</v>
@@ -6603,34 +6603,34 @@
         <v>1.41</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
         <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1.84</v>
       </c>
       <c r="V32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W32" t="n">
         <v>1.17</v>
@@ -6693,13 +6693,13 @@
         <v>7</v>
       </c>
       <c r="AQ32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AR32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT32" t="n">
         <v>10.5</v>
@@ -6708,44 +6708,44 @@
         <v>5.1</v>
       </c>
       <c r="AV32" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AX32" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="AY32" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BA32" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB32" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="BC32" t="n">
         <v>4.2</v>
       </c>
       <c r="BD32" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="BE32" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="BF32" t="n">
         <v>4.2</v>
       </c>
       <c r="BG32" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.49</v>
@@ -6803,31 +6803,31 @@
         <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
         <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
         <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X33" t="n">
         <v>12</v>
@@ -6860,7 +6860,7 @@
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
         <v>65</v>
@@ -6917,7 +6917,7 @@
         <v>17</v>
       </c>
       <c r="BA33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB33" t="n">
         <v>24</v>
@@ -6935,11 +6935,11 @@
         <v>18</v>
       </c>
       <c r="BG33" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6970,16 +6970,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J34" t="n">
         <v>3.25</v>
@@ -6997,7 +6997,7 @@
         <v>3.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P34" t="n">
         <v>1.76</v>
@@ -7012,16 +7012,16 @@
         <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U34" t="n">
         <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W34" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X34" t="n">
         <v>22</v>
@@ -7039,7 +7039,7 @@
         <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
         <v>25</v>
@@ -7081,13 +7081,13 @@
         <v>9.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AR34" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AT34" t="n">
         <v>8.199999999999999</v>
@@ -7096,10 +7096,10 @@
         <v>6.6</v>
       </c>
       <c r="AV34" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AW34" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AX34" t="n">
         <v>7.6</v>
@@ -7108,32 +7108,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BA34" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="BB34" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BC34" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BD34" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="BE34" t="n">
         <v>12.5</v>
       </c>
       <c r="BF34" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BG34" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
         <v>1.41</v>
@@ -7203,13 +7203,13 @@
         <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T35" t="n">
         <v>2.02</v>
       </c>
       <c r="U35" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V35" t="n">
         <v>1.25</v>
@@ -7263,7 +7263,7 @@
         <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
         <v>16</v>
@@ -7305,7 +7305,7 @@
         <v>20</v>
       </c>
       <c r="BA35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB35" t="n">
         <v>20</v>
@@ -7323,11 +7323,11 @@
         <v>15</v>
       </c>
       <c r="BG35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -7376,19 +7376,19 @@
         <v>3.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M36" t="n">
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O36" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q36" t="n">
         <v>2.58</v>
@@ -7397,7 +7397,7 @@
         <v>1.22</v>
       </c>
       <c r="S36" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T36" t="n">
         <v>2.06</v>
@@ -7418,7 +7418,7 @@
         <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
         <v>70</v>
@@ -7427,7 +7427,7 @@
         <v>8</v>
       </c>
       <c r="AC36" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD36" t="n">
         <v>15</v>
@@ -7436,7 +7436,7 @@
         <v>50</v>
       </c>
       <c r="AF36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
@@ -7478,19 +7478,19 @@
         <v>60</v>
       </c>
       <c r="AT36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AU36" t="n">
         <v>6.4</v>
       </c>
       <c r="AV36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AW36" t="n">
         <v>46</v>
       </c>
       <c r="AX36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY36" t="n">
         <v>11.5</v>
@@ -7511,17 +7511,17 @@
         <v>50</v>
       </c>
       <c r="BE36" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="BF36" t="n">
         <v>30</v>
       </c>
       <c r="BG36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -7570,13 +7570,13 @@
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7588,10 +7588,10 @@
         <v>1.77</v>
       </c>
       <c r="R37" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T37" t="n">
         <v>1.7</v>
@@ -7630,7 +7630,7 @@
         <v>18.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG37" t="n">
         <v>16</v>
@@ -7642,19 +7642,19 @@
         <v>27</v>
       </c>
       <c r="AJ37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="n">
         <v>42</v>
       </c>
       <c r="AL37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="n">
         <v>70</v>
       </c>
       <c r="AN37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
         <v>11.5</v>
@@ -7672,7 +7672,7 @@
         <v>21</v>
       </c>
       <c r="AT37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU37" t="n">
         <v>8.6</v>
@@ -7684,10 +7684,10 @@
         <v>18</v>
       </c>
       <c r="AX37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ37" t="n">
         <v>16</v>
@@ -7711,11 +7711,11 @@
         <v>36</v>
       </c>
       <c r="BG37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -7746,13 +7746,13 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.63</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I38" t="n">
         <v>6.8</v>
@@ -7770,34 +7770,34 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q38" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V38" t="n">
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="X38" t="n">
         <v>16</v>
@@ -7806,19 +7806,19 @@
         <v>24</v>
       </c>
       <c r="Z38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC38" t="n">
         <v>11.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE38" t="n">
         <v>240</v>
@@ -7845,7 +7845,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
         <v>10.5</v>
@@ -7860,13 +7860,13 @@
         <v>17.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="AS38" t="n">
         <v>8.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AU38" t="n">
         <v>8.4</v>
@@ -7875,7 +7875,7 @@
         <v>21</v>
       </c>
       <c r="AW38" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AX38" t="n">
         <v>8.4</v>
@@ -7884,10 +7884,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA38" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB38" t="n">
         <v>13.5</v>
@@ -7896,10 +7896,10 @@
         <v>15</v>
       </c>
       <c r="BD38" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="BE38" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BF38" t="n">
         <v>7.2</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -7970,10 +7970,10 @@
         <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R39" t="n">
         <v>1.32</v>
@@ -8006,7 +8006,7 @@
         <v>210</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC39" t="n">
         <v>9.4</v>
@@ -8015,7 +8015,7 @@
         <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF39" t="n">
         <v>9</v>
@@ -8057,7 +8057,7 @@
         <v>44</v>
       </c>
       <c r="AS39" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT39" t="n">
         <v>6.8</v>
@@ -8099,11 +8099,11 @@
         <v>10</v>
       </c>
       <c r="BG39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -8137,16 +8137,16 @@
         <v>2.12</v>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
         <v>3.65</v>
@@ -8155,28 +8155,28 @@
         <v>1.46</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O40" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U40" t="n">
         <v>2.04</v>
@@ -8185,7 +8185,7 @@
         <v>1.33</v>
       </c>
       <c r="W40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X40" t="n">
         <v>24</v>
@@ -8200,10 +8200,10 @@
         <v>900</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD40" t="n">
         <v>36</v>
@@ -8221,7 +8221,7 @@
         <v>60</v>
       </c>
       <c r="AI40" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AJ40" t="n">
         <v>900</v>
@@ -8245,16 +8245,16 @@
         <v>6.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AR40" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AU40" t="n">
         <v>5.1</v>
@@ -8263,41 +8263,41 @@
         <v>9</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="AX40" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="AY40" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="AZ40" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BA40" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="BB40" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC40" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BD40" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="BE40" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="BF40" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="BG40" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
         <v>2.52</v>
       </c>
       <c r="G42" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
@@ -8579,7 +8579,7 @@
         <v>10</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z42" t="n">
         <v>22</v>
@@ -8600,7 +8600,7 @@
         <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
         <v>12.5</v>
@@ -8609,7 +8609,7 @@
         <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>170</v>
+        <v>460</v>
       </c>
       <c r="AJ42" t="n">
         <v>38</v>
@@ -8621,7 +8621,7 @@
         <v>60</v>
       </c>
       <c r="AM42" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN42" t="n">
         <v>36</v>
@@ -8663,7 +8663,7 @@
         <v>20</v>
       </c>
       <c r="BA42" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="BB42" t="n">
         <v>30</v>
@@ -8675,7 +8675,7 @@
         <v>48</v>
       </c>
       <c r="BE42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BF42" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -8725,13 +8725,13 @@
         <v>1.99</v>
       </c>
       <c r="I43" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.57</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -8910,13 +8910,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I44" t="n">
         <v>3.4</v>
@@ -8928,13 +8928,13 @@
         <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.37</v>
@@ -8943,13 +8943,13 @@
         <v>1.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
         <v>1.83</v>
@@ -8961,7 +8961,7 @@
         <v>1.42</v>
       </c>
       <c r="W44" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X44" t="n">
         <v>90</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -9230,7 +9230,7 @@
         <v>5.1</v>
       </c>
       <c r="AV45" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AW45" t="n">
         <v>4.3</v>
@@ -9242,13 +9242,13 @@
         <v>7.6</v>
       </c>
       <c r="AZ45" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BA45" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BB45" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BC45" t="n">
         <v>7.6</v>
@@ -9257,17 +9257,17 @@
         <v>3.45</v>
       </c>
       <c r="BE45" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="BF45" t="n">
         <v>5.5</v>
       </c>
       <c r="BG45" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -9492,13 +9492,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G47" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H47" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I47" t="n">
         <v>5.3</v>
@@ -9543,7 +9543,7 @@
         <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -9579,7 +9579,7 @@
         <v>23</v>
       </c>
       <c r="AI47" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
         <v>21</v>
@@ -9606,13 +9606,13 @@
         <v>4.9</v>
       </c>
       <c r="AR47" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AS47" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU47" t="n">
         <v>7.6</v>
@@ -9639,7 +9639,7 @@
         <v>4.4</v>
       </c>
       <c r="BC47" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BD47" t="n">
         <v>4.8</v>
@@ -9651,11 +9651,11 @@
         <v>4.1</v>
       </c>
       <c r="BG47" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-23.xlsx
@@ -762,58 +762,58 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.03</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.05</v>
-      </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="L2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -873,59 +873,59 @@
         <v>130</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -962,16 +962,16 @@
         <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
         <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -983,143 +983,143 @@
         <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
         <v>2.48</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AV3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="n">
         <v>14</v>
       </c>
       <c r="BC3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="BE3" t="n">
         <v>80</v>
       </c>
       <c r="BF3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BG3" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1347,13 +1347,13 @@
         <v>2.48</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1365,19 +1365,19 @@
         <v>1.59</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P5" t="n">
         <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.2</v>
@@ -1386,19 +1386,19 @@
         <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
         <v>1.82</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1407,10 +1407,10 @@
         <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
         <v>7.2</v>
@@ -1419,34 +1419,34 @@
         <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK5" t="n">
         <v>48</v>
       </c>
-      <c r="AK5" t="n">
-        <v>980</v>
-      </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
         <v>90</v>
@@ -1458,10 +1458,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AR5" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1470,10 +1470,10 @@
         <v>6.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.6</v>
+        <v>34</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1482,32 +1482,32 @@
         <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="BA5" t="n">
         <v>55</v>
       </c>
       <c r="BB5" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="BD5" t="n">
-        <v>9.4</v>
+        <v>36</v>
       </c>
       <c r="BE5" t="n">
-        <v>10.5</v>
+        <v>140</v>
       </c>
       <c r="BF5" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="BG5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
         <v>7.4</v>
@@ -1568,7 +1568,7 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
         <v>2.18</v>
@@ -1577,7 +1577,7 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
@@ -1586,10 +1586,10 @@
         <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1610,7 +1610,7 @@
         <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1652,13 +1652,13 @@
         <v>8.4</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="AU6" t="n">
         <v>5.6</v>
@@ -1667,41 +1667,41 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AZ6" t="n">
         <v>11.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="BB6" t="n">
         <v>7.4</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD6" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.14</v>
+        <v>3.95</v>
       </c>
       <c r="BF6" t="n">
         <v>3.85</v>
       </c>
       <c r="BG6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1747,7 +1747,7 @@
         <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.38</v>
@@ -1762,25 +1762,25 @@
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
         <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
         <v>1.92</v>
@@ -1831,28 +1831,28 @@
         <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR7" t="n">
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AU7" t="n">
         <v>7.4</v>
@@ -1864,38 +1864,38 @@
         <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="AZ7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BA7" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>11.5</v>
       </c>
       <c r="BC7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="BE7" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="BG7" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
         <v>4.1</v>
@@ -1935,28 +1935,28 @@
         <v>2.08</v>
       </c>
       <c r="I8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J8" t="n">
         <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
         <v>2.04</v>
@@ -1974,10 +1974,10 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
         <v>26</v>
@@ -2013,13 +2013,13 @@
         <v>42</v>
       </c>
       <c r="AI8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>500</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>900</v>
-      </c>
       <c r="AK8" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="AL8" t="n">
         <v>460</v>
@@ -2037,10 +2037,10 @@
         <v>9.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="AR8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS8" t="n">
         <v>11.5</v>
@@ -2067,29 +2067,29 @@
         <v>10.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>7.4</v>
+        <v>17.5</v>
       </c>
       <c r="BB8" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF8" t="n">
         <v>10.5</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BG8" t="n">
         <v>7.8</v>
       </c>
-      <c r="BE8" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2120,34 +2120,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
         <v>1.69</v>
@@ -2162,7 +2162,7 @@
         <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
         <v>1.98</v>
@@ -2171,16 +2171,16 @@
         <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
         <v>110</v>
@@ -2198,7 +2198,7 @@
         <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -2210,7 +2210,7 @@
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
         <v>44</v>
@@ -2228,19 +2228,19 @@
         <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AR9" t="n">
         <v>13.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU9" t="n">
         <v>6.4</v>
@@ -2255,7 +2255,7 @@
         <v>17.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
@@ -2264,7 +2264,7 @@
         <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
@@ -2276,14 +2276,14 @@
         <v>10</v>
       </c>
       <c r="BF9" t="n">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -2338,16 +2338,16 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
@@ -2368,7 +2368,7 @@
         <v>1.92</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>13.5</v>
@@ -2437,13 +2437,13 @@
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AX10" t="n">
         <v>9.4</v>
@@ -2455,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="BA10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2467,17 +2467,17 @@
         <v>24</v>
       </c>
       <c r="BE10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF10" t="n">
         <v>18</v>
       </c>
       <c r="BG10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2508,61 +2508,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="I11" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
         <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="W11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>7.6</v>
@@ -2571,13 +2571,13 @@
         <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>9.800000000000001</v>
@@ -2586,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AG11" t="n">
         <v>32</v>
@@ -2595,55 +2595,55 @@
         <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AK11" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AO11" t="n">
         <v>10.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>22</v>
@@ -2652,26 +2652,26 @@
         <v>34</v>
       </c>
       <c r="BB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC11" t="n">
         <v>12.5</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BE11" t="n">
         <v>29</v>
       </c>
-      <c r="BD11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>28</v>
-      </c>
       <c r="BF11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2702,139 +2702,139 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
         <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE12" t="n">
         <v>210</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AP12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="AS12" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW12" t="n">
         <v>15</v>
       </c>
-      <c r="AV12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AX12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY12" t="n">
         <v>10</v>
@@ -2843,10 +2843,10 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BB12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC12" t="n">
         <v>12</v>
@@ -2855,17 +2855,17 @@
         <v>30</v>
       </c>
       <c r="BE12" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="BG12" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2938,19 +2938,19 @@
         <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2965,7 +2965,7 @@
         <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2980,13 +2980,13 @@
         <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AK13" t="n">
         <v>500</v>
@@ -2998,19 +2998,19 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AP13" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>9</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="AS13" t="n">
         <v>13</v>
@@ -3040,26 +3040,26 @@
         <v>15.5</v>
       </c>
       <c r="BB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD13" t="n">
         <v>8.6</v>
       </c>
-      <c r="BC13" t="n">
-        <v>30</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BE13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF13" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3099,10 +3099,10 @@
         <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -3123,7 +3123,7 @@
         <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.43</v>
@@ -3132,7 +3132,7 @@
         <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2.02</v>
@@ -3180,7 +3180,7 @@
         <v>700</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>17.5</v>
@@ -3204,7 +3204,7 @@
         <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AS14" t="n">
         <v>8.4</v>
@@ -3219,7 +3219,7 @@
         <v>19.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>8.800000000000001</v>
@@ -3240,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="BD14" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="BE14" t="n">
         <v>8.199999999999999</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3284,25 +3284,25 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.72</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.73</v>
-      </c>
       <c r="H15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -3311,7 +3311,7 @@
         <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>2.08</v>
@@ -3320,7 +3320,7 @@
         <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
         <v>3.3</v>
@@ -3332,7 +3332,7 @@
         <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
         <v>2.38</v>
@@ -3362,7 +3362,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15" t="n">
         <v>9.4</v>
@@ -3395,34 +3395,34 @@
         <v>14.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR15" t="n">
         <v>40</v>
       </c>
       <c r="AS15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AT15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AW15" t="n">
         <v>65</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>65</v>
@@ -3440,14 +3440,14 @@
         <v>95</v>
       </c>
       <c r="BF15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BG15" t="n">
         <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
         <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.38</v>
@@ -3502,67 +3502,67 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
         <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
         <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
@@ -3574,13 +3574,13 @@
         <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>
@@ -3589,59 +3589,59 @@
         <v>14.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AT16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV16" t="n">
         <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>36</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BE16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG16" t="n">
-        <v>36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
         <v>1.19</v>
@@ -3684,10 +3684,10 @@
         <v>1.22</v>
       </c>
       <c r="J17" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L17" t="n">
         <v>1.27</v>
@@ -3705,7 +3705,7 @@
         <v>2.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R17" t="n">
         <v>1.67</v>
@@ -3717,10 +3717,10 @@
         <v>2.36</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="V17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="W17" t="n">
         <v>1.04</v>
@@ -3747,13 +3747,13 @@
         <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="n">
         <v>55</v>
@@ -3777,43 +3777,43 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AT17" t="n">
         <v>4.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.35</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="AX17" t="n">
         <v>4.2</v>
       </c>
       <c r="AY17" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="BB17" t="n">
         <v>4.2</v>
@@ -3825,17 +3825,17 @@
         <v>4.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BF17" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3866,19 +3866,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G18" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
         <v>4.9</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -3899,7 +3899,7 @@
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R18" t="n">
         <v>1.4</v>
@@ -3908,91 +3908,91 @@
         <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>32</v>
       </c>
       <c r="Z18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
         <v>110</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>11.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AS18" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AU18" t="n">
         <v>7.8</v>
       </c>
       <c r="AV18" t="n">
-        <v>8.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
         <v>23</v>
@@ -4001,35 +4001,35 @@
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC18" t="n">
         <v>16.5</v>
       </c>
-      <c r="BA18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB18" t="n">
+      <c r="BD18" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE18" t="n">
         <v>16.5</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>12.5</v>
       </c>
       <c r="BF18" t="n">
         <v>10</v>
       </c>
       <c r="BG18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
         <v>40</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.24</v>
@@ -4096,10 +4096,10 @@
         <v>1.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
         <v>2.42</v>
@@ -4114,13 +4114,13 @@
         <v>7.2</v>
       </c>
       <c r="X19" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="Y19" t="n">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="Z19" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4135,7 +4135,7 @@
         <v>400</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AF19" t="n">
         <v>8.199999999999999</v>
@@ -4144,10 +4144,10 @@
         <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AJ19" t="n">
         <v>8</v>
@@ -4156,40 +4156,40 @@
         <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>370</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR19" t="n">
-        <v>6.4</v>
+        <v>38</v>
       </c>
       <c r="AS19" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>6.4</v>
+        <v>28</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="AX19" t="n">
         <v>6.8</v>
@@ -4201,10 +4201,10 @@
         <v>20</v>
       </c>
       <c r="BA19" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>3.65</v>
+        <v>7.2</v>
       </c>
       <c r="BC19" t="n">
         <v>13</v>
@@ -4216,14 +4216,14 @@
         <v>28</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="BG19" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4254,25 +4254,25 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.5</v>
       </c>
-      <c r="G20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4284,7 +4284,7 @@
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q20" t="n">
         <v>1.5</v>
@@ -4293,19 +4293,19 @@
         <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X20" t="n">
         <v>85</v>
@@ -4314,7 +4314,7 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>46</v>
@@ -4329,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
         <v>190</v>
@@ -4338,10 +4338,10 @@
         <v>95</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
         <v>500</v>
@@ -4353,13 +4353,13 @@
         <v>160</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -4368,56 +4368,56 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
         <v>9.4</v>
       </c>
       <c r="AW20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>14</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>13.5</v>
       </c>
       <c r="BA20" t="n">
         <v>13.5</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BE20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BF20" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG20" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>12.5</v>
       </c>
       <c r="G21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="H21" t="n">
         <v>1.28</v>
@@ -4460,7 +4460,7 @@
         <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
         <v>7.2</v>
@@ -4478,25 +4478,25 @@
         <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="W21" t="n">
         <v>1.08</v>
@@ -4505,7 +4505,7 @@
         <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
         <v>8.199999999999999</v>
@@ -4514,7 +4514,7 @@
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>16</v>
@@ -4523,31 +4523,31 @@
         <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="n">
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AL21" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -4565,10 +4565,10 @@
         <v>6.8</v>
       </c>
       <c r="AS21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
         <v>13</v>
@@ -4580,28 +4580,28 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY21" t="n">
         <v>9</v>
       </c>
-      <c r="AY21" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BA21" t="n">
-        <v>8.6</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE21" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BF21" t="n">
         <v>15</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4672,10 +4672,10 @@
         <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
         <v>1.41</v>
@@ -4687,7 +4687,7 @@
         <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
         <v>1.17</v>
@@ -4708,7 +4708,7 @@
         <v>700</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>10</v>
@@ -4723,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
@@ -4756,10 +4756,10 @@
         <v>18.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AT22" t="n">
         <v>7.4</v>
@@ -4771,7 +4771,7 @@
         <v>20</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AX22" t="n">
         <v>8.4</v>
@@ -4783,7 +4783,7 @@
         <v>18.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB22" t="n">
         <v>13</v>
@@ -4795,17 +4795,17 @@
         <v>30</v>
       </c>
       <c r="BE22" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BF22" t="n">
         <v>8</v>
       </c>
       <c r="BG22" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4836,58 +4836,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T23" t="n">
         <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -4914,7 +4914,7 @@
         <v>700</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
@@ -4929,7 +4929,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>95</v>
@@ -4938,7 +4938,7 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>700</v>
@@ -4947,25 +4947,25 @@
         <v>16.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR23" t="n">
-        <v>7.6</v>
+        <v>22</v>
       </c>
       <c r="AS23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW23" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>7.6</v>
       </c>
       <c r="AX23" t="n">
         <v>9.4</v>
@@ -4977,7 +4977,7 @@
         <v>16.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="BB23" t="n">
         <v>14</v>
@@ -4986,20 +4986,20 @@
         <v>14.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="BE23" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BF23" t="n">
         <v>6.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>48</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5030,28 +5030,28 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G24" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
         <v>6.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>6.4</v>
@@ -5060,61 +5060,61 @@
         <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q24" t="n">
         <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA24" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>470</v>
@@ -5126,34 +5126,34 @@
         <v>14.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
         <v>390</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>36</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS24" t="n">
-        <v>10.5</v>
+        <v>90</v>
       </c>
       <c r="AT24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -5162,38 +5162,38 @@
         <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY24" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="BB24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
       </c>
       <c r="BD24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BE24" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="BF24" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="BG24" t="n">
         <v>15</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G25" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I25" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
@@ -5248,31 +5248,31 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W25" t="n">
         <v>1.2</v>
@@ -5281,16 +5281,16 @@
         <v>90</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AB25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="n">
         <v>11.5</v>
@@ -5299,19 +5299,19 @@
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
         <v>700</v>
@@ -5320,13 +5320,13 @@
         <v>320</v>
       </c>
       <c r="AL25" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
         <v>6.2</v>
@@ -5335,16 +5335,16 @@
         <v>14.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>9.6</v>
@@ -5356,22 +5356,22 @@
         <v>12.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB25" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BC25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>23</v>
@@ -5380,14 +5380,14 @@
         <v>48</v>
       </c>
       <c r="BF25" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="BG25" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
         <v>1.55</v>
       </c>
       <c r="G26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H26" t="n">
         <v>5.6</v>
@@ -5430,10 +5430,10 @@
         <v>6.2</v>
       </c>
       <c r="J26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.25</v>
@@ -5442,40 +5442,40 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S26" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V26" t="n">
         <v>1.19</v>
       </c>
       <c r="W26" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X26" t="n">
         <v>130</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="Z26" t="n">
         <v>350</v>
@@ -5502,7 +5502,7 @@
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
         <v>120</v>
@@ -5511,7 +5511,7 @@
         <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
@@ -5520,34 +5520,34 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO26" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AR26" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AS26" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV26" t="n">
         <v>18</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5556,10 +5556,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA26" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5568,20 +5568,20 @@
         <v>12.5</v>
       </c>
       <c r="BD26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BE26" t="n">
-        <v>9.199999999999999</v>
+        <v>28</v>
       </c>
       <c r="BF26" t="n">
         <v>4.6</v>
       </c>
       <c r="BG26" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G27" t="n">
         <v>2.3</v>
@@ -5645,7 +5645,7 @@
         <v>3.05</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R27" t="n">
         <v>1.8</v>
@@ -5717,7 +5717,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
@@ -5735,7 +5735,7 @@
         <v>16</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV27" t="n">
         <v>13</v>
@@ -5768,14 +5768,14 @@
         <v>30</v>
       </c>
       <c r="BF27" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
         <v>2.48</v>
@@ -5851,7 +5851,7 @@
         <v>2.14</v>
       </c>
       <c r="U28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
         <v>1.67</v>
@@ -5908,10 +5908,10 @@
         <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP28" t="n">
         <v>7.2</v>
@@ -5923,7 +5923,7 @@
         <v>11.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AT28" t="n">
         <v>8.800000000000001</v>
@@ -5935,7 +5935,7 @@
         <v>10.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AX28" t="n">
         <v>18.5</v>
@@ -5944,22 +5944,22 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>7.6</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BC28" t="n">
-        <v>23</v>
+        <v>7.6</v>
       </c>
       <c r="BD28" t="n">
         <v>29</v>
       </c>
       <c r="BE28" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BF28" t="n">
         <v>7.2</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6000,22 +6000,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G29" t="n">
         <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
         <v>3.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K29" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="L29" t="n">
         <v>1.75</v>
@@ -6024,10 +6024,10 @@
         <v>1.19</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O29" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P29" t="n">
         <v>1.37</v>
@@ -6036,7 +6036,7 @@
         <v>3.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -6045,7 +6045,7 @@
         <v>2.42</v>
       </c>
       <c r="U29" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V29" t="n">
         <v>1.38</v>
@@ -6054,7 +6054,7 @@
         <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Y29" t="n">
         <v>8.199999999999999</v>
@@ -6069,7 +6069,7 @@
         <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
         <v>18</v>
@@ -6102,13 +6102,13 @@
         <v>500</v>
       </c>
       <c r="AN29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="AQ29" t="n">
         <v>6.8</v>
@@ -6117,10 +6117,10 @@
         <v>17.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AU29" t="n">
         <v>6.2</v>
@@ -6129,7 +6129,7 @@
         <v>14.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX29" t="n">
         <v>13.5</v>
@@ -6138,32 +6138,32 @@
         <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA29" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BB29" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BE29" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BF29" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BG29" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>1.62</v>
       </c>
       <c r="I30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J30" t="n">
         <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.55</v>
@@ -6218,16 +6218,16 @@
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
@@ -6236,13 +6236,13 @@
         <v>5.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="U30" t="n">
         <v>1.64</v>
       </c>
       <c r="V30" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="W30" t="n">
         <v>1.13</v>
@@ -6251,16 +6251,16 @@
         <v>9.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
         <v>9</v>
@@ -6275,10 +6275,10 @@
         <v>280</v>
       </c>
       <c r="AG30" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="n">
         <v>170</v>
@@ -6296,19 +6296,19 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="AO30" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AP30" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="AS30" t="n">
         <v>13</v>
@@ -6326,38 +6326,38 @@
         <v>19.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BA30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="BB30" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="BC30" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="BE30" t="n">
-        <v>9.6</v>
+        <v>46</v>
       </c>
       <c r="BF30" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="BG30" t="n">
         <v>13.5</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6388,13 +6388,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G31" t="n">
         <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
         <v>6.2</v>
@@ -6403,37 +6403,37 @@
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
         <v>1.2</v>
@@ -6466,7 +6466,7 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
         <v>21</v>
@@ -6496,62 +6496,62 @@
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
         <v>8.4</v>
       </c>
       <c r="AR31" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.48</v>
+        <v>5.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AU31" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AY31" t="n">
         <v>6.2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>2.42</v>
+        <v>2.86</v>
       </c>
       <c r="BB31" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="BC31" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="BE31" t="n">
-        <v>2.48</v>
+        <v>5.4</v>
       </c>
       <c r="BF31" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="BG31" t="n">
-        <v>6.8</v>
+        <v>2.36</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -6591,13 +6591,13 @@
         <v>1.61</v>
       </c>
       <c r="I32" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J32" t="n">
         <v>3.95</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.41</v>
@@ -6693,10 +6693,10 @@
         <v>7</v>
       </c>
       <c r="AQ32" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AR32" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="AS32" t="n">
         <v>6.4</v>
@@ -6705,7 +6705,7 @@
         <v>10.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AV32" t="n">
         <v>5.4</v>
@@ -6714,28 +6714,28 @@
         <v>6.8</v>
       </c>
       <c r="AX32" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BA32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BB32" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="BC32" t="n">
         <v>4.2</v>
       </c>
       <c r="BD32" t="n">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="BE32" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="BF32" t="n">
         <v>4.2</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
         <v>4.1</v>
       </c>
       <c r="J33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.49</v>
@@ -6800,16 +6800,16 @@
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
@@ -6818,46 +6818,46 @@
         <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W33" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
         <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA33" t="n">
         <v>85</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE33" t="n">
         <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
         <v>20</v>
@@ -6866,10 +6866,10 @@
         <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
         <v>44</v>
@@ -6878,58 +6878,58 @@
         <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
         <v>65</v>
       </c>
       <c r="AP33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY33" t="n">
         <v>10</v>
       </c>
-      <c r="AQ33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>44</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA33" t="n">
-        <v>9.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="BB33" t="n">
         <v>24</v>
       </c>
       <c r="BC33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BE33" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BF33" t="n">
         <v>18</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6970,16 +6970,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G34" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.25</v>
@@ -6988,73 +6988,73 @@
         <v>3.35</v>
       </c>
       <c r="L34" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
         <v>1.28</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W34" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
         <v>500</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AF34" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AG34" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="n">
         <v>500</v>
@@ -7066,22 +7066,22 @@
         <v>110</v>
       </c>
       <c r="AL34" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP34" t="n">
         <v>9.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR34" t="n">
         <v>14.5</v>
@@ -7090,50 +7090,50 @@
         <v>20</v>
       </c>
       <c r="AT34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AU34" t="n">
         <v>6.6</v>
       </c>
       <c r="AV34" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AW34" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AX34" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BA34" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="BB34" t="n">
         <v>16</v>
       </c>
       <c r="BC34" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="BE34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BF34" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BG34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.8</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.49</v>
@@ -7191,10 +7191,10 @@
         <v>3.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q35" t="n">
         <v>2.22</v>
@@ -7203,19 +7203,19 @@
         <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T35" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
         <v>11.5</v>
@@ -7227,19 +7227,19 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC35" t="n">
         <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="n">
         <v>10.5</v>
@@ -7260,10 +7260,10 @@
         <v>22</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
         <v>16</v>
@@ -7284,13 +7284,13 @@
         <v>100</v>
       </c>
       <c r="AT35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU35" t="n">
         <v>7.6</v>
       </c>
       <c r="AV35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AW35" t="n">
         <v>60</v>
@@ -7305,7 +7305,7 @@
         <v>20</v>
       </c>
       <c r="BA35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB35" t="n">
         <v>20</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -7358,13 +7358,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G36" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I36" t="n">
         <v>3.55</v>
@@ -7382,22 +7382,22 @@
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P36" t="n">
         <v>1.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T36" t="n">
         <v>2.06</v>
@@ -7409,28 +7409,28 @@
         <v>1.39</v>
       </c>
       <c r="W36" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X36" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
         <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA36" t="n">
         <v>70</v>
       </c>
       <c r="AB36" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE36" t="n">
         <v>50</v>
@@ -7466,7 +7466,7 @@
         <v>65</v>
       </c>
       <c r="AP36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ36" t="n">
         <v>9.800000000000001</v>
@@ -7475,7 +7475,7 @@
         <v>20</v>
       </c>
       <c r="AS36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AT36" t="n">
         <v>7.8</v>
@@ -7493,10 +7493,10 @@
         <v>13.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ36" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA36" t="n">
         <v>60</v>
@@ -7511,7 +7511,7 @@
         <v>50</v>
       </c>
       <c r="BE36" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BF36" t="n">
         <v>30</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H37" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="I37" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
         <v>1.36</v>
@@ -7576,37 +7576,37 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q37" t="n">
         <v>1.77</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S37" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T37" t="n">
         <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y37" t="n">
         <v>11</v>
@@ -7615,28 +7615,28 @@
         <v>13</v>
       </c>
       <c r="AA37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
         <v>10</v>
       </c>
       <c r="AE37" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>16</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>16.5</v>
       </c>
       <c r="AI37" t="n">
         <v>27</v>
@@ -7645,7 +7645,7 @@
         <v>75</v>
       </c>
       <c r="AK37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="n">
         <v>44</v>
@@ -7660,7 +7660,7 @@
         <v>11.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>10.5</v>
@@ -7669,37 +7669,37 @@
         <v>12.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AV37" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AW37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX37" t="n">
         <v>28</v>
       </c>
       <c r="AY37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>16</v>
       </c>
       <c r="BA37" t="n">
         <v>26</v>
       </c>
       <c r="BB37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD37" t="n">
         <v>42</v>
@@ -7708,14 +7708,14 @@
         <v>65</v>
       </c>
       <c r="BF37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BG37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -7746,58 +7746,58 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.62</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.63</v>
       </c>
       <c r="H38" t="n">
         <v>6.4</v>
       </c>
       <c r="I38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X38" t="n">
         <v>16</v>
@@ -7806,13 +7806,13 @@
         <v>24</v>
       </c>
       <c r="Z38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
         <v>11.5</v>
@@ -7821,7 +7821,7 @@
         <v>27</v>
       </c>
       <c r="AE38" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="AF38" t="n">
         <v>10.5</v>
@@ -7845,10 +7845,10 @@
         <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AN38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -7860,10 +7860,10 @@
         <v>17.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS38" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT38" t="n">
         <v>7</v>
@@ -7875,7 +7875,7 @@
         <v>21</v>
       </c>
       <c r="AW38" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AX38" t="n">
         <v>8.4</v>
@@ -7887,7 +7887,7 @@
         <v>20</v>
       </c>
       <c r="BA38" t="n">
-        <v>8.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="BB38" t="n">
         <v>13.5</v>
@@ -7896,20 +7896,20 @@
         <v>15</v>
       </c>
       <c r="BD38" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BE38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF38" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BG38" t="n">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -7940,22 +7940,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="G39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I39" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
         <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.45</v>
@@ -7970,37 +7970,37 @@
         <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S39" t="n">
         <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
         <v>1.85</v>
       </c>
       <c r="V39" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W39" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X39" t="n">
         <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA39" t="n">
         <v>210</v>
@@ -8009,43 +8009,43 @@
         <v>7.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
         <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="n">
         <v>9</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH39" t="n">
         <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK39" t="n">
         <v>18</v>
       </c>
       <c r="AL39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
         <v>160</v>
       </c>
       <c r="AN39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AP39" t="n">
         <v>12</v>
@@ -8054,25 +8054,25 @@
         <v>17.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS39" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AT39" t="n">
         <v>6.8</v>
       </c>
       <c r="AU39" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV39" t="n">
         <v>22</v>
       </c>
       <c r="AW39" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AX39" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AY39" t="n">
         <v>9.4</v>
@@ -8081,29 +8081,29 @@
         <v>22</v>
       </c>
       <c r="BA39" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="BB39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BC39" t="n">
         <v>16.5</v>
       </c>
       <c r="BD39" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BF39" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="BG39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G40" t="n">
         <v>2.18</v>
@@ -8143,13 +8143,13 @@
         <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.46</v>
@@ -8164,19 +8164,19 @@
         <v>1.36</v>
       </c>
       <c r="P40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.81</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.83</v>
       </c>
       <c r="U40" t="n">
         <v>2.04</v>
@@ -8212,7 +8212,7 @@
         <v>240</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG40" t="n">
         <v>21</v>
@@ -8239,65 +8239,65 @@
         <v>85</v>
       </c>
       <c r="AO40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP40" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AR40" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AS40" t="n">
         <v>2.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="AU40" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AV40" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AX40" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY40" t="n">
         <v>6.2</v>
       </c>
       <c r="AZ40" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA40" t="n">
-        <v>2.94</v>
+        <v>3.7</v>
       </c>
       <c r="BB40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BC40" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BC40" t="n">
-        <v>8.6</v>
-      </c>
       <c r="BD40" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="BE40" t="n">
-        <v>3.85</v>
+        <v>12.5</v>
       </c>
       <c r="BF40" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="BG40" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -8331,19 +8331,19 @@
         <v>1.84</v>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H41" t="n">
         <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L41" t="n">
         <v>1.48</v>
@@ -8352,13 +8352,13 @@
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.41</v>
       </c>
       <c r="P41" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q41" t="n">
         <v>2.24</v>
@@ -8379,7 +8379,7 @@
         <v>1.22</v>
       </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X41" t="n">
         <v>25</v>
@@ -8442,7 +8442,7 @@
         <v>7.6</v>
       </c>
       <c r="AR41" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AS41" t="n">
         <v>3.05</v>
@@ -8457,7 +8457,7 @@
         <v>6</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="AX41" t="n">
         <v>5.6</v>
@@ -8466,32 +8466,32 @@
         <v>7</v>
       </c>
       <c r="AZ41" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BA41" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="BB41" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BC41" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BD41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BE41" t="n">
         <v>3.05</v>
       </c>
       <c r="BF41" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="BG41" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -8522,22 +8522,22 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G42" t="n">
         <v>2.52</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
         <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
         <v>1.54</v>
@@ -8546,13 +8546,13 @@
         <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q42" t="n">
         <v>2.52</v>
@@ -8567,25 +8567,25 @@
         <v>2.06</v>
       </c>
       <c r="U42" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V42" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y42" t="n">
         <v>10</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>10.5</v>
       </c>
       <c r="Z42" t="n">
         <v>22</v>
       </c>
       <c r="AA42" t="n">
-        <v>430</v>
+        <v>65</v>
       </c>
       <c r="AB42" t="n">
         <v>7.8</v>
@@ -8600,19 +8600,19 @@
         <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
         <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK42" t="n">
         <v>80</v>
@@ -8624,22 +8624,22 @@
         <v>170</v>
       </c>
       <c r="AN42" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="AO42" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AP42" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ42" t="n">
         <v>9</v>
       </c>
       <c r="AR42" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AT42" t="n">
         <v>7.4</v>
@@ -8651,7 +8651,7 @@
         <v>13.5</v>
       </c>
       <c r="AW42" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AX42" t="n">
         <v>12.5</v>
@@ -8663,7 +8663,7 @@
         <v>20</v>
       </c>
       <c r="BA42" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="BB42" t="n">
         <v>30</v>
@@ -8672,20 +8672,20 @@
         <v>27</v>
       </c>
       <c r="BD42" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BE42" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BF42" t="n">
         <v>30</v>
       </c>
       <c r="BG42" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -8716,19 +8716,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G43" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H43" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I43" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
         <v>3.4</v>
@@ -8740,7 +8740,7 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O43" t="n">
         <v>1.52</v>
@@ -8749,7 +8749,7 @@
         <v>1.54</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R43" t="n">
         <v>1.19</v>
@@ -8764,10 +8764,10 @@
         <v>1.73</v>
       </c>
       <c r="V43" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W43" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X43" t="n">
         <v>9</v>
@@ -8779,7 +8779,7 @@
         <v>13.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -8833,7 +8833,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AS43" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AT43" t="n">
         <v>10.5</v>
@@ -8845,41 +8845,41 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AW43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AX43" t="n">
         <v>11.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ43" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA43" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="BB43" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BC43" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="BD43" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BE43" t="n">
-        <v>